--- a/app/static/media/documents/Requirements_Brief_Template.xlsx
+++ b/app/static/media/documents/Requirements_Brief_Template.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Matison\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outcome" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="140">
   <si>
     <t>Question</t>
   </si>
@@ -456,18 +451,6 @@
     <t>Create a title for your brief</t>
   </si>
   <si>
-    <t>For example 'Developer needed for immediate start'. Or simply, 'Ethical Hacker—6 month project'.
-You can update it later if needed.
-Title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What type of digital specialist do you need?
-</t>
-  </si>
-  <si>
-    <t>Choose one option.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Where will the work take place?
 </t>
   </si>
@@ -537,15 +520,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Contracts cannot exceed 12 months.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All specialists in the Digital Marketplace have already agreed to the terms and conditions in the Deed of Standing Offer.
-However, if you need to set out any additional terms and conditions, you can do so here.
-</t>
-  </si>
-  <si>
     <t>How much can you spend per day?</t>
   </si>
   <si>
@@ -564,10 +538,6 @@
   </si>
   <si>
     <t>Maximum number of specialists you’ll evaluate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We recommend that you evaluate at least 3 specialists.
-</t>
   </si>
   <si>
     <t>Evaluation weighting
@@ -619,14 +589,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Set technical competence criteria
-Technical competence is how well the seller can do the work you need them to do.
-Evaluate specialists’ technical competence using criteria for:
-- essential skills and experience
-- nice-to-have skills and experience
-</t>
-  </si>
-  <si>
     <t>Up to 20 criteria, 300 characters per criteria</t>
   </si>
   <si>
@@ -643,15 +605,6 @@
 - Work as a team with our organisation and other sellers
 - Transparent and collaborative when making decisions
 - Have a no-blame culture and encourage people to learn from their mistakes</t>
-  </si>
-  <si>
-    <t>How you’ll assess the specialists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You must ask all specialists that reach the assessment stage for a work history.
-Choose additional ways to assess specialists.
-You can only use the methods you choose here, for example if you don’t select an interview, you won’t be able to interview specialists.
-</t>
   </si>
   <si>
     <t xml:space="preserve">How long your requirements will be open for </t>
@@ -684,51 +637,13 @@
     <t>Question and answer session details</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Highlight one of the thirteen options below.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-Agile Coach
-Helps individuals, teams and managers be as effective as possible by embedding an agile culture.
-Business Analyst
-Analyses a service or organisation’s business processes and systems. Specifies, collects and presents findings.
-Delivery Manager
-Enables agile teams to deliver high-quality services by removing obstacles or blockers to progress and facilitating project meetings.
-Developer
-Builds quality, well-tested software and sites according to standards and best practice.
-Digital Transformation Adviser
-Digital Transformation Advisers provide leadership in delivering new programs of work in state, territory and federal government agencies, or across multiple functions.
-Ethical Hacker
-Ensures system security, identifies cyber security risks, applies risk treatments, detects and manages cyber security incidents.
-Inclusive Designer
-Supports the team with an in-depth knowledge of best practice in accessible development.
-Interaction Designer
-Responsible for designing a user-focused and accessible service, and making use of established design patterns.
-Performance and Web Analyst
-Specifies, collects and presents the key performance data and analysis for their service.
-Product Manager
-Works with the team to create the vision for the product, and sets the day-to-day priorities to fulfil that vision and ensure the team delivers.
-Service Designer
-Designs user-focused services that meet web standards and contributes to the development and continual enhancement of products.
-Technical Lead/Architect
-The most senior technical person in the team. Their role is to break down complex problems and lead by example in writing quality code.
-User Researcher
-Helps the team develop a deep understanding of their users and user needs.
- Web Operations Engineer (Web Devops)
-Runs the production systems, helps the team deploy quickly and reliably and ensures the smooth running of the service.</t>
-    </r>
+    <t>Essential skills and experience
+List all the specific skills or experience the specialist must have, for example have experience designing services for users with low digital literacy.</t>
+  </si>
+  <si>
+    <t>Nice-to-have skills and experience
+If too many specialists have all the essential skills and experience, use the nice-to-have skills and experience to exclude specialists.
+List the skills and experience you’d like the specialist to have, for example "provide evidence of delivering at scale."</t>
   </si>
   <si>
     <r>
@@ -738,9 +653,25 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Highlight all that will apply. Work History is mandatory
-Work history 
-A work history can give you a view of a specialist’s skills and experience.
+      <t xml:space="preserve">Highlight one of the eleven options below.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(definitions for each option can be found at https://marketplace1.zendesk.com/hc/en-gb/articles/115011271567-What-you-can-buy)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -750,7 +681,71 @@
         <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
-References 
+- Strategy and Policy 
+- User research and Design 
+- Agile delivery and Governance 
+- Software engineering and Development 
+- Support and Operations 
+- Content and Publishing 
+- Change, Training and Transformation
+- Marketing, Communications and Engagement 
+- Cyber security 
+- Data science and management 
+- Emerging technologies 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>For example 'Developer needed for immediate start'. Or simply, 'Ethical Hacker—6 month project'.
+You can update it later if needed.</t>
+  </si>
+  <si>
+    <t>All sellers that respond to your brief in the Digital Marketplace have agreed to the terms and conditions in the Master Agreement.
+There will be times when the nature of your opportunity means you may need to add to or amend the default positions of the Master Agreement. If you need to, you can set out any additional terms and conditions here.</t>
+  </si>
+  <si>
+    <t>Area of expertise</t>
+  </si>
+  <si>
+    <t>Choose the primary area of expertise needed to complete the tasks in your brief. 
+Sellers must be approved in this area of expertise before they are eligible to apply for your brief. Sellers who are not yet approved for this area can request assessment while the brief is open on the Marketplace, and if approved will be eligible to apply.</t>
+  </si>
+  <si>
+    <t>We recommend that you evaluate at least 3 specialists.
+After shortlisting all responses, this is the number of specialists you'll evaluate in detail.</t>
+  </si>
+  <si>
+    <t>Evaluation criteria 
+When a seller applies for your brief they’ll provide a written response to each of your essential and desirable criteria. Clearly stating the skills and experience you need here will make your evaluation easier later. 
+Remember, when evaluating consider all relevant financial and non-financial costs and benefits including: 
+- the quality of the goods and services
+- fitness for purpose of the proposal
+- the seller’s experience and performance history
+- flexibility of the proposal, including innovation and adaptability over the lifecycle of the procurement
+- environmental sustainability of the proposed goods and services, such as energy efficiency and environmental impact
+- whole-of-life costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How will you verify the specialist is right for the role? </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Highlight all that will apply. Resumes are mandatory
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">References 
 References are a good way of confirming whether a specialist has done the work they’ve said they’ve done. You should always ask for references that relate to a specific timeframe, for example work they’ve done in the last 2 years.
 Interview 
 An interview can help you understand whether a specialist or team has the skills needed to work on your project. It will also help you see whether they will be a good fit for your existing team. You should follow an agreed format in which you ask all specialists the same set of questions.
@@ -764,19 +759,74 @@
     </r>
   </si>
   <si>
-    <t>Essential skills and experience
-List all the specific skills or experience the specialist must have, for example have experience designing services for users with low digital literacy.</t>
+    <t xml:space="preserve">You must review the resumes of all specialists who reach the evaluation stage.
+You can only use the methods you choose here, for example if you don’t select an interview, you won’t be able to interview specialists.
+</t>
   </si>
   <si>
-    <t>Nice-to-have skills and experience
-If too many specialists have all the essential skills and experience, use the nice-to-have skills and experience to exclude specialists.
-List the skills and experience you’d like the specialist to have, for example "provide evidence of delivering at scale."</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>While the application period is open, you need to reply to all questions sellers ask about your requirements.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+When a seller asks a question, you’ll be sent an email to the email address you registered with.
+You’ll need to post all questions and answers on the Digital Marketplace so that all sellers can see them.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Providing a question and answer session is optional but it means you can explain your needs and answer any questions quickly.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+You must include:
+- the type of session you want to run, eg webinar, phone conference or meeting
+- the date and time of the session (this should happen within 1 week of publishing your requirements)
+Depending on the type of session you choose, you could also include:
+- software needed
+- the url
+- the phone number
+- the access code
+- the address (including postcode)
+- anything else needed to take part
+This information will only be available to eligible sellers who have logged in.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">If you select Open to select or Open to one, you are required to manually add the selected seller's email addresses.
+If specifying sellers, they must be registered on the Digital Marketplace at the time of publishing or they will not be able to respond. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -902,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -935,9 +985,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -959,20 +1006,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1016,24 +1049,11 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1044,6 +1064,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1236,7 +1283,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5073650</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1285,7 +1332,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5073650</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1339,7 +1386,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5073650</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1681,10 +1728,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1713,7 +1762,7 @@
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="31"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1741,15 +1790,15 @@
       <c r="AF1" s="1"/>
     </row>
     <row r="2" spans="1:32" ht="12.5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1777,19 +1826,19 @@
       <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="62.5">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="30"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1817,19 +1866,19 @@
       <c r="AF3" s="2"/>
     </row>
     <row r="4" spans="1:32" ht="125">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="32"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1857,19 +1906,19 @@
       <c r="AF4" s="2"/>
     </row>
     <row r="5" spans="1:32" ht="50">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="28" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="30"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1897,19 +1946,19 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32" ht="87.5">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="35" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="30"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1937,19 +1986,19 @@
       <c r="AF6" s="2"/>
     </row>
     <row r="7" spans="1:32" ht="50">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1977,19 +2026,19 @@
       <c r="AF7" s="2"/>
     </row>
     <row r="8" spans="1:32" ht="125">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="35" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -2017,23 +2066,23 @@
       <c r="AF8" s="2"/>
     </row>
     <row r="9" spans="1:32" ht="62.5">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -2061,19 +2110,19 @@
       <c r="AF9" s="2"/>
     </row>
     <row r="10" spans="1:32" ht="300">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -2101,19 +2150,19 @@
       <c r="AF10" s="2"/>
     </row>
     <row r="11" spans="1:32" ht="50">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="35" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="30"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -2141,21 +2190,21 @@
       <c r="AF11" s="2"/>
     </row>
     <row r="12" spans="1:32" ht="13">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2183,21 +2232,21 @@
       <c r="AF12" s="2"/>
     </row>
     <row r="13" spans="1:32" ht="50">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="35" t="s">
+      <c r="D13" s="29"/>
+      <c r="E13" s="28" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2225,21 +2274,21 @@
       <c r="AF13" s="2"/>
     </row>
     <row r="14" spans="1:32" ht="75">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="35" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="28" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="30"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -2267,23 +2316,23 @@
       <c r="AF14" s="2"/>
     </row>
     <row r="15" spans="1:32" ht="87.5">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="28" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="30"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2311,19 +2360,19 @@
       <c r="AF15" s="2"/>
     </row>
     <row r="16" spans="1:32" ht="50">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2351,21 +2400,21 @@
       <c r="AF16" s="2"/>
     </row>
     <row r="17" spans="1:32" ht="26">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="29"/>
       <c r="F17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="23"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2393,23 +2442,23 @@
       <c r="AF17" s="2"/>
     </row>
     <row r="18" spans="1:32" ht="100">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="31" t="s">
         <v>16</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2437,23 +2486,23 @@
       <c r="AF18" s="2"/>
     </row>
     <row r="19" spans="1:32" ht="125">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="28" t="s">
         <v>53</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="30"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2481,19 +2530,19 @@
       <c r="AF19" s="2"/>
     </row>
     <row r="20" spans="1:32" ht="50">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="35" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="30"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2521,15 +2570,15 @@
       <c r="AF20" s="2"/>
     </row>
     <row r="21" spans="1:32" ht="13">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="30"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2557,17 +2606,17 @@
       <c r="AF21" s="2"/>
     </row>
     <row r="22" spans="1:32" ht="39">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="30"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2595,17 +2644,17 @@
       <c r="AF22" s="2"/>
     </row>
     <row r="23" spans="1:32" ht="13">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="33"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -2633,19 +2682,19 @@
       <c r="AF23" s="5"/>
     </row>
     <row r="24" spans="1:32" ht="137.5">
-      <c r="A24" s="42"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="35" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F24" s="11"/>
-      <c r="G24" s="33"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -2673,19 +2722,19 @@
       <c r="AF24" s="5"/>
     </row>
     <row r="25" spans="1:32" ht="75">
-      <c r="A25" s="42"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="35" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="37" t="s">
         <v>66</v>
       </c>
       <c r="F25" s="11"/>
-      <c r="G25" s="33"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -2713,19 +2762,19 @@
       <c r="AF25" s="5"/>
     </row>
     <row r="26" spans="1:32" ht="37.5">
-      <c r="A26" s="42"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="34" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="46" t="s">
+      <c r="D26" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="37" t="s">
         <v>68</v>
       </c>
       <c r="F26" s="11"/>
-      <c r="G26" s="33"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -2753,17 +2802,17 @@
       <c r="AF26" s="5"/>
     </row>
     <row r="27" spans="1:32" ht="13" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="48" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="33"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -2791,19 +2840,19 @@
       <c r="AF27" s="5"/>
     </row>
     <row r="28" spans="1:32" ht="225">
-      <c r="A28" s="34"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="35" t="s">
-        <v>137</v>
+      <c r="A28" s="27"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="28" t="s">
+        <v>126</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="35" t="s">
+      <c r="D28" s="38"/>
+      <c r="E28" s="28" t="s">
         <v>71</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="33"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -2831,19 +2880,19 @@
       <c r="AF28" s="5"/>
     </row>
     <row r="29" spans="1:32" ht="100">
-      <c r="A29" s="34"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="35" t="s">
-        <v>138</v>
+      <c r="A29" s="27"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="28" t="s">
+        <v>127</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="28" t="s">
         <v>71</v>
       </c>
       <c r="F29" s="11"/>
-      <c r="G29" s="33"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -2871,17 +2920,17 @@
       <c r="AF29" s="5"/>
     </row>
     <row r="30" spans="1:32" ht="137.5">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="14" t="s">
+      <c r="D30" s="38"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="33"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -2909,21 +2958,21 @@
       <c r="AF30" s="5"/>
     </row>
     <row r="31" spans="1:32" ht="100">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="35" t="s">
+      <c r="D31" s="38"/>
+      <c r="E31" s="28" t="s">
         <v>71</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="33"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -2951,19 +3000,19 @@
       <c r="AF31" s="5"/>
     </row>
     <row r="32" spans="1:32" ht="262.5">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2991,21 +3040,21 @@
       <c r="AF32" s="2"/>
     </row>
     <row r="33" spans="1:32" ht="255" customHeight="1">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="36"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="23"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="3"/>
@@ -3033,15 +3082,15 @@
       <c r="AF33" s="2"/>
     </row>
     <row r="34" spans="1:32" ht="12.5">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="30"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -3069,17 +3118,17 @@
       <c r="AF34" s="2"/>
     </row>
     <row r="35" spans="1:32" ht="37.5">
-      <c r="A35" s="40"/>
-      <c r="B35" s="40" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="30"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="23"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -3107,23 +3156,23 @@
       <c r="AF35" s="2"/>
     </row>
     <row r="36" spans="1:32" ht="387.5">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="51" t="s">
+      <c r="F36" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="G36" s="30"/>
+      <c r="G36" s="23"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -3151,19 +3200,19 @@
       <c r="AF36" s="2"/>
     </row>
     <row r="37" spans="1:32" ht="138">
-      <c r="A37" s="36"/>
-      <c r="B37" s="52" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="14" t="s">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="30"/>
+      <c r="G37" s="23"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -3191,13 +3240,13 @@
       <c r="AF37" s="2"/>
     </row>
     <row r="38" spans="1:32" ht="12.5">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -36085,23 +36134,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8" style="54" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="56.54296875" style="54" customWidth="1"/>
-    <col min="4" max="5" width="11.08984375" style="54" customWidth="1"/>
-    <col min="6" max="6" width="70" style="54" customWidth="1"/>
-    <col min="7" max="7" width="5.26953125" style="54" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="54"/>
+    <col min="1" max="1" width="8" style="42" customWidth="1"/>
+    <col min="2" max="2" width="28.26953125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="56.54296875" style="42" customWidth="1"/>
+    <col min="4" max="5" width="11.08984375" style="42" customWidth="1"/>
+    <col min="6" max="6" width="82.81640625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="5.26953125" style="42" customWidth="1"/>
+    <col min="8" max="16384" width="14.453125" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13">
@@ -36121,210 +36170,210 @@
       <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="53"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="1:7" ht="12.5">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="53"/>
-    </row>
-    <row r="3" spans="1:7" ht="75">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="1:7" ht="50">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22" t="s">
         <v>94</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="9"/>
-      <c r="G3" s="53"/>
-    </row>
-    <row r="4" spans="1:7" ht="409.5">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23" t="s">
-        <v>96</v>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" spans="1:7" ht="125">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="10" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
-      <c r="G4" s="53"/>
-    </row>
-    <row r="5" spans="1:7" ht="125">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23" t="s">
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" ht="62.5">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" ht="87.5">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="53"/>
-    </row>
-    <row r="6" spans="1:7" ht="62.5">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23" t="s">
+      <c r="C6" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="53"/>
-    </row>
-    <row r="7" spans="1:7" ht="87.5">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23" t="s">
-        <v>103</v>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" ht="26">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="53"/>
+      <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="26">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="1:7" ht="50">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="7" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="53"/>
-    </row>
-    <row r="9" spans="1:7" ht="26">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="53"/>
-    </row>
-    <row r="10" spans="1:7" ht="50">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23" t="s">
-        <v>107</v>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:7" ht="87.5">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="53"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7" ht="87.5">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23" t="s">
-        <v>35</v>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="41"/>
+    </row>
+    <row r="12" spans="1:7" ht="37.5">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="7" t="s">
-        <v>16</v>
+      <c r="D12" s="8"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="41"/>
+    </row>
+    <row r="13" spans="1:7" ht="39">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22" t="s">
+        <v>45</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="53"/>
-    </row>
-    <row r="12" spans="1:7" ht="87.5">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="53"/>
-    </row>
-    <row r="13" spans="1:7" ht="37.5">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="8"/>
       <c r="E13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="1:7" ht="39">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23" t="s">
-        <v>45</v>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="1:7" ht="87.5">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="53"/>
-    </row>
-    <row r="15" spans="1:7" ht="87.5">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23" t="s">
-        <v>48</v>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="15" spans="1:7" ht="75">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>2</v>
@@ -36333,227 +36382,225 @@
         <v>33</v>
       </c>
       <c r="F15" s="9"/>
-      <c r="G15" s="53"/>
-    </row>
-    <row r="16" spans="1:7" ht="75">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23" t="s">
-        <v>115</v>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:7" ht="87.5">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="D16" s="8"/>
       <c r="E16" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:31" ht="87.5">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="53"/>
-    </row>
-    <row r="18" spans="1:31" ht="13">
-      <c r="A18" s="26" t="s">
+      <c r="F16" s="10"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:31" ht="13">
+      <c r="A17" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="53"/>
-    </row>
-    <row r="19" spans="1:31" ht="39">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23" t="s">
-        <v>119</v>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="1:31" ht="200.5">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="1:31" ht="50">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="53"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="1:31" ht="100.5">
-      <c r="A20" s="22"/>
-      <c r="B20" s="28" t="s">
-        <v>121</v>
+      <c r="A20" s="21"/>
+      <c r="B20" s="54" t="s">
+        <v>115</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F20" s="11"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
     </row>
     <row r="21" spans="1:31" ht="50.5">
-      <c r="A21" s="22"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F21" s="11"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="56"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
     </row>
     <row r="22" spans="1:31" ht="13">
-      <c r="A22" s="22"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="23" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="22" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F22" s="11"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="56"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
     </row>
     <row r="23" spans="1:31" ht="184.5" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="29" t="s">
-        <v>125</v>
+      <c r="A23" s="22"/>
+      <c r="B23" s="55" t="s">
+        <v>134</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-    </row>
-    <row r="24" spans="1:31" ht="92.25" customHeight="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="25"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="44"/>
+    </row>
+    <row r="24" spans="1:31" ht="217.5" customHeight="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="7" t="s">
         <v>73</v>
       </c>
@@ -36561,40 +36608,40 @@
         <v>2</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>127</v>
+      <c r="F24" s="10" t="s">
+        <v>120</v>
       </c>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="56"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
     </row>
     <row r="25" spans="1:31" ht="99.75" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22" t="s">
         <v>76</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -36602,128 +36649,129 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
-      <c r="F25" s="14" t="s">
-        <v>128</v>
+      <c r="F25" s="13" t="s">
+        <v>121</v>
       </c>
-      <c r="G25" s="55"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="56"/>
-    </row>
-    <row r="26" spans="1:31" ht="377">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="s">
-        <v>129</v>
+      <c r="G25" s="43"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="44"/>
+      <c r="AC25" s="44"/>
+      <c r="AD25" s="44"/>
+      <c r="AE25" s="44"/>
+    </row>
+    <row r="26" spans="1:31" ht="326">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>135</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>130</v>
+      <c r="C26" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="53"/>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:31" ht="12.5">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="53"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="1:31" ht="51">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15" t="s">
-        <v>131</v>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14" t="s">
+        <v>122</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>132</v>
+      <c r="C28" s="15" t="s">
+        <v>123</v>
       </c>
-      <c r="D28" s="16"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="14" t="s">
-        <v>133</v>
+      <c r="F28" s="13" t="s">
+        <v>124</v>
       </c>
-      <c r="G28" s="53"/>
-    </row>
-    <row r="29" spans="1:31" ht="375">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15" t="s">
-        <v>134</v>
+      <c r="G28" s="41"/>
+    </row>
+    <row r="29" spans="1:31" ht="365">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14" t="s">
+        <v>125</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>89</v>
+      <c r="C29" s="15" t="s">
+        <v>138</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="53"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="41"/>
     </row>
     <row r="30" spans="1:31" ht="137.5">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="10" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
-      <c r="G30" s="53"/>
+      <c r="G30" s="41"/>
     </row>
     <row r="31" spans="1:31" ht="12.5">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/app/static/media/documents/Requirements_Brief_Template.xlsx
+++ b/app/static/media/documents/Requirements_Brief_Template.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D33E5B-FB30-47CC-A371-9F3A94D60C64}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Outcome" sheetId="1" r:id="rId1"/>
     <sheet name="Specialist" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="139">
   <si>
     <t>Question</t>
   </si>
@@ -211,10 +212,6 @@
   </si>
   <si>
     <t xml:space="preserve">How long is the contract?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contracts cannot exceed 12 months.
 </t>
   </si>
   <si>
@@ -1731,21 +1728,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" customWidth="1"/>
-    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
-    <col min="6" max="6" width="71.7265625" customWidth="1"/>
-    <col min="7" max="7" width="6.90625" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="71.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="13">
+    <row r="1" spans="1:32" ht="12.75">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1789,7 +1786,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" ht="12.5">
+    <row r="2" spans="1:32" ht="12.75">
       <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
@@ -1825,7 +1822,7 @@
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" ht="62.5">
+    <row r="3" spans="1:32" ht="76.5">
       <c r="A3" s="27"/>
       <c r="B3" s="27" t="s">
         <v>6</v>
@@ -1865,7 +1862,7 @@
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" ht="125">
+    <row r="4" spans="1:32" ht="127.5">
       <c r="A4" s="27"/>
       <c r="B4" s="27" t="s">
         <v>9</v>
@@ -1905,7 +1902,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" ht="50">
+    <row r="5" spans="1:32" ht="51">
       <c r="A5" s="27"/>
       <c r="B5" s="27" t="s">
         <v>12</v>
@@ -1945,7 +1942,7 @@
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" ht="87.5">
+    <row r="6" spans="1:32" ht="89.25">
       <c r="A6" s="27"/>
       <c r="B6" s="27" t="s">
         <v>14</v>
@@ -1985,7 +1982,7 @@
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" ht="50">
+    <row r="7" spans="1:32" ht="51">
       <c r="A7" s="27"/>
       <c r="B7" s="27" t="s">
         <v>17</v>
@@ -2025,7 +2022,7 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" ht="125">
+    <row r="8" spans="1:32" ht="127.5">
       <c r="A8" s="27"/>
       <c r="B8" s="27" t="s">
         <v>19</v>
@@ -2065,7 +2062,7 @@
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" ht="62.5">
+    <row r="9" spans="1:32" ht="63.75">
       <c r="A9" s="27"/>
       <c r="B9" s="27" t="s">
         <v>21</v>
@@ -2109,7 +2106,7 @@
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" ht="300">
+    <row r="10" spans="1:32" ht="318.75">
       <c r="A10" s="27"/>
       <c r="B10" s="27" t="s">
         <v>24</v>
@@ -2149,7 +2146,7 @@
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" ht="50">
+    <row r="11" spans="1:32" ht="51">
       <c r="A11" s="27"/>
       <c r="B11" s="27" t="s">
         <v>27</v>
@@ -2189,7 +2186,7 @@
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" ht="13">
+    <row r="12" spans="1:32" ht="12.75">
       <c r="A12" s="27"/>
       <c r="B12" s="27" t="s">
         <v>29</v>
@@ -2231,7 +2228,7 @@
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" ht="50">
+    <row r="13" spans="1:32" ht="51">
       <c r="A13" s="27"/>
       <c r="B13" s="27" t="s">
         <v>31</v>
@@ -2273,7 +2270,7 @@
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
     </row>
-    <row r="14" spans="1:32" ht="75">
+    <row r="14" spans="1:32" ht="76.5">
       <c r="A14" s="27"/>
       <c r="B14" s="27" t="s">
         <v>35</v>
@@ -2315,7 +2312,7 @@
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
     </row>
-    <row r="15" spans="1:32" ht="87.5">
+    <row r="15" spans="1:32" ht="102">
       <c r="A15" s="27"/>
       <c r="B15" s="27" t="s">
         <v>38</v>
@@ -2359,7 +2356,7 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" ht="50">
+    <row r="16" spans="1:32" ht="51">
       <c r="A16" s="27"/>
       <c r="B16" s="27" t="s">
         <v>42</v>
@@ -2399,20 +2396,18 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" ht="26">
+    <row r="17" spans="1:32" ht="25.5">
       <c r="A17" s="27"/>
       <c r="B17" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>46</v>
-      </c>
+      <c r="C17" s="28"/>
       <c r="D17" s="28" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="2"/>
@@ -2441,13 +2436,13 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" ht="100">
+    <row r="18" spans="1:32" ht="102">
       <c r="A18" s="27"/>
       <c r="B18" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>2</v>
@@ -2456,7 +2451,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="2"/>
@@ -2485,22 +2480,22 @@
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
     </row>
-    <row r="19" spans="1:32" ht="125">
+    <row r="19" spans="1:32" ht="127.5">
       <c r="A19" s="27"/>
       <c r="B19" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="2"/>
@@ -2529,13 +2524,13 @@
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
     </row>
-    <row r="20" spans="1:32" ht="50">
+    <row r="20" spans="1:32" ht="51">
       <c r="A20" s="32"/>
       <c r="B20" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="28" t="s">
@@ -2569,9 +2564,9 @@
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
     </row>
-    <row r="21" spans="1:32" ht="13">
+    <row r="21" spans="1:32" ht="12.75">
       <c r="A21" s="51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -2605,13 +2600,13 @@
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
     </row>
-    <row r="22" spans="1:32" ht="39">
+    <row r="22" spans="1:32" ht="38.25">
       <c r="A22" s="33"/>
       <c r="B22" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -2643,13 +2638,13 @@
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
     </row>
-    <row r="23" spans="1:32" ht="13">
+    <row r="23" spans="1:32" ht="12.75">
       <c r="A23" s="35"/>
       <c r="B23" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
@@ -2681,17 +2676,17 @@
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
     </row>
-    <row r="24" spans="1:32" ht="137.5">
+    <row r="24" spans="1:32" ht="153">
       <c r="A24" s="35"/>
       <c r="B24" s="48"/>
       <c r="C24" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="E24" s="28" t="s">
         <v>63</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>64</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="26"/>
@@ -2721,17 +2716,17 @@
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
     </row>
-    <row r="25" spans="1:32" ht="75">
+    <row r="25" spans="1:32" ht="76.5">
       <c r="A25" s="35"/>
       <c r="B25" s="48"/>
       <c r="C25" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="26"/>
@@ -2761,17 +2756,17 @@
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:32" ht="37.5">
+    <row r="26" spans="1:32" ht="51">
       <c r="A26" s="35"/>
       <c r="B26" s="48"/>
       <c r="C26" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="26"/>
@@ -2801,13 +2796,13 @@
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
     </row>
-    <row r="27" spans="1:32" ht="13" customHeight="1">
+    <row r="27" spans="1:32" ht="12.95" customHeight="1">
       <c r="A27" s="27"/>
       <c r="B27" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="52"/>
       <c r="E27" s="52"/>
@@ -2839,18 +2834,18 @@
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
     </row>
-    <row r="28" spans="1:32" ht="225">
+    <row r="28" spans="1:32" ht="229.5">
       <c r="A28" s="27"/>
       <c r="B28" s="48"/>
       <c r="C28" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G28" s="26"/>
       <c r="H28" s="5"/>
@@ -2879,17 +2874,17 @@
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
     </row>
-    <row r="29" spans="1:32" ht="100">
+    <row r="29" spans="1:32" ht="102">
       <c r="A29" s="27"/>
       <c r="B29" s="48"/>
       <c r="C29" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="26"/>
@@ -2919,16 +2914,16 @@
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
     </row>
-    <row r="30" spans="1:32" ht="137.5">
+    <row r="30" spans="1:32" ht="140.25">
       <c r="A30" s="27"/>
       <c r="B30" s="27"/>
       <c r="C30" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="28"/>
       <c r="F30" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="26"/>
       <c r="H30" s="5"/>
@@ -2957,20 +2952,20 @@
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
     </row>
-    <row r="31" spans="1:32" ht="100">
+    <row r="31" spans="1:32" ht="102">
       <c r="A31" s="27"/>
       <c r="B31" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="38"/>
       <c r="E31" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G31" s="26"/>
       <c r="H31" s="5"/>
@@ -2999,18 +2994,18 @@
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
     </row>
-    <row r="32" spans="1:32" ht="262.5">
+    <row r="32" spans="1:32" ht="280.5">
       <c r="A32" s="33"/>
       <c r="B32" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
       <c r="F32" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G32" s="23"/>
       <c r="H32" s="2"/>
@@ -3042,17 +3037,17 @@
     <row r="33" spans="1:32" ht="255" customHeight="1">
       <c r="A33" s="33"/>
       <c r="B33" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="34" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" s="23"/>
       <c r="H33" s="2"/>
@@ -3081,9 +3076,9 @@
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
     </row>
-    <row r="34" spans="1:32" ht="12.5">
+    <row r="34" spans="1:32" ht="12.75">
       <c r="A34" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
@@ -3117,13 +3112,13 @@
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
     </row>
-    <row r="35" spans="1:32" ht="37.5">
+    <row r="35" spans="1:32" ht="38.25">
       <c r="A35" s="33"/>
       <c r="B35" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" s="34"/>
       <c r="E35" s="34"/>
@@ -3155,13 +3150,13 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
     </row>
-    <row r="36" spans="1:32" ht="387.5">
+    <row r="36" spans="1:32" ht="409.5">
       <c r="A36" s="33"/>
       <c r="B36" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>2</v>
@@ -3170,7 +3165,7 @@
         <v>33</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G36" s="23"/>
       <c r="H36" s="2"/>
@@ -3199,18 +3194,18 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
     </row>
-    <row r="37" spans="1:32" ht="138">
+    <row r="37" spans="1:32" ht="140.25">
       <c r="A37" s="29"/>
       <c r="B37" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
       <c r="F37" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37" s="23"/>
       <c r="H37" s="2"/>
@@ -3239,7 +3234,7 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
     </row>
-    <row r="38" spans="1:32" ht="12.5">
+    <row r="38" spans="1:32" ht="12.75">
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -3273,7 +3268,7 @@
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
     </row>
-    <row r="39" spans="1:32" ht="12.5">
+    <row r="39" spans="1:32" ht="12.75">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3307,7 +3302,7 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
     </row>
-    <row r="40" spans="1:32" ht="12.5">
+    <row r="40" spans="1:32" ht="12.75">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3341,7 +3336,7 @@
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
     </row>
-    <row r="41" spans="1:32" ht="12.5">
+    <row r="41" spans="1:32" ht="12.75">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3375,7 +3370,7 @@
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
     </row>
-    <row r="42" spans="1:32" ht="12.5">
+    <row r="42" spans="1:32" ht="12.75">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3409,7 +3404,7 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
     </row>
-    <row r="43" spans="1:32" ht="12.5">
+    <row r="43" spans="1:32" ht="12.75">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3443,7 +3438,7 @@
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
     </row>
-    <row r="44" spans="1:32" ht="12.5">
+    <row r="44" spans="1:32" ht="12.75">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3477,7 +3472,7 @@
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
     </row>
-    <row r="45" spans="1:32" ht="12.5">
+    <row r="45" spans="1:32" ht="12.75">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3511,7 +3506,7 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
     </row>
-    <row r="46" spans="1:32" ht="12.5">
+    <row r="46" spans="1:32" ht="12.75">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3545,7 +3540,7 @@
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
     </row>
-    <row r="47" spans="1:32" ht="12.5">
+    <row r="47" spans="1:32" ht="12.75">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3579,7 +3574,7 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
     </row>
-    <row r="48" spans="1:32" ht="12.5">
+    <row r="48" spans="1:32" ht="12.75">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3613,7 +3608,7 @@
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
     </row>
-    <row r="49" spans="1:32" ht="12.5">
+    <row r="49" spans="1:32" ht="12.75">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3647,7 +3642,7 @@
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
     </row>
-    <row r="50" spans="1:32" ht="12.5">
+    <row r="50" spans="1:32" ht="12.75">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3681,7 +3676,7 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
     </row>
-    <row r="51" spans="1:32" ht="12.5">
+    <row r="51" spans="1:32" ht="12.75">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3715,7 +3710,7 @@
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
     </row>
-    <row r="52" spans="1:32" ht="12.5">
+    <row r="52" spans="1:32" ht="12.75">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3749,7 +3744,7 @@
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
     </row>
-    <row r="53" spans="1:32" ht="12.5">
+    <row r="53" spans="1:32" ht="12.75">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3783,7 +3778,7 @@
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
     </row>
-    <row r="54" spans="1:32" ht="12.5">
+    <row r="54" spans="1:32" ht="12.75">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3817,7 +3812,7 @@
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
     </row>
-    <row r="55" spans="1:32" ht="12.5">
+    <row r="55" spans="1:32" ht="12.75">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3851,7 +3846,7 @@
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
     </row>
-    <row r="56" spans="1:32" ht="12.5">
+    <row r="56" spans="1:32" ht="12.75">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3885,7 +3880,7 @@
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
     </row>
-    <row r="57" spans="1:32" ht="12.5">
+    <row r="57" spans="1:32" ht="12.75">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3919,7 +3914,7 @@
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
     </row>
-    <row r="58" spans="1:32" ht="12.5">
+    <row r="58" spans="1:32" ht="12.75">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3953,7 +3948,7 @@
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
     </row>
-    <row r="59" spans="1:32" ht="12.5">
+    <row r="59" spans="1:32" ht="12.75">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3987,7 +3982,7 @@
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
     </row>
-    <row r="60" spans="1:32" ht="12.5">
+    <row r="60" spans="1:32" ht="12.75">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4021,7 +4016,7 @@
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
     </row>
-    <row r="61" spans="1:32" ht="12.5">
+    <row r="61" spans="1:32" ht="12.75">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -4055,7 +4050,7 @@
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
     </row>
-    <row r="62" spans="1:32" ht="12.5">
+    <row r="62" spans="1:32" ht="12.75">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4089,7 +4084,7 @@
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
     </row>
-    <row r="63" spans="1:32" ht="12.5">
+    <row r="63" spans="1:32" ht="12.75">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4123,7 +4118,7 @@
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
     </row>
-    <row r="64" spans="1:32" ht="12.5">
+    <row r="64" spans="1:32" ht="12.75">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4157,7 +4152,7 @@
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
     </row>
-    <row r="65" spans="1:32" ht="12.5">
+    <row r="65" spans="1:32" ht="12.75">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4191,7 +4186,7 @@
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
     </row>
-    <row r="66" spans="1:32" ht="12.5">
+    <row r="66" spans="1:32" ht="12.75">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4225,7 +4220,7 @@
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
     </row>
-    <row r="67" spans="1:32" ht="12.5">
+    <row r="67" spans="1:32" ht="12.75">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4259,7 +4254,7 @@
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
     </row>
-    <row r="68" spans="1:32" ht="12.5">
+    <row r="68" spans="1:32" ht="12.75">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4293,7 +4288,7 @@
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
     </row>
-    <row r="69" spans="1:32" ht="12.5">
+    <row r="69" spans="1:32" ht="12.75">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4327,7 +4322,7 @@
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
     </row>
-    <row r="70" spans="1:32" ht="12.5">
+    <row r="70" spans="1:32" ht="12.75">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4361,7 +4356,7 @@
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
     </row>
-    <row r="71" spans="1:32" ht="12.5">
+    <row r="71" spans="1:32" ht="12.75">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4395,7 +4390,7 @@
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
     </row>
-    <row r="72" spans="1:32" ht="12.5">
+    <row r="72" spans="1:32" ht="12.75">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4429,7 +4424,7 @@
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
     </row>
-    <row r="73" spans="1:32" ht="12.5">
+    <row r="73" spans="1:32" ht="12.75">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4463,7 +4458,7 @@
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
     </row>
-    <row r="74" spans="1:32" ht="12.5">
+    <row r="74" spans="1:32" ht="12.75">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4497,7 +4492,7 @@
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
     </row>
-    <row r="75" spans="1:32" ht="12.5">
+    <row r="75" spans="1:32" ht="12.75">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4531,7 +4526,7 @@
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
     </row>
-    <row r="76" spans="1:32" ht="12.5">
+    <row r="76" spans="1:32" ht="12.75">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4565,7 +4560,7 @@
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
     </row>
-    <row r="77" spans="1:32" ht="12.5">
+    <row r="77" spans="1:32" ht="12.75">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4599,7 +4594,7 @@
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
     </row>
-    <row r="78" spans="1:32" ht="12.5">
+    <row r="78" spans="1:32" ht="12.75">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4633,7 +4628,7 @@
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
     </row>
-    <row r="79" spans="1:32" ht="12.5">
+    <row r="79" spans="1:32" ht="12.75">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4667,7 +4662,7 @@
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
     </row>
-    <row r="80" spans="1:32" ht="12.5">
+    <row r="80" spans="1:32" ht="12.75">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4701,7 +4696,7 @@
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
     </row>
-    <row r="81" spans="1:32" ht="12.5">
+    <row r="81" spans="1:32" ht="12.75">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4735,7 +4730,7 @@
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
     </row>
-    <row r="82" spans="1:32" ht="12.5">
+    <row r="82" spans="1:32" ht="12.75">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4769,7 +4764,7 @@
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
     </row>
-    <row r="83" spans="1:32" ht="12.5">
+    <row r="83" spans="1:32" ht="12.75">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4803,7 +4798,7 @@
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
     </row>
-    <row r="84" spans="1:32" ht="12.5">
+    <row r="84" spans="1:32" ht="12.75">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4837,7 +4832,7 @@
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
     </row>
-    <row r="85" spans="1:32" ht="12.5">
+    <row r="85" spans="1:32" ht="12.75">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4871,7 +4866,7 @@
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
     </row>
-    <row r="86" spans="1:32" ht="12.5">
+    <row r="86" spans="1:32" ht="12.75">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4905,7 +4900,7 @@
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
     </row>
-    <row r="87" spans="1:32" ht="12.5">
+    <row r="87" spans="1:32" ht="12.75">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4939,7 +4934,7 @@
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
     </row>
-    <row r="88" spans="1:32" ht="12.5">
+    <row r="88" spans="1:32" ht="12.75">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4973,7 +4968,7 @@
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
     </row>
-    <row r="89" spans="1:32" ht="12.5">
+    <row r="89" spans="1:32" ht="12.75">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5007,7 +5002,7 @@
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
     </row>
-    <row r="90" spans="1:32" ht="12.5">
+    <row r="90" spans="1:32" ht="12.75">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5041,7 +5036,7 @@
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
     </row>
-    <row r="91" spans="1:32" ht="12.5">
+    <row r="91" spans="1:32" ht="12.75">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5075,7 +5070,7 @@
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
     </row>
-    <row r="92" spans="1:32" ht="12.5">
+    <row r="92" spans="1:32" ht="12.75">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5109,7 +5104,7 @@
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
     </row>
-    <row r="93" spans="1:32" ht="12.5">
+    <row r="93" spans="1:32" ht="12.75">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5143,7 +5138,7 @@
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
     </row>
-    <row r="94" spans="1:32" ht="12.5">
+    <row r="94" spans="1:32" ht="12.75">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5177,7 +5172,7 @@
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
     </row>
-    <row r="95" spans="1:32" ht="12.5">
+    <row r="95" spans="1:32" ht="12.75">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5211,7 +5206,7 @@
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
     </row>
-    <row r="96" spans="1:32" ht="12.5">
+    <row r="96" spans="1:32" ht="12.75">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5245,7 +5240,7 @@
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
     </row>
-    <row r="97" spans="1:32" ht="12.5">
+    <row r="97" spans="1:32" ht="12.75">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5279,7 +5274,7 @@
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
     </row>
-    <row r="98" spans="1:32" ht="12.5">
+    <row r="98" spans="1:32" ht="12.75">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5313,7 +5308,7 @@
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
     </row>
-    <row r="99" spans="1:32" ht="12.5">
+    <row r="99" spans="1:32" ht="12.75">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5347,7 +5342,7 @@
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
     </row>
-    <row r="100" spans="1:32" ht="12.5">
+    <row r="100" spans="1:32" ht="12.75">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5381,7 +5376,7 @@
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
     </row>
-    <row r="101" spans="1:32" ht="12.5">
+    <row r="101" spans="1:32" ht="12.75">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5415,7 +5410,7 @@
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
     </row>
-    <row r="102" spans="1:32" ht="12.5">
+    <row r="102" spans="1:32" ht="12.75">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5449,7 +5444,7 @@
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
     </row>
-    <row r="103" spans="1:32" ht="12.5">
+    <row r="103" spans="1:32" ht="12.75">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5483,7 +5478,7 @@
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
     </row>
-    <row r="104" spans="1:32" ht="12.5">
+    <row r="104" spans="1:32" ht="12.75">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5517,7 +5512,7 @@
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
     </row>
-    <row r="105" spans="1:32" ht="12.5">
+    <row r="105" spans="1:32" ht="12.75">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -5551,7 +5546,7 @@
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
     </row>
-    <row r="106" spans="1:32" ht="12.5">
+    <row r="106" spans="1:32" ht="12.75">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -5585,7 +5580,7 @@
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
     </row>
-    <row r="107" spans="1:32" ht="12.5">
+    <row r="107" spans="1:32" ht="12.75">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5619,7 +5614,7 @@
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
     </row>
-    <row r="108" spans="1:32" ht="12.5">
+    <row r="108" spans="1:32" ht="12.75">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5653,7 +5648,7 @@
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
     </row>
-    <row r="109" spans="1:32" ht="12.5">
+    <row r="109" spans="1:32" ht="12.75">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5687,7 +5682,7 @@
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
     </row>
-    <row r="110" spans="1:32" ht="12.5">
+    <row r="110" spans="1:32" ht="12.75">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5721,7 +5716,7 @@
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
     </row>
-    <row r="111" spans="1:32" ht="12.5">
+    <row r="111" spans="1:32" ht="12.75">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5755,7 +5750,7 @@
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
     </row>
-    <row r="112" spans="1:32" ht="12.5">
+    <row r="112" spans="1:32" ht="12.75">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5789,7 +5784,7 @@
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
     </row>
-    <row r="113" spans="1:32" ht="12.5">
+    <row r="113" spans="1:32" ht="12.75">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5823,7 +5818,7 @@
       <c r="AE113" s="2"/>
       <c r="AF113" s="2"/>
     </row>
-    <row r="114" spans="1:32" ht="12.5">
+    <row r="114" spans="1:32" ht="12.75">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5857,7 +5852,7 @@
       <c r="AE114" s="2"/>
       <c r="AF114" s="2"/>
     </row>
-    <row r="115" spans="1:32" ht="12.5">
+    <row r="115" spans="1:32" ht="12.75">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5891,7 +5886,7 @@
       <c r="AE115" s="2"/>
       <c r="AF115" s="2"/>
     </row>
-    <row r="116" spans="1:32" ht="12.5">
+    <row r="116" spans="1:32" ht="12.75">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5925,7 +5920,7 @@
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
     </row>
-    <row r="117" spans="1:32" ht="12.5">
+    <row r="117" spans="1:32" ht="12.75">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5959,7 +5954,7 @@
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
     </row>
-    <row r="118" spans="1:32" ht="12.5">
+    <row r="118" spans="1:32" ht="12.75">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5993,7 +5988,7 @@
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
     </row>
-    <row r="119" spans="1:32" ht="12.5">
+    <row r="119" spans="1:32" ht="12.75">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6027,7 +6022,7 @@
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
     </row>
-    <row r="120" spans="1:32" ht="12.5">
+    <row r="120" spans="1:32" ht="12.75">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6061,7 +6056,7 @@
       <c r="AE120" s="2"/>
       <c r="AF120" s="2"/>
     </row>
-    <row r="121" spans="1:32" ht="12.5">
+    <row r="121" spans="1:32" ht="12.75">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6095,7 +6090,7 @@
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
     </row>
-    <row r="122" spans="1:32" ht="12.5">
+    <row r="122" spans="1:32" ht="12.75">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6129,7 +6124,7 @@
       <c r="AE122" s="2"/>
       <c r="AF122" s="2"/>
     </row>
-    <row r="123" spans="1:32" ht="12.5">
+    <row r="123" spans="1:32" ht="12.75">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6163,7 +6158,7 @@
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
     </row>
-    <row r="124" spans="1:32" ht="12.5">
+    <row r="124" spans="1:32" ht="12.75">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -6197,7 +6192,7 @@
       <c r="AE124" s="2"/>
       <c r="AF124" s="2"/>
     </row>
-    <row r="125" spans="1:32" ht="12.5">
+    <row r="125" spans="1:32" ht="12.75">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -6231,7 +6226,7 @@
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
     </row>
-    <row r="126" spans="1:32" ht="12.5">
+    <row r="126" spans="1:32" ht="12.75">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -6265,7 +6260,7 @@
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
     </row>
-    <row r="127" spans="1:32" ht="12.5">
+    <row r="127" spans="1:32" ht="12.75">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -6299,7 +6294,7 @@
       <c r="AE127" s="2"/>
       <c r="AF127" s="2"/>
     </row>
-    <row r="128" spans="1:32" ht="12.5">
+    <row r="128" spans="1:32" ht="12.75">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -6333,7 +6328,7 @@
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
     </row>
-    <row r="129" spans="1:32" ht="12.5">
+    <row r="129" spans="1:32" ht="12.75">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -6367,7 +6362,7 @@
       <c r="AE129" s="2"/>
       <c r="AF129" s="2"/>
     </row>
-    <row r="130" spans="1:32" ht="12.5">
+    <row r="130" spans="1:32" ht="12.75">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -6401,7 +6396,7 @@
       <c r="AE130" s="2"/>
       <c r="AF130" s="2"/>
     </row>
-    <row r="131" spans="1:32" ht="12.5">
+    <row r="131" spans="1:32" ht="12.75">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -6435,7 +6430,7 @@
       <c r="AE131" s="2"/>
       <c r="AF131" s="2"/>
     </row>
-    <row r="132" spans="1:32" ht="12.5">
+    <row r="132" spans="1:32" ht="12.75">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -6469,7 +6464,7 @@
       <c r="AE132" s="2"/>
       <c r="AF132" s="2"/>
     </row>
-    <row r="133" spans="1:32" ht="12.5">
+    <row r="133" spans="1:32" ht="12.75">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -6503,7 +6498,7 @@
       <c r="AE133" s="2"/>
       <c r="AF133" s="2"/>
     </row>
-    <row r="134" spans="1:32" ht="12.5">
+    <row r="134" spans="1:32" ht="12.75">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -6537,7 +6532,7 @@
       <c r="AE134" s="2"/>
       <c r="AF134" s="2"/>
     </row>
-    <row r="135" spans="1:32" ht="12.5">
+    <row r="135" spans="1:32" ht="12.75">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -6571,7 +6566,7 @@
       <c r="AE135" s="2"/>
       <c r="AF135" s="2"/>
     </row>
-    <row r="136" spans="1:32" ht="12.5">
+    <row r="136" spans="1:32" ht="12.75">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -6605,7 +6600,7 @@
       <c r="AE136" s="2"/>
       <c r="AF136" s="2"/>
     </row>
-    <row r="137" spans="1:32" ht="12.5">
+    <row r="137" spans="1:32" ht="12.75">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -6639,7 +6634,7 @@
       <c r="AE137" s="2"/>
       <c r="AF137" s="2"/>
     </row>
-    <row r="138" spans="1:32" ht="12.5">
+    <row r="138" spans="1:32" ht="12.75">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -6673,7 +6668,7 @@
       <c r="AE138" s="2"/>
       <c r="AF138" s="2"/>
     </row>
-    <row r="139" spans="1:32" ht="12.5">
+    <row r="139" spans="1:32" ht="12.75">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -6707,7 +6702,7 @@
       <c r="AE139" s="2"/>
       <c r="AF139" s="2"/>
     </row>
-    <row r="140" spans="1:32" ht="12.5">
+    <row r="140" spans="1:32" ht="12.75">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -6741,7 +6736,7 @@
       <c r="AE140" s="2"/>
       <c r="AF140" s="2"/>
     </row>
-    <row r="141" spans="1:32" ht="12.5">
+    <row r="141" spans="1:32" ht="12.75">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -6775,7 +6770,7 @@
       <c r="AE141" s="2"/>
       <c r="AF141" s="2"/>
     </row>
-    <row r="142" spans="1:32" ht="12.5">
+    <row r="142" spans="1:32" ht="12.75">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6809,7 +6804,7 @@
       <c r="AE142" s="2"/>
       <c r="AF142" s="2"/>
     </row>
-    <row r="143" spans="1:32" ht="12.5">
+    <row r="143" spans="1:32" ht="12.75">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6843,7 +6838,7 @@
       <c r="AE143" s="2"/>
       <c r="AF143" s="2"/>
     </row>
-    <row r="144" spans="1:32" ht="12.5">
+    <row r="144" spans="1:32" ht="12.75">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6877,7 +6872,7 @@
       <c r="AE144" s="2"/>
       <c r="AF144" s="2"/>
     </row>
-    <row r="145" spans="1:32" ht="12.5">
+    <row r="145" spans="1:32" ht="12.75">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6911,7 +6906,7 @@
       <c r="AE145" s="2"/>
       <c r="AF145" s="2"/>
     </row>
-    <row r="146" spans="1:32" ht="12.5">
+    <row r="146" spans="1:32" ht="12.75">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6945,7 +6940,7 @@
       <c r="AE146" s="2"/>
       <c r="AF146" s="2"/>
     </row>
-    <row r="147" spans="1:32" ht="12.5">
+    <row r="147" spans="1:32" ht="12.75">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6979,7 +6974,7 @@
       <c r="AE147" s="2"/>
       <c r="AF147" s="2"/>
     </row>
-    <row r="148" spans="1:32" ht="12.5">
+    <row r="148" spans="1:32" ht="12.75">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -7013,7 +7008,7 @@
       <c r="AE148" s="2"/>
       <c r="AF148" s="2"/>
     </row>
-    <row r="149" spans="1:32" ht="12.5">
+    <row r="149" spans="1:32" ht="12.75">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -7047,7 +7042,7 @@
       <c r="AE149" s="2"/>
       <c r="AF149" s="2"/>
     </row>
-    <row r="150" spans="1:32" ht="12.5">
+    <row r="150" spans="1:32" ht="12.75">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -7081,7 +7076,7 @@
       <c r="AE150" s="2"/>
       <c r="AF150" s="2"/>
     </row>
-    <row r="151" spans="1:32" ht="12.5">
+    <row r="151" spans="1:32" ht="12.75">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -7115,7 +7110,7 @@
       <c r="AE151" s="2"/>
       <c r="AF151" s="2"/>
     </row>
-    <row r="152" spans="1:32" ht="12.5">
+    <row r="152" spans="1:32" ht="12.75">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -7149,7 +7144,7 @@
       <c r="AE152" s="2"/>
       <c r="AF152" s="2"/>
     </row>
-    <row r="153" spans="1:32" ht="12.5">
+    <row r="153" spans="1:32" ht="12.75">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -7183,7 +7178,7 @@
       <c r="AE153" s="2"/>
       <c r="AF153" s="2"/>
     </row>
-    <row r="154" spans="1:32" ht="12.5">
+    <row r="154" spans="1:32" ht="12.75">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -7217,7 +7212,7 @@
       <c r="AE154" s="2"/>
       <c r="AF154" s="2"/>
     </row>
-    <row r="155" spans="1:32" ht="12.5">
+    <row r="155" spans="1:32" ht="12.75">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -7251,7 +7246,7 @@
       <c r="AE155" s="2"/>
       <c r="AF155" s="2"/>
     </row>
-    <row r="156" spans="1:32" ht="12.5">
+    <row r="156" spans="1:32" ht="12.75">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -7285,7 +7280,7 @@
       <c r="AE156" s="2"/>
       <c r="AF156" s="2"/>
     </row>
-    <row r="157" spans="1:32" ht="12.5">
+    <row r="157" spans="1:32" ht="12.75">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -7319,7 +7314,7 @@
       <c r="AE157" s="2"/>
       <c r="AF157" s="2"/>
     </row>
-    <row r="158" spans="1:32" ht="12.5">
+    <row r="158" spans="1:32" ht="12.75">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -7353,7 +7348,7 @@
       <c r="AE158" s="2"/>
       <c r="AF158" s="2"/>
     </row>
-    <row r="159" spans="1:32" ht="12.5">
+    <row r="159" spans="1:32" ht="12.75">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -7387,7 +7382,7 @@
       <c r="AE159" s="2"/>
       <c r="AF159" s="2"/>
     </row>
-    <row r="160" spans="1:32" ht="12.5">
+    <row r="160" spans="1:32" ht="12.75">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -7421,7 +7416,7 @@
       <c r="AE160" s="2"/>
       <c r="AF160" s="2"/>
     </row>
-    <row r="161" spans="1:32" ht="12.5">
+    <row r="161" spans="1:32" ht="12.75">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -7455,7 +7450,7 @@
       <c r="AE161" s="2"/>
       <c r="AF161" s="2"/>
     </row>
-    <row r="162" spans="1:32" ht="12.5">
+    <row r="162" spans="1:32" ht="12.75">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -7489,7 +7484,7 @@
       <c r="AE162" s="2"/>
       <c r="AF162" s="2"/>
     </row>
-    <row r="163" spans="1:32" ht="12.5">
+    <row r="163" spans="1:32" ht="12.75">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -7523,7 +7518,7 @@
       <c r="AE163" s="2"/>
       <c r="AF163" s="2"/>
     </row>
-    <row r="164" spans="1:32" ht="12.5">
+    <row r="164" spans="1:32" ht="12.75">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -7557,7 +7552,7 @@
       <c r="AE164" s="2"/>
       <c r="AF164" s="2"/>
     </row>
-    <row r="165" spans="1:32" ht="12.5">
+    <row r="165" spans="1:32" ht="12.75">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -7591,7 +7586,7 @@
       <c r="AE165" s="2"/>
       <c r="AF165" s="2"/>
     </row>
-    <row r="166" spans="1:32" ht="12.5">
+    <row r="166" spans="1:32" ht="12.75">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -7625,7 +7620,7 @@
       <c r="AE166" s="2"/>
       <c r="AF166" s="2"/>
     </row>
-    <row r="167" spans="1:32" ht="12.5">
+    <row r="167" spans="1:32" ht="12.75">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -7659,7 +7654,7 @@
       <c r="AE167" s="2"/>
       <c r="AF167" s="2"/>
     </row>
-    <row r="168" spans="1:32" ht="12.5">
+    <row r="168" spans="1:32" ht="12.75">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -7693,7 +7688,7 @@
       <c r="AE168" s="2"/>
       <c r="AF168" s="2"/>
     </row>
-    <row r="169" spans="1:32" ht="12.5">
+    <row r="169" spans="1:32" ht="12.75">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -7727,7 +7722,7 @@
       <c r="AE169" s="2"/>
       <c r="AF169" s="2"/>
     </row>
-    <row r="170" spans="1:32" ht="12.5">
+    <row r="170" spans="1:32" ht="12.75">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -7761,7 +7756,7 @@
       <c r="AE170" s="2"/>
       <c r="AF170" s="2"/>
     </row>
-    <row r="171" spans="1:32" ht="12.5">
+    <row r="171" spans="1:32" ht="12.75">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -7795,7 +7790,7 @@
       <c r="AE171" s="2"/>
       <c r="AF171" s="2"/>
     </row>
-    <row r="172" spans="1:32" ht="12.5">
+    <row r="172" spans="1:32" ht="12.75">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -7829,7 +7824,7 @@
       <c r="AE172" s="2"/>
       <c r="AF172" s="2"/>
     </row>
-    <row r="173" spans="1:32" ht="12.5">
+    <row r="173" spans="1:32" ht="12.75">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -7863,7 +7858,7 @@
       <c r="AE173" s="2"/>
       <c r="AF173" s="2"/>
     </row>
-    <row r="174" spans="1:32" ht="12.5">
+    <row r="174" spans="1:32" ht="12.75">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -7897,7 +7892,7 @@
       <c r="AE174" s="2"/>
       <c r="AF174" s="2"/>
     </row>
-    <row r="175" spans="1:32" ht="12.5">
+    <row r="175" spans="1:32" ht="12.75">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -7931,7 +7926,7 @@
       <c r="AE175" s="2"/>
       <c r="AF175" s="2"/>
     </row>
-    <row r="176" spans="1:32" ht="12.5">
+    <row r="176" spans="1:32" ht="12.75">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -7965,7 +7960,7 @@
       <c r="AE176" s="2"/>
       <c r="AF176" s="2"/>
     </row>
-    <row r="177" spans="1:32" ht="12.5">
+    <row r="177" spans="1:32" ht="12.75">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -7999,7 +7994,7 @@
       <c r="AE177" s="2"/>
       <c r="AF177" s="2"/>
     </row>
-    <row r="178" spans="1:32" ht="12.5">
+    <row r="178" spans="1:32" ht="12.75">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -8033,7 +8028,7 @@
       <c r="AE178" s="2"/>
       <c r="AF178" s="2"/>
     </row>
-    <row r="179" spans="1:32" ht="12.5">
+    <row r="179" spans="1:32" ht="12.75">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -8067,7 +8062,7 @@
       <c r="AE179" s="2"/>
       <c r="AF179" s="2"/>
     </row>
-    <row r="180" spans="1:32" ht="12.5">
+    <row r="180" spans="1:32" ht="12.75">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -8101,7 +8096,7 @@
       <c r="AE180" s="2"/>
       <c r="AF180" s="2"/>
     </row>
-    <row r="181" spans="1:32" ht="12.5">
+    <row r="181" spans="1:32" ht="12.75">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -8135,7 +8130,7 @@
       <c r="AE181" s="2"/>
       <c r="AF181" s="2"/>
     </row>
-    <row r="182" spans="1:32" ht="12.5">
+    <row r="182" spans="1:32" ht="12.75">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -8169,7 +8164,7 @@
       <c r="AE182" s="2"/>
       <c r="AF182" s="2"/>
     </row>
-    <row r="183" spans="1:32" ht="12.5">
+    <row r="183" spans="1:32" ht="12.75">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -8203,7 +8198,7 @@
       <c r="AE183" s="2"/>
       <c r="AF183" s="2"/>
     </row>
-    <row r="184" spans="1:32" ht="12.5">
+    <row r="184" spans="1:32" ht="12.75">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -8237,7 +8232,7 @@
       <c r="AE184" s="2"/>
       <c r="AF184" s="2"/>
     </row>
-    <row r="185" spans="1:32" ht="12.5">
+    <row r="185" spans="1:32" ht="12.75">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -8271,7 +8266,7 @@
       <c r="AE185" s="2"/>
       <c r="AF185" s="2"/>
     </row>
-    <row r="186" spans="1:32" ht="12.5">
+    <row r="186" spans="1:32" ht="12.75">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -8305,7 +8300,7 @@
       <c r="AE186" s="2"/>
       <c r="AF186" s="2"/>
     </row>
-    <row r="187" spans="1:32" ht="12.5">
+    <row r="187" spans="1:32" ht="12.75">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -8339,7 +8334,7 @@
       <c r="AE187" s="2"/>
       <c r="AF187" s="2"/>
     </row>
-    <row r="188" spans="1:32" ht="12.5">
+    <row r="188" spans="1:32" ht="12.75">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -8373,7 +8368,7 @@
       <c r="AE188" s="2"/>
       <c r="AF188" s="2"/>
     </row>
-    <row r="189" spans="1:32" ht="12.5">
+    <row r="189" spans="1:32" ht="12.75">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -8407,7 +8402,7 @@
       <c r="AE189" s="2"/>
       <c r="AF189" s="2"/>
     </row>
-    <row r="190" spans="1:32" ht="12.5">
+    <row r="190" spans="1:32" ht="12.75">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -8441,7 +8436,7 @@
       <c r="AE190" s="2"/>
       <c r="AF190" s="2"/>
     </row>
-    <row r="191" spans="1:32" ht="12.5">
+    <row r="191" spans="1:32" ht="12.75">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -8475,7 +8470,7 @@
       <c r="AE191" s="2"/>
       <c r="AF191" s="2"/>
     </row>
-    <row r="192" spans="1:32" ht="12.5">
+    <row r="192" spans="1:32" ht="12.75">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -8509,7 +8504,7 @@
       <c r="AE192" s="2"/>
       <c r="AF192" s="2"/>
     </row>
-    <row r="193" spans="1:32" ht="12.5">
+    <row r="193" spans="1:32" ht="12.75">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -8543,7 +8538,7 @@
       <c r="AE193" s="2"/>
       <c r="AF193" s="2"/>
     </row>
-    <row r="194" spans="1:32" ht="12.5">
+    <row r="194" spans="1:32" ht="12.75">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -8577,7 +8572,7 @@
       <c r="AE194" s="2"/>
       <c r="AF194" s="2"/>
     </row>
-    <row r="195" spans="1:32" ht="12.5">
+    <row r="195" spans="1:32" ht="12.75">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -8611,7 +8606,7 @@
       <c r="AE195" s="2"/>
       <c r="AF195" s="2"/>
     </row>
-    <row r="196" spans="1:32" ht="12.5">
+    <row r="196" spans="1:32" ht="12.75">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -8645,7 +8640,7 @@
       <c r="AE196" s="2"/>
       <c r="AF196" s="2"/>
     </row>
-    <row r="197" spans="1:32" ht="12.5">
+    <row r="197" spans="1:32" ht="12.75">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -8679,7 +8674,7 @@
       <c r="AE197" s="2"/>
       <c r="AF197" s="2"/>
     </row>
-    <row r="198" spans="1:32" ht="12.5">
+    <row r="198" spans="1:32" ht="12.75">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -8713,7 +8708,7 @@
       <c r="AE198" s="2"/>
       <c r="AF198" s="2"/>
     </row>
-    <row r="199" spans="1:32" ht="12.5">
+    <row r="199" spans="1:32" ht="12.75">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -8747,7 +8742,7 @@
       <c r="AE199" s="2"/>
       <c r="AF199" s="2"/>
     </row>
-    <row r="200" spans="1:32" ht="12.5">
+    <row r="200" spans="1:32" ht="12.75">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -8781,7 +8776,7 @@
       <c r="AE200" s="2"/>
       <c r="AF200" s="2"/>
     </row>
-    <row r="201" spans="1:32" ht="12.5">
+    <row r="201" spans="1:32" ht="12.75">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -8815,7 +8810,7 @@
       <c r="AE201" s="2"/>
       <c r="AF201" s="2"/>
     </row>
-    <row r="202" spans="1:32" ht="12.5">
+    <row r="202" spans="1:32" ht="12.75">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -8849,7 +8844,7 @@
       <c r="AE202" s="2"/>
       <c r="AF202" s="2"/>
     </row>
-    <row r="203" spans="1:32" ht="12.5">
+    <row r="203" spans="1:32" ht="12.75">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -8883,7 +8878,7 @@
       <c r="AE203" s="2"/>
       <c r="AF203" s="2"/>
     </row>
-    <row r="204" spans="1:32" ht="12.5">
+    <row r="204" spans="1:32" ht="12.75">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -8917,7 +8912,7 @@
       <c r="AE204" s="2"/>
       <c r="AF204" s="2"/>
     </row>
-    <row r="205" spans="1:32" ht="12.5">
+    <row r="205" spans="1:32" ht="12.75">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -8951,7 +8946,7 @@
       <c r="AE205" s="2"/>
       <c r="AF205" s="2"/>
     </row>
-    <row r="206" spans="1:32" ht="12.5">
+    <row r="206" spans="1:32" ht="12.75">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -8985,7 +8980,7 @@
       <c r="AE206" s="2"/>
       <c r="AF206" s="2"/>
     </row>
-    <row r="207" spans="1:32" ht="12.5">
+    <row r="207" spans="1:32" ht="12.75">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -9019,7 +9014,7 @@
       <c r="AE207" s="2"/>
       <c r="AF207" s="2"/>
     </row>
-    <row r="208" spans="1:32" ht="12.5">
+    <row r="208" spans="1:32" ht="12.75">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -9053,7 +9048,7 @@
       <c r="AE208" s="2"/>
       <c r="AF208" s="2"/>
     </row>
-    <row r="209" spans="1:32" ht="12.5">
+    <row r="209" spans="1:32" ht="12.75">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -9087,7 +9082,7 @@
       <c r="AE209" s="2"/>
       <c r="AF209" s="2"/>
     </row>
-    <row r="210" spans="1:32" ht="12.5">
+    <row r="210" spans="1:32" ht="12.75">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -9121,7 +9116,7 @@
       <c r="AE210" s="2"/>
       <c r="AF210" s="2"/>
     </row>
-    <row r="211" spans="1:32" ht="12.5">
+    <row r="211" spans="1:32" ht="12.75">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -9155,7 +9150,7 @@
       <c r="AE211" s="2"/>
       <c r="AF211" s="2"/>
     </row>
-    <row r="212" spans="1:32" ht="12.5">
+    <row r="212" spans="1:32" ht="12.75">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -9189,7 +9184,7 @@
       <c r="AE212" s="2"/>
       <c r="AF212" s="2"/>
     </row>
-    <row r="213" spans="1:32" ht="12.5">
+    <row r="213" spans="1:32" ht="12.75">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -9223,7 +9218,7 @@
       <c r="AE213" s="2"/>
       <c r="AF213" s="2"/>
     </row>
-    <row r="214" spans="1:32" ht="12.5">
+    <row r="214" spans="1:32" ht="12.75">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -9257,7 +9252,7 @@
       <c r="AE214" s="2"/>
       <c r="AF214" s="2"/>
     </row>
-    <row r="215" spans="1:32" ht="12.5">
+    <row r="215" spans="1:32" ht="12.75">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -9291,7 +9286,7 @@
       <c r="AE215" s="2"/>
       <c r="AF215" s="2"/>
     </row>
-    <row r="216" spans="1:32" ht="12.5">
+    <row r="216" spans="1:32" ht="12.75">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -9325,7 +9320,7 @@
       <c r="AE216" s="2"/>
       <c r="AF216" s="2"/>
     </row>
-    <row r="217" spans="1:32" ht="12.5">
+    <row r="217" spans="1:32" ht="12.75">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -9359,7 +9354,7 @@
       <c r="AE217" s="2"/>
       <c r="AF217" s="2"/>
     </row>
-    <row r="218" spans="1:32" ht="12.5">
+    <row r="218" spans="1:32" ht="12.75">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -9393,7 +9388,7 @@
       <c r="AE218" s="2"/>
       <c r="AF218" s="2"/>
     </row>
-    <row r="219" spans="1:32" ht="12.5">
+    <row r="219" spans="1:32" ht="12.75">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -9427,7 +9422,7 @@
       <c r="AE219" s="2"/>
       <c r="AF219" s="2"/>
     </row>
-    <row r="220" spans="1:32" ht="12.5">
+    <row r="220" spans="1:32" ht="12.75">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -9461,7 +9456,7 @@
       <c r="AE220" s="2"/>
       <c r="AF220" s="2"/>
     </row>
-    <row r="221" spans="1:32" ht="12.5">
+    <row r="221" spans="1:32" ht="12.75">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -9495,7 +9490,7 @@
       <c r="AE221" s="2"/>
       <c r="AF221" s="2"/>
     </row>
-    <row r="222" spans="1:32" ht="12.5">
+    <row r="222" spans="1:32" ht="12.75">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -9529,7 +9524,7 @@
       <c r="AE222" s="2"/>
       <c r="AF222" s="2"/>
     </row>
-    <row r="223" spans="1:32" ht="12.5">
+    <row r="223" spans="1:32" ht="12.75">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -9563,7 +9558,7 @@
       <c r="AE223" s="2"/>
       <c r="AF223" s="2"/>
     </row>
-    <row r="224" spans="1:32" ht="12.5">
+    <row r="224" spans="1:32" ht="12.75">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -9597,7 +9592,7 @@
       <c r="AE224" s="2"/>
       <c r="AF224" s="2"/>
     </row>
-    <row r="225" spans="1:32" ht="12.5">
+    <row r="225" spans="1:32" ht="12.75">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -9631,7 +9626,7 @@
       <c r="AE225" s="2"/>
       <c r="AF225" s="2"/>
     </row>
-    <row r="226" spans="1:32" ht="12.5">
+    <row r="226" spans="1:32" ht="12.75">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -9665,7 +9660,7 @@
       <c r="AE226" s="2"/>
       <c r="AF226" s="2"/>
     </row>
-    <row r="227" spans="1:32" ht="12.5">
+    <row r="227" spans="1:32" ht="12.75">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -9699,7 +9694,7 @@
       <c r="AE227" s="2"/>
       <c r="AF227" s="2"/>
     </row>
-    <row r="228" spans="1:32" ht="12.5">
+    <row r="228" spans="1:32" ht="12.75">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -9733,7 +9728,7 @@
       <c r="AE228" s="2"/>
       <c r="AF228" s="2"/>
     </row>
-    <row r="229" spans="1:32" ht="12.5">
+    <row r="229" spans="1:32" ht="12.75">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -9767,7 +9762,7 @@
       <c r="AE229" s="2"/>
       <c r="AF229" s="2"/>
     </row>
-    <row r="230" spans="1:32" ht="12.5">
+    <row r="230" spans="1:32" ht="12.75">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -9801,7 +9796,7 @@
       <c r="AE230" s="2"/>
       <c r="AF230" s="2"/>
     </row>
-    <row r="231" spans="1:32" ht="12.5">
+    <row r="231" spans="1:32" ht="12.75">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -9835,7 +9830,7 @@
       <c r="AE231" s="2"/>
       <c r="AF231" s="2"/>
     </row>
-    <row r="232" spans="1:32" ht="12.5">
+    <row r="232" spans="1:32" ht="12.75">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -9869,7 +9864,7 @@
       <c r="AE232" s="2"/>
       <c r="AF232" s="2"/>
     </row>
-    <row r="233" spans="1:32" ht="12.5">
+    <row r="233" spans="1:32" ht="12.75">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -9903,7 +9898,7 @@
       <c r="AE233" s="2"/>
       <c r="AF233" s="2"/>
     </row>
-    <row r="234" spans="1:32" ht="12.5">
+    <row r="234" spans="1:32" ht="12.75">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -9937,7 +9932,7 @@
       <c r="AE234" s="2"/>
       <c r="AF234" s="2"/>
     </row>
-    <row r="235" spans="1:32" ht="12.5">
+    <row r="235" spans="1:32" ht="12.75">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -9971,7 +9966,7 @@
       <c r="AE235" s="2"/>
       <c r="AF235" s="2"/>
     </row>
-    <row r="236" spans="1:32" ht="12.5">
+    <row r="236" spans="1:32" ht="12.75">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -10005,7 +10000,7 @@
       <c r="AE236" s="2"/>
       <c r="AF236" s="2"/>
     </row>
-    <row r="237" spans="1:32" ht="12.5">
+    <row r="237" spans="1:32" ht="12.75">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -10039,7 +10034,7 @@
       <c r="AE237" s="2"/>
       <c r="AF237" s="2"/>
     </row>
-    <row r="238" spans="1:32" ht="12.5">
+    <row r="238" spans="1:32" ht="12.75">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -10073,7 +10068,7 @@
       <c r="AE238" s="2"/>
       <c r="AF238" s="2"/>
     </row>
-    <row r="239" spans="1:32" ht="12.5">
+    <row r="239" spans="1:32" ht="12.75">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -10107,7 +10102,7 @@
       <c r="AE239" s="2"/>
       <c r="AF239" s="2"/>
     </row>
-    <row r="240" spans="1:32" ht="12.5">
+    <row r="240" spans="1:32" ht="12.75">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -10141,7 +10136,7 @@
       <c r="AE240" s="2"/>
       <c r="AF240" s="2"/>
     </row>
-    <row r="241" spans="1:32" ht="12.5">
+    <row r="241" spans="1:32" ht="12.75">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -10175,7 +10170,7 @@
       <c r="AE241" s="2"/>
       <c r="AF241" s="2"/>
     </row>
-    <row r="242" spans="1:32" ht="12.5">
+    <row r="242" spans="1:32" ht="12.75">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -10209,7 +10204,7 @@
       <c r="AE242" s="2"/>
       <c r="AF242" s="2"/>
     </row>
-    <row r="243" spans="1:32" ht="12.5">
+    <row r="243" spans="1:32" ht="12.75">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -10243,7 +10238,7 @@
       <c r="AE243" s="2"/>
       <c r="AF243" s="2"/>
     </row>
-    <row r="244" spans="1:32" ht="12.5">
+    <row r="244" spans="1:32" ht="12.75">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -10277,7 +10272,7 @@
       <c r="AE244" s="2"/>
       <c r="AF244" s="2"/>
     </row>
-    <row r="245" spans="1:32" ht="12.5">
+    <row r="245" spans="1:32" ht="12.75">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -10311,7 +10306,7 @@
       <c r="AE245" s="2"/>
       <c r="AF245" s="2"/>
     </row>
-    <row r="246" spans="1:32" ht="12.5">
+    <row r="246" spans="1:32" ht="12.75">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -10345,7 +10340,7 @@
       <c r="AE246" s="2"/>
       <c r="AF246" s="2"/>
     </row>
-    <row r="247" spans="1:32" ht="12.5">
+    <row r="247" spans="1:32" ht="12.75">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -10379,7 +10374,7 @@
       <c r="AE247" s="2"/>
       <c r="AF247" s="2"/>
     </row>
-    <row r="248" spans="1:32" ht="12.5">
+    <row r="248" spans="1:32" ht="12.75">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -10413,7 +10408,7 @@
       <c r="AE248" s="2"/>
       <c r="AF248" s="2"/>
     </row>
-    <row r="249" spans="1:32" ht="12.5">
+    <row r="249" spans="1:32" ht="12.75">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -10447,7 +10442,7 @@
       <c r="AE249" s="2"/>
       <c r="AF249" s="2"/>
     </row>
-    <row r="250" spans="1:32" ht="12.5">
+    <row r="250" spans="1:32" ht="12.75">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -10481,7 +10476,7 @@
       <c r="AE250" s="2"/>
       <c r="AF250" s="2"/>
     </row>
-    <row r="251" spans="1:32" ht="12.5">
+    <row r="251" spans="1:32" ht="12.75">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -10515,7 +10510,7 @@
       <c r="AE251" s="2"/>
       <c r="AF251" s="2"/>
     </row>
-    <row r="252" spans="1:32" ht="12.5">
+    <row r="252" spans="1:32" ht="12.75">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -10549,7 +10544,7 @@
       <c r="AE252" s="2"/>
       <c r="AF252" s="2"/>
     </row>
-    <row r="253" spans="1:32" ht="12.5">
+    <row r="253" spans="1:32" ht="12.75">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -10583,7 +10578,7 @@
       <c r="AE253" s="2"/>
       <c r="AF253" s="2"/>
     </row>
-    <row r="254" spans="1:32" ht="12.5">
+    <row r="254" spans="1:32" ht="12.75">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -10617,7 +10612,7 @@
       <c r="AE254" s="2"/>
       <c r="AF254" s="2"/>
     </row>
-    <row r="255" spans="1:32" ht="12.5">
+    <row r="255" spans="1:32" ht="12.75">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -10651,7 +10646,7 @@
       <c r="AE255" s="2"/>
       <c r="AF255" s="2"/>
     </row>
-    <row r="256" spans="1:32" ht="12.5">
+    <row r="256" spans="1:32" ht="12.75">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -10685,7 +10680,7 @@
       <c r="AE256" s="2"/>
       <c r="AF256" s="2"/>
     </row>
-    <row r="257" spans="1:32" ht="12.5">
+    <row r="257" spans="1:32" ht="12.75">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -10719,7 +10714,7 @@
       <c r="AE257" s="2"/>
       <c r="AF257" s="2"/>
     </row>
-    <row r="258" spans="1:32" ht="12.5">
+    <row r="258" spans="1:32" ht="12.75">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -10753,7 +10748,7 @@
       <c r="AE258" s="2"/>
       <c r="AF258" s="2"/>
     </row>
-    <row r="259" spans="1:32" ht="12.5">
+    <row r="259" spans="1:32" ht="12.75">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -10787,7 +10782,7 @@
       <c r="AE259" s="2"/>
       <c r="AF259" s="2"/>
     </row>
-    <row r="260" spans="1:32" ht="12.5">
+    <row r="260" spans="1:32" ht="12.75">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -10821,7 +10816,7 @@
       <c r="AE260" s="2"/>
       <c r="AF260" s="2"/>
     </row>
-    <row r="261" spans="1:32" ht="12.5">
+    <row r="261" spans="1:32" ht="12.75">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -10855,7 +10850,7 @@
       <c r="AE261" s="2"/>
       <c r="AF261" s="2"/>
     </row>
-    <row r="262" spans="1:32" ht="12.5">
+    <row r="262" spans="1:32" ht="12.75">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -10889,7 +10884,7 @@
       <c r="AE262" s="2"/>
       <c r="AF262" s="2"/>
     </row>
-    <row r="263" spans="1:32" ht="12.5">
+    <row r="263" spans="1:32" ht="12.75">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -10923,7 +10918,7 @@
       <c r="AE263" s="2"/>
       <c r="AF263" s="2"/>
     </row>
-    <row r="264" spans="1:32" ht="12.5">
+    <row r="264" spans="1:32" ht="12.75">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -10957,7 +10952,7 @@
       <c r="AE264" s="2"/>
       <c r="AF264" s="2"/>
     </row>
-    <row r="265" spans="1:32" ht="12.5">
+    <row r="265" spans="1:32" ht="12.75">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -10991,7 +10986,7 @@
       <c r="AE265" s="2"/>
       <c r="AF265" s="2"/>
     </row>
-    <row r="266" spans="1:32" ht="12.5">
+    <row r="266" spans="1:32" ht="12.75">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -11025,7 +11020,7 @@
       <c r="AE266" s="2"/>
       <c r="AF266" s="2"/>
     </row>
-    <row r="267" spans="1:32" ht="12.5">
+    <row r="267" spans="1:32" ht="12.75">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -11059,7 +11054,7 @@
       <c r="AE267" s="2"/>
       <c r="AF267" s="2"/>
     </row>
-    <row r="268" spans="1:32" ht="12.5">
+    <row r="268" spans="1:32" ht="12.75">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -11093,7 +11088,7 @@
       <c r="AE268" s="2"/>
       <c r="AF268" s="2"/>
     </row>
-    <row r="269" spans="1:32" ht="12.5">
+    <row r="269" spans="1:32" ht="12.75">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -11127,7 +11122,7 @@
       <c r="AE269" s="2"/>
       <c r="AF269" s="2"/>
     </row>
-    <row r="270" spans="1:32" ht="12.5">
+    <row r="270" spans="1:32" ht="12.75">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -11161,7 +11156,7 @@
       <c r="AE270" s="2"/>
       <c r="AF270" s="2"/>
     </row>
-    <row r="271" spans="1:32" ht="12.5">
+    <row r="271" spans="1:32" ht="12.75">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -11195,7 +11190,7 @@
       <c r="AE271" s="2"/>
       <c r="AF271" s="2"/>
     </row>
-    <row r="272" spans="1:32" ht="12.5">
+    <row r="272" spans="1:32" ht="12.75">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -11229,7 +11224,7 @@
       <c r="AE272" s="2"/>
       <c r="AF272" s="2"/>
     </row>
-    <row r="273" spans="1:32" ht="12.5">
+    <row r="273" spans="1:32" ht="12.75">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -11263,7 +11258,7 @@
       <c r="AE273" s="2"/>
       <c r="AF273" s="2"/>
     </row>
-    <row r="274" spans="1:32" ht="12.5">
+    <row r="274" spans="1:32" ht="12.75">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -11297,7 +11292,7 @@
       <c r="AE274" s="2"/>
       <c r="AF274" s="2"/>
     </row>
-    <row r="275" spans="1:32" ht="12.5">
+    <row r="275" spans="1:32" ht="12.75">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -11331,7 +11326,7 @@
       <c r="AE275" s="2"/>
       <c r="AF275" s="2"/>
     </row>
-    <row r="276" spans="1:32" ht="12.5">
+    <row r="276" spans="1:32" ht="12.75">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -11365,7 +11360,7 @@
       <c r="AE276" s="2"/>
       <c r="AF276" s="2"/>
     </row>
-    <row r="277" spans="1:32" ht="12.5">
+    <row r="277" spans="1:32" ht="12.75">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -11399,7 +11394,7 @@
       <c r="AE277" s="2"/>
       <c r="AF277" s="2"/>
     </row>
-    <row r="278" spans="1:32" ht="12.5">
+    <row r="278" spans="1:32" ht="12.75">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -11433,7 +11428,7 @@
       <c r="AE278" s="2"/>
       <c r="AF278" s="2"/>
     </row>
-    <row r="279" spans="1:32" ht="12.5">
+    <row r="279" spans="1:32" ht="12.75">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -11467,7 +11462,7 @@
       <c r="AE279" s="2"/>
       <c r="AF279" s="2"/>
     </row>
-    <row r="280" spans="1:32" ht="12.5">
+    <row r="280" spans="1:32" ht="12.75">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -11501,7 +11496,7 @@
       <c r="AE280" s="2"/>
       <c r="AF280" s="2"/>
     </row>
-    <row r="281" spans="1:32" ht="12.5">
+    <row r="281" spans="1:32" ht="12.75">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -11535,7 +11530,7 @@
       <c r="AE281" s="2"/>
       <c r="AF281" s="2"/>
     </row>
-    <row r="282" spans="1:32" ht="12.5">
+    <row r="282" spans="1:32" ht="12.75">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -11569,7 +11564,7 @@
       <c r="AE282" s="2"/>
       <c r="AF282" s="2"/>
     </row>
-    <row r="283" spans="1:32" ht="12.5">
+    <row r="283" spans="1:32" ht="12.75">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -11603,7 +11598,7 @@
       <c r="AE283" s="2"/>
       <c r="AF283" s="2"/>
     </row>
-    <row r="284" spans="1:32" ht="12.5">
+    <row r="284" spans="1:32" ht="12.75">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -11637,7 +11632,7 @@
       <c r="AE284" s="2"/>
       <c r="AF284" s="2"/>
     </row>
-    <row r="285" spans="1:32" ht="12.5">
+    <row r="285" spans="1:32" ht="12.75">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -11671,7 +11666,7 @@
       <c r="AE285" s="2"/>
       <c r="AF285" s="2"/>
     </row>
-    <row r="286" spans="1:32" ht="12.5">
+    <row r="286" spans="1:32" ht="12.75">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -11705,7 +11700,7 @@
       <c r="AE286" s="2"/>
       <c r="AF286" s="2"/>
     </row>
-    <row r="287" spans="1:32" ht="12.5">
+    <row r="287" spans="1:32" ht="12.75">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -11739,7 +11734,7 @@
       <c r="AE287" s="2"/>
       <c r="AF287" s="2"/>
     </row>
-    <row r="288" spans="1:32" ht="12.5">
+    <row r="288" spans="1:32" ht="12.75">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -11773,7 +11768,7 @@
       <c r="AE288" s="2"/>
       <c r="AF288" s="2"/>
     </row>
-    <row r="289" spans="1:32" ht="12.5">
+    <row r="289" spans="1:32" ht="12.75">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -11807,7 +11802,7 @@
       <c r="AE289" s="2"/>
       <c r="AF289" s="2"/>
     </row>
-    <row r="290" spans="1:32" ht="12.5">
+    <row r="290" spans="1:32" ht="12.75">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -11841,7 +11836,7 @@
       <c r="AE290" s="2"/>
       <c r="AF290" s="2"/>
     </row>
-    <row r="291" spans="1:32" ht="12.5">
+    <row r="291" spans="1:32" ht="12.75">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -11875,7 +11870,7 @@
       <c r="AE291" s="2"/>
       <c r="AF291" s="2"/>
     </row>
-    <row r="292" spans="1:32" ht="12.5">
+    <row r="292" spans="1:32" ht="12.75">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -11909,7 +11904,7 @@
       <c r="AE292" s="2"/>
       <c r="AF292" s="2"/>
     </row>
-    <row r="293" spans="1:32" ht="12.5">
+    <row r="293" spans="1:32" ht="12.75">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -11943,7 +11938,7 @@
       <c r="AE293" s="2"/>
       <c r="AF293" s="2"/>
     </row>
-    <row r="294" spans="1:32" ht="12.5">
+    <row r="294" spans="1:32" ht="12.75">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -11977,7 +11972,7 @@
       <c r="AE294" s="2"/>
       <c r="AF294" s="2"/>
     </row>
-    <row r="295" spans="1:32" ht="12.5">
+    <row r="295" spans="1:32" ht="12.75">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -12011,7 +12006,7 @@
       <c r="AE295" s="2"/>
       <c r="AF295" s="2"/>
     </row>
-    <row r="296" spans="1:32" ht="12.5">
+    <row r="296" spans="1:32" ht="12.75">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -12045,7 +12040,7 @@
       <c r="AE296" s="2"/>
       <c r="AF296" s="2"/>
     </row>
-    <row r="297" spans="1:32" ht="12.5">
+    <row r="297" spans="1:32" ht="12.75">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -12079,7 +12074,7 @@
       <c r="AE297" s="2"/>
       <c r="AF297" s="2"/>
     </row>
-    <row r="298" spans="1:32" ht="12.5">
+    <row r="298" spans="1:32" ht="12.75">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -12113,7 +12108,7 @@
       <c r="AE298" s="2"/>
       <c r="AF298" s="2"/>
     </row>
-    <row r="299" spans="1:32" ht="12.5">
+    <row r="299" spans="1:32" ht="12.75">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -12147,7 +12142,7 @@
       <c r="AE299" s="2"/>
       <c r="AF299" s="2"/>
     </row>
-    <row r="300" spans="1:32" ht="12.5">
+    <row r="300" spans="1:32" ht="12.75">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -12181,7 +12176,7 @@
       <c r="AE300" s="2"/>
       <c r="AF300" s="2"/>
     </row>
-    <row r="301" spans="1:32" ht="12.5">
+    <row r="301" spans="1:32" ht="12.75">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -12215,7 +12210,7 @@
       <c r="AE301" s="2"/>
       <c r="AF301" s="2"/>
     </row>
-    <row r="302" spans="1:32" ht="12.5">
+    <row r="302" spans="1:32" ht="12.75">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -12249,7 +12244,7 @@
       <c r="AE302" s="2"/>
       <c r="AF302" s="2"/>
     </row>
-    <row r="303" spans="1:32" ht="12.5">
+    <row r="303" spans="1:32" ht="12.75">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -12283,7 +12278,7 @@
       <c r="AE303" s="2"/>
       <c r="AF303" s="2"/>
     </row>
-    <row r="304" spans="1:32" ht="12.5">
+    <row r="304" spans="1:32" ht="12.75">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -12317,7 +12312,7 @@
       <c r="AE304" s="2"/>
       <c r="AF304" s="2"/>
     </row>
-    <row r="305" spans="1:32" ht="12.5">
+    <row r="305" spans="1:32" ht="12.75">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -12351,7 +12346,7 @@
       <c r="AE305" s="2"/>
       <c r="AF305" s="2"/>
     </row>
-    <row r="306" spans="1:32" ht="12.5">
+    <row r="306" spans="1:32" ht="12.75">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -12385,7 +12380,7 @@
       <c r="AE306" s="2"/>
       <c r="AF306" s="2"/>
     </row>
-    <row r="307" spans="1:32" ht="12.5">
+    <row r="307" spans="1:32" ht="12.75">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -12419,7 +12414,7 @@
       <c r="AE307" s="2"/>
       <c r="AF307" s="2"/>
     </row>
-    <row r="308" spans="1:32" ht="12.5">
+    <row r="308" spans="1:32" ht="12.75">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -12453,7 +12448,7 @@
       <c r="AE308" s="2"/>
       <c r="AF308" s="2"/>
     </row>
-    <row r="309" spans="1:32" ht="12.5">
+    <row r="309" spans="1:32" ht="12.75">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -12487,7 +12482,7 @@
       <c r="AE309" s="2"/>
       <c r="AF309" s="2"/>
     </row>
-    <row r="310" spans="1:32" ht="12.5">
+    <row r="310" spans="1:32" ht="12.75">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -12521,7 +12516,7 @@
       <c r="AE310" s="2"/>
       <c r="AF310" s="2"/>
     </row>
-    <row r="311" spans="1:32" ht="12.5">
+    <row r="311" spans="1:32" ht="12.75">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -12555,7 +12550,7 @@
       <c r="AE311" s="2"/>
       <c r="AF311" s="2"/>
     </row>
-    <row r="312" spans="1:32" ht="12.5">
+    <row r="312" spans="1:32" ht="12.75">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -12589,7 +12584,7 @@
       <c r="AE312" s="2"/>
       <c r="AF312" s="2"/>
     </row>
-    <row r="313" spans="1:32" ht="12.5">
+    <row r="313" spans="1:32" ht="12.75">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -12623,7 +12618,7 @@
       <c r="AE313" s="2"/>
       <c r="AF313" s="2"/>
     </row>
-    <row r="314" spans="1:32" ht="12.5">
+    <row r="314" spans="1:32" ht="12.75">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -12657,7 +12652,7 @@
       <c r="AE314" s="2"/>
       <c r="AF314" s="2"/>
     </row>
-    <row r="315" spans="1:32" ht="12.5">
+    <row r="315" spans="1:32" ht="12.75">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -12691,7 +12686,7 @@
       <c r="AE315" s="2"/>
       <c r="AF315" s="2"/>
     </row>
-    <row r="316" spans="1:32" ht="12.5">
+    <row r="316" spans="1:32" ht="12.75">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -12725,7 +12720,7 @@
       <c r="AE316" s="2"/>
       <c r="AF316" s="2"/>
     </row>
-    <row r="317" spans="1:32" ht="12.5">
+    <row r="317" spans="1:32" ht="12.75">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -12759,7 +12754,7 @@
       <c r="AE317" s="2"/>
       <c r="AF317" s="2"/>
     </row>
-    <row r="318" spans="1:32" ht="12.5">
+    <row r="318" spans="1:32" ht="12.75">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -12793,7 +12788,7 @@
       <c r="AE318" s="2"/>
       <c r="AF318" s="2"/>
     </row>
-    <row r="319" spans="1:32" ht="12.5">
+    <row r="319" spans="1:32" ht="12.75">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -12827,7 +12822,7 @@
       <c r="AE319" s="2"/>
       <c r="AF319" s="2"/>
     </row>
-    <row r="320" spans="1:32" ht="12.5">
+    <row r="320" spans="1:32" ht="12.75">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -12861,7 +12856,7 @@
       <c r="AE320" s="2"/>
       <c r="AF320" s="2"/>
     </row>
-    <row r="321" spans="1:32" ht="12.5">
+    <row r="321" spans="1:32" ht="12.75">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -12895,7 +12890,7 @@
       <c r="AE321" s="2"/>
       <c r="AF321" s="2"/>
     </row>
-    <row r="322" spans="1:32" ht="12.5">
+    <row r="322" spans="1:32" ht="12.75">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -12929,7 +12924,7 @@
       <c r="AE322" s="2"/>
       <c r="AF322" s="2"/>
     </row>
-    <row r="323" spans="1:32" ht="12.5">
+    <row r="323" spans="1:32" ht="12.75">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -12963,7 +12958,7 @@
       <c r="AE323" s="2"/>
       <c r="AF323" s="2"/>
     </row>
-    <row r="324" spans="1:32" ht="12.5">
+    <row r="324" spans="1:32" ht="12.75">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -12997,7 +12992,7 @@
       <c r="AE324" s="2"/>
       <c r="AF324" s="2"/>
     </row>
-    <row r="325" spans="1:32" ht="12.5">
+    <row r="325" spans="1:32" ht="12.75">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -13031,7 +13026,7 @@
       <c r="AE325" s="2"/>
       <c r="AF325" s="2"/>
     </row>
-    <row r="326" spans="1:32" ht="12.5">
+    <row r="326" spans="1:32" ht="12.75">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -13065,7 +13060,7 @@
       <c r="AE326" s="2"/>
       <c r="AF326" s="2"/>
     </row>
-    <row r="327" spans="1:32" ht="12.5">
+    <row r="327" spans="1:32" ht="12.75">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -13099,7 +13094,7 @@
       <c r="AE327" s="2"/>
       <c r="AF327" s="2"/>
     </row>
-    <row r="328" spans="1:32" ht="12.5">
+    <row r="328" spans="1:32" ht="12.75">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -13133,7 +13128,7 @@
       <c r="AE328" s="2"/>
       <c r="AF328" s="2"/>
     </row>
-    <row r="329" spans="1:32" ht="12.5">
+    <row r="329" spans="1:32" ht="12.75">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -13167,7 +13162,7 @@
       <c r="AE329" s="2"/>
       <c r="AF329" s="2"/>
     </row>
-    <row r="330" spans="1:32" ht="12.5">
+    <row r="330" spans="1:32" ht="12.75">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -13201,7 +13196,7 @@
       <c r="AE330" s="2"/>
       <c r="AF330" s="2"/>
     </row>
-    <row r="331" spans="1:32" ht="12.5">
+    <row r="331" spans="1:32" ht="12.75">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -13235,7 +13230,7 @@
       <c r="AE331" s="2"/>
       <c r="AF331" s="2"/>
     </row>
-    <row r="332" spans="1:32" ht="12.5">
+    <row r="332" spans="1:32" ht="12.75">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -13269,7 +13264,7 @@
       <c r="AE332" s="2"/>
       <c r="AF332" s="2"/>
     </row>
-    <row r="333" spans="1:32" ht="12.5">
+    <row r="333" spans="1:32" ht="12.75">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -13303,7 +13298,7 @@
       <c r="AE333" s="2"/>
       <c r="AF333" s="2"/>
     </row>
-    <row r="334" spans="1:32" ht="12.5">
+    <row r="334" spans="1:32" ht="12.75">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -13337,7 +13332,7 @@
       <c r="AE334" s="2"/>
       <c r="AF334" s="2"/>
     </row>
-    <row r="335" spans="1:32" ht="12.5">
+    <row r="335" spans="1:32" ht="12.75">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -13371,7 +13366,7 @@
       <c r="AE335" s="2"/>
       <c r="AF335" s="2"/>
     </row>
-    <row r="336" spans="1:32" ht="12.5">
+    <row r="336" spans="1:32" ht="12.75">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -13405,7 +13400,7 @@
       <c r="AE336" s="2"/>
       <c r="AF336" s="2"/>
     </row>
-    <row r="337" spans="1:32" ht="12.5">
+    <row r="337" spans="1:32" ht="12.75">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -13439,7 +13434,7 @@
       <c r="AE337" s="2"/>
       <c r="AF337" s="2"/>
     </row>
-    <row r="338" spans="1:32" ht="12.5">
+    <row r="338" spans="1:32" ht="12.75">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -13473,7 +13468,7 @@
       <c r="AE338" s="2"/>
       <c r="AF338" s="2"/>
     </row>
-    <row r="339" spans="1:32" ht="12.5">
+    <row r="339" spans="1:32" ht="12.75">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -13507,7 +13502,7 @@
       <c r="AE339" s="2"/>
       <c r="AF339" s="2"/>
     </row>
-    <row r="340" spans="1:32" ht="12.5">
+    <row r="340" spans="1:32" ht="12.75">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -13541,7 +13536,7 @@
       <c r="AE340" s="2"/>
       <c r="AF340" s="2"/>
     </row>
-    <row r="341" spans="1:32" ht="12.5">
+    <row r="341" spans="1:32" ht="12.75">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -13575,7 +13570,7 @@
       <c r="AE341" s="2"/>
       <c r="AF341" s="2"/>
     </row>
-    <row r="342" spans="1:32" ht="12.5">
+    <row r="342" spans="1:32" ht="12.75">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -13609,7 +13604,7 @@
       <c r="AE342" s="2"/>
       <c r="AF342" s="2"/>
     </row>
-    <row r="343" spans="1:32" ht="12.5">
+    <row r="343" spans="1:32" ht="12.75">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -13643,7 +13638,7 @@
       <c r="AE343" s="2"/>
       <c r="AF343" s="2"/>
     </row>
-    <row r="344" spans="1:32" ht="12.5">
+    <row r="344" spans="1:32" ht="12.75">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -13677,7 +13672,7 @@
       <c r="AE344" s="2"/>
       <c r="AF344" s="2"/>
     </row>
-    <row r="345" spans="1:32" ht="12.5">
+    <row r="345" spans="1:32" ht="12.75">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -13711,7 +13706,7 @@
       <c r="AE345" s="2"/>
       <c r="AF345" s="2"/>
     </row>
-    <row r="346" spans="1:32" ht="12.5">
+    <row r="346" spans="1:32" ht="12.75">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -13745,7 +13740,7 @@
       <c r="AE346" s="2"/>
       <c r="AF346" s="2"/>
     </row>
-    <row r="347" spans="1:32" ht="12.5">
+    <row r="347" spans="1:32" ht="12.75">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -13779,7 +13774,7 @@
       <c r="AE347" s="2"/>
       <c r="AF347" s="2"/>
     </row>
-    <row r="348" spans="1:32" ht="12.5">
+    <row r="348" spans="1:32" ht="12.75">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -13813,7 +13808,7 @@
       <c r="AE348" s="2"/>
       <c r="AF348" s="2"/>
     </row>
-    <row r="349" spans="1:32" ht="12.5">
+    <row r="349" spans="1:32" ht="12.75">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -13847,7 +13842,7 @@
       <c r="AE349" s="2"/>
       <c r="AF349" s="2"/>
     </row>
-    <row r="350" spans="1:32" ht="12.5">
+    <row r="350" spans="1:32" ht="12.75">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -13881,7 +13876,7 @@
       <c r="AE350" s="2"/>
       <c r="AF350" s="2"/>
     </row>
-    <row r="351" spans="1:32" ht="12.5">
+    <row r="351" spans="1:32" ht="12.75">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -13915,7 +13910,7 @@
       <c r="AE351" s="2"/>
       <c r="AF351" s="2"/>
     </row>
-    <row r="352" spans="1:32" ht="12.5">
+    <row r="352" spans="1:32" ht="12.75">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -13949,7 +13944,7 @@
       <c r="AE352" s="2"/>
       <c r="AF352" s="2"/>
     </row>
-    <row r="353" spans="1:32" ht="12.5">
+    <row r="353" spans="1:32" ht="12.75">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -13983,7 +13978,7 @@
       <c r="AE353" s="2"/>
       <c r="AF353" s="2"/>
     </row>
-    <row r="354" spans="1:32" ht="12.5">
+    <row r="354" spans="1:32" ht="12.75">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -14017,7 +14012,7 @@
       <c r="AE354" s="2"/>
       <c r="AF354" s="2"/>
     </row>
-    <row r="355" spans="1:32" ht="12.5">
+    <row r="355" spans="1:32" ht="12.75">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -14051,7 +14046,7 @@
       <c r="AE355" s="2"/>
       <c r="AF355" s="2"/>
     </row>
-    <row r="356" spans="1:32" ht="12.5">
+    <row r="356" spans="1:32" ht="12.75">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -14085,7 +14080,7 @@
       <c r="AE356" s="2"/>
       <c r="AF356" s="2"/>
     </row>
-    <row r="357" spans="1:32" ht="12.5">
+    <row r="357" spans="1:32" ht="12.75">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -14119,7 +14114,7 @@
       <c r="AE357" s="2"/>
       <c r="AF357" s="2"/>
     </row>
-    <row r="358" spans="1:32" ht="12.5">
+    <row r="358" spans="1:32" ht="12.75">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -14153,7 +14148,7 @@
       <c r="AE358" s="2"/>
       <c r="AF358" s="2"/>
     </row>
-    <row r="359" spans="1:32" ht="12.5">
+    <row r="359" spans="1:32" ht="12.75">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -14187,7 +14182,7 @@
       <c r="AE359" s="2"/>
       <c r="AF359" s="2"/>
     </row>
-    <row r="360" spans="1:32" ht="12.5">
+    <row r="360" spans="1:32" ht="12.75">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -14221,7 +14216,7 @@
       <c r="AE360" s="2"/>
       <c r="AF360" s="2"/>
     </row>
-    <row r="361" spans="1:32" ht="12.5">
+    <row r="361" spans="1:32" ht="12.75">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -14255,7 +14250,7 @@
       <c r="AE361" s="2"/>
       <c r="AF361" s="2"/>
     </row>
-    <row r="362" spans="1:32" ht="12.5">
+    <row r="362" spans="1:32" ht="12.75">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -14289,7 +14284,7 @@
       <c r="AE362" s="2"/>
       <c r="AF362" s="2"/>
     </row>
-    <row r="363" spans="1:32" ht="12.5">
+    <row r="363" spans="1:32" ht="12.75">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -14323,7 +14318,7 @@
       <c r="AE363" s="2"/>
       <c r="AF363" s="2"/>
     </row>
-    <row r="364" spans="1:32" ht="12.5">
+    <row r="364" spans="1:32" ht="12.75">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -14357,7 +14352,7 @@
       <c r="AE364" s="2"/>
       <c r="AF364" s="2"/>
     </row>
-    <row r="365" spans="1:32" ht="12.5">
+    <row r="365" spans="1:32" ht="12.75">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -14391,7 +14386,7 @@
       <c r="AE365" s="2"/>
       <c r="AF365" s="2"/>
     </row>
-    <row r="366" spans="1:32" ht="12.5">
+    <row r="366" spans="1:32" ht="12.75">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -14425,7 +14420,7 @@
       <c r="AE366" s="2"/>
       <c r="AF366" s="2"/>
     </row>
-    <row r="367" spans="1:32" ht="12.5">
+    <row r="367" spans="1:32" ht="12.75">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -14459,7 +14454,7 @@
       <c r="AE367" s="2"/>
       <c r="AF367" s="2"/>
     </row>
-    <row r="368" spans="1:32" ht="12.5">
+    <row r="368" spans="1:32" ht="12.75">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -14493,7 +14488,7 @@
       <c r="AE368" s="2"/>
       <c r="AF368" s="2"/>
     </row>
-    <row r="369" spans="1:32" ht="12.5">
+    <row r="369" spans="1:32" ht="12.75">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -14527,7 +14522,7 @@
       <c r="AE369" s="2"/>
       <c r="AF369" s="2"/>
     </row>
-    <row r="370" spans="1:32" ht="12.5">
+    <row r="370" spans="1:32" ht="12.75">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -14561,7 +14556,7 @@
       <c r="AE370" s="2"/>
       <c r="AF370" s="2"/>
     </row>
-    <row r="371" spans="1:32" ht="12.5">
+    <row r="371" spans="1:32" ht="12.75">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -14595,7 +14590,7 @@
       <c r="AE371" s="2"/>
       <c r="AF371" s="2"/>
     </row>
-    <row r="372" spans="1:32" ht="12.5">
+    <row r="372" spans="1:32" ht="12.75">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -14629,7 +14624,7 @@
       <c r="AE372" s="2"/>
       <c r="AF372" s="2"/>
     </row>
-    <row r="373" spans="1:32" ht="12.5">
+    <row r="373" spans="1:32" ht="12.75">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -14663,7 +14658,7 @@
       <c r="AE373" s="2"/>
       <c r="AF373" s="2"/>
     </row>
-    <row r="374" spans="1:32" ht="12.5">
+    <row r="374" spans="1:32" ht="12.75">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -14697,7 +14692,7 @@
       <c r="AE374" s="2"/>
       <c r="AF374" s="2"/>
     </row>
-    <row r="375" spans="1:32" ht="12.5">
+    <row r="375" spans="1:32" ht="12.75">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -14731,7 +14726,7 @@
       <c r="AE375" s="2"/>
       <c r="AF375" s="2"/>
     </row>
-    <row r="376" spans="1:32" ht="12.5">
+    <row r="376" spans="1:32" ht="12.75">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -14765,7 +14760,7 @@
       <c r="AE376" s="2"/>
       <c r="AF376" s="2"/>
     </row>
-    <row r="377" spans="1:32" ht="12.5">
+    <row r="377" spans="1:32" ht="12.75">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -14799,7 +14794,7 @@
       <c r="AE377" s="2"/>
       <c r="AF377" s="2"/>
     </row>
-    <row r="378" spans="1:32" ht="12.5">
+    <row r="378" spans="1:32" ht="12.75">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -14833,7 +14828,7 @@
       <c r="AE378" s="2"/>
       <c r="AF378" s="2"/>
     </row>
-    <row r="379" spans="1:32" ht="12.5">
+    <row r="379" spans="1:32" ht="12.75">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -14867,7 +14862,7 @@
       <c r="AE379" s="2"/>
       <c r="AF379" s="2"/>
     </row>
-    <row r="380" spans="1:32" ht="12.5">
+    <row r="380" spans="1:32" ht="12.75">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -14901,7 +14896,7 @@
       <c r="AE380" s="2"/>
       <c r="AF380" s="2"/>
     </row>
-    <row r="381" spans="1:32" ht="12.5">
+    <row r="381" spans="1:32" ht="12.75">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -14935,7 +14930,7 @@
       <c r="AE381" s="2"/>
       <c r="AF381" s="2"/>
     </row>
-    <row r="382" spans="1:32" ht="12.5">
+    <row r="382" spans="1:32" ht="12.75">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -14969,7 +14964,7 @@
       <c r="AE382" s="2"/>
       <c r="AF382" s="2"/>
     </row>
-    <row r="383" spans="1:32" ht="12.5">
+    <row r="383" spans="1:32" ht="12.75">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -15003,7 +14998,7 @@
       <c r="AE383" s="2"/>
       <c r="AF383" s="2"/>
     </row>
-    <row r="384" spans="1:32" ht="12.5">
+    <row r="384" spans="1:32" ht="12.75">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -15037,7 +15032,7 @@
       <c r="AE384" s="2"/>
       <c r="AF384" s="2"/>
     </row>
-    <row r="385" spans="1:32" ht="12.5">
+    <row r="385" spans="1:32" ht="12.75">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -15071,7 +15066,7 @@
       <c r="AE385" s="2"/>
       <c r="AF385" s="2"/>
     </row>
-    <row r="386" spans="1:32" ht="12.5">
+    <row r="386" spans="1:32" ht="12.75">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -15105,7 +15100,7 @@
       <c r="AE386" s="2"/>
       <c r="AF386" s="2"/>
     </row>
-    <row r="387" spans="1:32" ht="12.5">
+    <row r="387" spans="1:32" ht="12.75">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -15139,7 +15134,7 @@
       <c r="AE387" s="2"/>
       <c r="AF387" s="2"/>
     </row>
-    <row r="388" spans="1:32" ht="12.5">
+    <row r="388" spans="1:32" ht="12.75">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -15173,7 +15168,7 @@
       <c r="AE388" s="2"/>
       <c r="AF388" s="2"/>
     </row>
-    <row r="389" spans="1:32" ht="12.5">
+    <row r="389" spans="1:32" ht="12.75">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -15207,7 +15202,7 @@
       <c r="AE389" s="2"/>
       <c r="AF389" s="2"/>
     </row>
-    <row r="390" spans="1:32" ht="12.5">
+    <row r="390" spans="1:32" ht="12.75">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -15241,7 +15236,7 @@
       <c r="AE390" s="2"/>
       <c r="AF390" s="2"/>
     </row>
-    <row r="391" spans="1:32" ht="12.5">
+    <row r="391" spans="1:32" ht="12.75">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -15275,7 +15270,7 @@
       <c r="AE391" s="2"/>
       <c r="AF391" s="2"/>
     </row>
-    <row r="392" spans="1:32" ht="12.5">
+    <row r="392" spans="1:32" ht="12.75">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -15309,7 +15304,7 @@
       <c r="AE392" s="2"/>
       <c r="AF392" s="2"/>
     </row>
-    <row r="393" spans="1:32" ht="12.5">
+    <row r="393" spans="1:32" ht="12.75">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -15343,7 +15338,7 @@
       <c r="AE393" s="2"/>
       <c r="AF393" s="2"/>
     </row>
-    <row r="394" spans="1:32" ht="12.5">
+    <row r="394" spans="1:32" ht="12.75">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -15377,7 +15372,7 @@
       <c r="AE394" s="2"/>
       <c r="AF394" s="2"/>
     </row>
-    <row r="395" spans="1:32" ht="12.5">
+    <row r="395" spans="1:32" ht="12.75">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -15411,7 +15406,7 @@
       <c r="AE395" s="2"/>
       <c r="AF395" s="2"/>
     </row>
-    <row r="396" spans="1:32" ht="12.5">
+    <row r="396" spans="1:32" ht="12.75">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -15445,7 +15440,7 @@
       <c r="AE396" s="2"/>
       <c r="AF396" s="2"/>
     </row>
-    <row r="397" spans="1:32" ht="12.5">
+    <row r="397" spans="1:32" ht="12.75">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -15479,7 +15474,7 @@
       <c r="AE397" s="2"/>
       <c r="AF397" s="2"/>
     </row>
-    <row r="398" spans="1:32" ht="12.5">
+    <row r="398" spans="1:32" ht="12.75">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -15513,7 +15508,7 @@
       <c r="AE398" s="2"/>
       <c r="AF398" s="2"/>
     </row>
-    <row r="399" spans="1:32" ht="12.5">
+    <row r="399" spans="1:32" ht="12.75">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -15547,7 +15542,7 @@
       <c r="AE399" s="2"/>
       <c r="AF399" s="2"/>
     </row>
-    <row r="400" spans="1:32" ht="12.5">
+    <row r="400" spans="1:32" ht="12.75">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -15581,7 +15576,7 @@
       <c r="AE400" s="2"/>
       <c r="AF400" s="2"/>
     </row>
-    <row r="401" spans="1:32" ht="12.5">
+    <row r="401" spans="1:32" ht="12.75">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -15615,7 +15610,7 @@
       <c r="AE401" s="2"/>
       <c r="AF401" s="2"/>
     </row>
-    <row r="402" spans="1:32" ht="12.5">
+    <row r="402" spans="1:32" ht="12.75">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -15649,7 +15644,7 @@
       <c r="AE402" s="2"/>
       <c r="AF402" s="2"/>
     </row>
-    <row r="403" spans="1:32" ht="12.5">
+    <row r="403" spans="1:32" ht="12.75">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -15683,7 +15678,7 @@
       <c r="AE403" s="2"/>
       <c r="AF403" s="2"/>
     </row>
-    <row r="404" spans="1:32" ht="12.5">
+    <row r="404" spans="1:32" ht="12.75">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -15717,7 +15712,7 @@
       <c r="AE404" s="2"/>
       <c r="AF404" s="2"/>
     </row>
-    <row r="405" spans="1:32" ht="12.5">
+    <row r="405" spans="1:32" ht="12.75">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -15751,7 +15746,7 @@
       <c r="AE405" s="2"/>
       <c r="AF405" s="2"/>
     </row>
-    <row r="406" spans="1:32" ht="12.5">
+    <row r="406" spans="1:32" ht="12.75">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -15785,7 +15780,7 @@
       <c r="AE406" s="2"/>
       <c r="AF406" s="2"/>
     </row>
-    <row r="407" spans="1:32" ht="12.5">
+    <row r="407" spans="1:32" ht="12.75">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -15819,7 +15814,7 @@
       <c r="AE407" s="2"/>
       <c r="AF407" s="2"/>
     </row>
-    <row r="408" spans="1:32" ht="12.5">
+    <row r="408" spans="1:32" ht="12.75">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -15853,7 +15848,7 @@
       <c r="AE408" s="2"/>
       <c r="AF408" s="2"/>
     </row>
-    <row r="409" spans="1:32" ht="12.5">
+    <row r="409" spans="1:32" ht="12.75">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -15887,7 +15882,7 @@
       <c r="AE409" s="2"/>
       <c r="AF409" s="2"/>
     </row>
-    <row r="410" spans="1:32" ht="12.5">
+    <row r="410" spans="1:32" ht="12.75">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -15921,7 +15916,7 @@
       <c r="AE410" s="2"/>
       <c r="AF410" s="2"/>
     </row>
-    <row r="411" spans="1:32" ht="12.5">
+    <row r="411" spans="1:32" ht="12.75">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -15955,7 +15950,7 @@
       <c r="AE411" s="2"/>
       <c r="AF411" s="2"/>
     </row>
-    <row r="412" spans="1:32" ht="12.5">
+    <row r="412" spans="1:32" ht="12.75">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -15989,7 +15984,7 @@
       <c r="AE412" s="2"/>
       <c r="AF412" s="2"/>
     </row>
-    <row r="413" spans="1:32" ht="12.5">
+    <row r="413" spans="1:32" ht="12.75">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -16023,7 +16018,7 @@
       <c r="AE413" s="2"/>
       <c r="AF413" s="2"/>
     </row>
-    <row r="414" spans="1:32" ht="12.5">
+    <row r="414" spans="1:32" ht="12.75">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -16057,7 +16052,7 @@
       <c r="AE414" s="2"/>
       <c r="AF414" s="2"/>
     </row>
-    <row r="415" spans="1:32" ht="12.5">
+    <row r="415" spans="1:32" ht="12.75">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -16091,7 +16086,7 @@
       <c r="AE415" s="2"/>
       <c r="AF415" s="2"/>
     </row>
-    <row r="416" spans="1:32" ht="12.5">
+    <row r="416" spans="1:32" ht="12.75">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -16125,7 +16120,7 @@
       <c r="AE416" s="2"/>
       <c r="AF416" s="2"/>
     </row>
-    <row r="417" spans="1:32" ht="12.5">
+    <row r="417" spans="1:32" ht="12.75">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -16159,7 +16154,7 @@
       <c r="AE417" s="2"/>
       <c r="AF417" s="2"/>
     </row>
-    <row r="418" spans="1:32" ht="12.5">
+    <row r="418" spans="1:32" ht="12.75">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -16193,7 +16188,7 @@
       <c r="AE418" s="2"/>
       <c r="AF418" s="2"/>
     </row>
-    <row r="419" spans="1:32" ht="12.5">
+    <row r="419" spans="1:32" ht="12.75">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -16227,7 +16222,7 @@
       <c r="AE419" s="2"/>
       <c r="AF419" s="2"/>
     </row>
-    <row r="420" spans="1:32" ht="12.5">
+    <row r="420" spans="1:32" ht="12.75">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -16261,7 +16256,7 @@
       <c r="AE420" s="2"/>
       <c r="AF420" s="2"/>
     </row>
-    <row r="421" spans="1:32" ht="12.5">
+    <row r="421" spans="1:32" ht="12.75">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -16295,7 +16290,7 @@
       <c r="AE421" s="2"/>
       <c r="AF421" s="2"/>
     </row>
-    <row r="422" spans="1:32" ht="12.5">
+    <row r="422" spans="1:32" ht="12.75">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -16329,7 +16324,7 @@
       <c r="AE422" s="2"/>
       <c r="AF422" s="2"/>
     </row>
-    <row r="423" spans="1:32" ht="12.5">
+    <row r="423" spans="1:32" ht="12.75">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -16363,7 +16358,7 @@
       <c r="AE423" s="2"/>
       <c r="AF423" s="2"/>
     </row>
-    <row r="424" spans="1:32" ht="12.5">
+    <row r="424" spans="1:32" ht="12.75">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -16397,7 +16392,7 @@
       <c r="AE424" s="2"/>
       <c r="AF424" s="2"/>
     </row>
-    <row r="425" spans="1:32" ht="12.5">
+    <row r="425" spans="1:32" ht="12.75">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -16431,7 +16426,7 @@
       <c r="AE425" s="2"/>
       <c r="AF425" s="2"/>
     </row>
-    <row r="426" spans="1:32" ht="12.5">
+    <row r="426" spans="1:32" ht="12.75">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -16465,7 +16460,7 @@
       <c r="AE426" s="2"/>
       <c r="AF426" s="2"/>
     </row>
-    <row r="427" spans="1:32" ht="12.5">
+    <row r="427" spans="1:32" ht="12.75">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -16499,7 +16494,7 @@
       <c r="AE427" s="2"/>
       <c r="AF427" s="2"/>
     </row>
-    <row r="428" spans="1:32" ht="12.5">
+    <row r="428" spans="1:32" ht="12.75">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -16533,7 +16528,7 @@
       <c r="AE428" s="2"/>
       <c r="AF428" s="2"/>
     </row>
-    <row r="429" spans="1:32" ht="12.5">
+    <row r="429" spans="1:32" ht="12.75">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -16567,7 +16562,7 @@
       <c r="AE429" s="2"/>
       <c r="AF429" s="2"/>
     </row>
-    <row r="430" spans="1:32" ht="12.5">
+    <row r="430" spans="1:32" ht="12.75">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -16601,7 +16596,7 @@
       <c r="AE430" s="2"/>
       <c r="AF430" s="2"/>
     </row>
-    <row r="431" spans="1:32" ht="12.5">
+    <row r="431" spans="1:32" ht="12.75">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -16635,7 +16630,7 @@
       <c r="AE431" s="2"/>
       <c r="AF431" s="2"/>
     </row>
-    <row r="432" spans="1:32" ht="12.5">
+    <row r="432" spans="1:32" ht="12.75">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -16669,7 +16664,7 @@
       <c r="AE432" s="2"/>
       <c r="AF432" s="2"/>
     </row>
-    <row r="433" spans="1:32" ht="12.5">
+    <row r="433" spans="1:32" ht="12.75">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -16703,7 +16698,7 @@
       <c r="AE433" s="2"/>
       <c r="AF433" s="2"/>
     </row>
-    <row r="434" spans="1:32" ht="12.5">
+    <row r="434" spans="1:32" ht="12.75">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -16737,7 +16732,7 @@
       <c r="AE434" s="2"/>
       <c r="AF434" s="2"/>
     </row>
-    <row r="435" spans="1:32" ht="12.5">
+    <row r="435" spans="1:32" ht="12.75">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -16771,7 +16766,7 @@
       <c r="AE435" s="2"/>
       <c r="AF435" s="2"/>
     </row>
-    <row r="436" spans="1:32" ht="12.5">
+    <row r="436" spans="1:32" ht="12.75">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -16805,7 +16800,7 @@
       <c r="AE436" s="2"/>
       <c r="AF436" s="2"/>
     </row>
-    <row r="437" spans="1:32" ht="12.5">
+    <row r="437" spans="1:32" ht="12.75">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -16839,7 +16834,7 @@
       <c r="AE437" s="2"/>
       <c r="AF437" s="2"/>
     </row>
-    <row r="438" spans="1:32" ht="12.5">
+    <row r="438" spans="1:32" ht="12.75">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -16873,7 +16868,7 @@
       <c r="AE438" s="2"/>
       <c r="AF438" s="2"/>
     </row>
-    <row r="439" spans="1:32" ht="12.5">
+    <row r="439" spans="1:32" ht="12.75">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -16907,7 +16902,7 @@
       <c r="AE439" s="2"/>
       <c r="AF439" s="2"/>
     </row>
-    <row r="440" spans="1:32" ht="12.5">
+    <row r="440" spans="1:32" ht="12.75">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -16941,7 +16936,7 @@
       <c r="AE440" s="2"/>
       <c r="AF440" s="2"/>
     </row>
-    <row r="441" spans="1:32" ht="12.5">
+    <row r="441" spans="1:32" ht="12.75">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -16975,7 +16970,7 @@
       <c r="AE441" s="2"/>
       <c r="AF441" s="2"/>
     </row>
-    <row r="442" spans="1:32" ht="12.5">
+    <row r="442" spans="1:32" ht="12.75">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -17009,7 +17004,7 @@
       <c r="AE442" s="2"/>
       <c r="AF442" s="2"/>
     </row>
-    <row r="443" spans="1:32" ht="12.5">
+    <row r="443" spans="1:32" ht="12.75">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -17043,7 +17038,7 @@
       <c r="AE443" s="2"/>
       <c r="AF443" s="2"/>
     </row>
-    <row r="444" spans="1:32" ht="12.5">
+    <row r="444" spans="1:32" ht="12.75">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -17077,7 +17072,7 @@
       <c r="AE444" s="2"/>
       <c r="AF444" s="2"/>
     </row>
-    <row r="445" spans="1:32" ht="12.5">
+    <row r="445" spans="1:32" ht="12.75">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -17111,7 +17106,7 @@
       <c r="AE445" s="2"/>
       <c r="AF445" s="2"/>
     </row>
-    <row r="446" spans="1:32" ht="12.5">
+    <row r="446" spans="1:32" ht="12.75">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -17145,7 +17140,7 @@
       <c r="AE446" s="2"/>
       <c r="AF446" s="2"/>
     </row>
-    <row r="447" spans="1:32" ht="12.5">
+    <row r="447" spans="1:32" ht="12.75">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -17179,7 +17174,7 @@
       <c r="AE447" s="2"/>
       <c r="AF447" s="2"/>
     </row>
-    <row r="448" spans="1:32" ht="12.5">
+    <row r="448" spans="1:32" ht="12.75">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -17213,7 +17208,7 @@
       <c r="AE448" s="2"/>
       <c r="AF448" s="2"/>
     </row>
-    <row r="449" spans="1:32" ht="12.5">
+    <row r="449" spans="1:32" ht="12.75">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -17247,7 +17242,7 @@
       <c r="AE449" s="2"/>
       <c r="AF449" s="2"/>
     </row>
-    <row r="450" spans="1:32" ht="12.5">
+    <row r="450" spans="1:32" ht="12.75">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -17281,7 +17276,7 @@
       <c r="AE450" s="2"/>
       <c r="AF450" s="2"/>
     </row>
-    <row r="451" spans="1:32" ht="12.5">
+    <row r="451" spans="1:32" ht="12.75">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -17315,7 +17310,7 @@
       <c r="AE451" s="2"/>
       <c r="AF451" s="2"/>
     </row>
-    <row r="452" spans="1:32" ht="12.5">
+    <row r="452" spans="1:32" ht="12.75">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -17349,7 +17344,7 @@
       <c r="AE452" s="2"/>
       <c r="AF452" s="2"/>
     </row>
-    <row r="453" spans="1:32" ht="12.5">
+    <row r="453" spans="1:32" ht="12.75">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -17383,7 +17378,7 @@
       <c r="AE453" s="2"/>
       <c r="AF453" s="2"/>
     </row>
-    <row r="454" spans="1:32" ht="12.5">
+    <row r="454" spans="1:32" ht="12.75">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -17417,7 +17412,7 @@
       <c r="AE454" s="2"/>
       <c r="AF454" s="2"/>
     </row>
-    <row r="455" spans="1:32" ht="12.5">
+    <row r="455" spans="1:32" ht="12.75">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -17451,7 +17446,7 @@
       <c r="AE455" s="2"/>
       <c r="AF455" s="2"/>
     </row>
-    <row r="456" spans="1:32" ht="12.5">
+    <row r="456" spans="1:32" ht="12.75">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -17485,7 +17480,7 @@
       <c r="AE456" s="2"/>
       <c r="AF456" s="2"/>
     </row>
-    <row r="457" spans="1:32" ht="12.5">
+    <row r="457" spans="1:32" ht="12.75">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -17519,7 +17514,7 @@
       <c r="AE457" s="2"/>
       <c r="AF457" s="2"/>
     </row>
-    <row r="458" spans="1:32" ht="12.5">
+    <row r="458" spans="1:32" ht="12.75">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -17553,7 +17548,7 @@
       <c r="AE458" s="2"/>
       <c r="AF458" s="2"/>
     </row>
-    <row r="459" spans="1:32" ht="12.5">
+    <row r="459" spans="1:32" ht="12.75">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -17587,7 +17582,7 @@
       <c r="AE459" s="2"/>
       <c r="AF459" s="2"/>
     </row>
-    <row r="460" spans="1:32" ht="12.5">
+    <row r="460" spans="1:32" ht="12.75">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -17621,7 +17616,7 @@
       <c r="AE460" s="2"/>
       <c r="AF460" s="2"/>
     </row>
-    <row r="461" spans="1:32" ht="12.5">
+    <row r="461" spans="1:32" ht="12.75">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -17655,7 +17650,7 @@
       <c r="AE461" s="2"/>
       <c r="AF461" s="2"/>
     </row>
-    <row r="462" spans="1:32" ht="12.5">
+    <row r="462" spans="1:32" ht="12.75">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -17689,7 +17684,7 @@
       <c r="AE462" s="2"/>
       <c r="AF462" s="2"/>
     </row>
-    <row r="463" spans="1:32" ht="12.5">
+    <row r="463" spans="1:32" ht="12.75">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -17723,7 +17718,7 @@
       <c r="AE463" s="2"/>
       <c r="AF463" s="2"/>
     </row>
-    <row r="464" spans="1:32" ht="12.5">
+    <row r="464" spans="1:32" ht="12.75">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -17757,7 +17752,7 @@
       <c r="AE464" s="2"/>
       <c r="AF464" s="2"/>
     </row>
-    <row r="465" spans="1:32" ht="12.5">
+    <row r="465" spans="1:32" ht="12.75">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -17791,7 +17786,7 @@
       <c r="AE465" s="2"/>
       <c r="AF465" s="2"/>
     </row>
-    <row r="466" spans="1:32" ht="12.5">
+    <row r="466" spans="1:32" ht="12.75">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -17825,7 +17820,7 @@
       <c r="AE466" s="2"/>
       <c r="AF466" s="2"/>
     </row>
-    <row r="467" spans="1:32" ht="12.5">
+    <row r="467" spans="1:32" ht="12.75">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -17859,7 +17854,7 @@
       <c r="AE467" s="2"/>
       <c r="AF467" s="2"/>
     </row>
-    <row r="468" spans="1:32" ht="12.5">
+    <row r="468" spans="1:32" ht="12.75">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -17893,7 +17888,7 @@
       <c r="AE468" s="2"/>
       <c r="AF468" s="2"/>
     </row>
-    <row r="469" spans="1:32" ht="12.5">
+    <row r="469" spans="1:32" ht="12.75">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -17927,7 +17922,7 @@
       <c r="AE469" s="2"/>
       <c r="AF469" s="2"/>
     </row>
-    <row r="470" spans="1:32" ht="12.5">
+    <row r="470" spans="1:32" ht="12.75">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -17961,7 +17956,7 @@
       <c r="AE470" s="2"/>
       <c r="AF470" s="2"/>
     </row>
-    <row r="471" spans="1:32" ht="12.5">
+    <row r="471" spans="1:32" ht="12.75">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -17995,7 +17990,7 @@
       <c r="AE471" s="2"/>
       <c r="AF471" s="2"/>
     </row>
-    <row r="472" spans="1:32" ht="12.5">
+    <row r="472" spans="1:32" ht="12.75">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -18029,7 +18024,7 @@
       <c r="AE472" s="2"/>
       <c r="AF472" s="2"/>
     </row>
-    <row r="473" spans="1:32" ht="12.5">
+    <row r="473" spans="1:32" ht="12.75">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -18063,7 +18058,7 @@
       <c r="AE473" s="2"/>
       <c r="AF473" s="2"/>
     </row>
-    <row r="474" spans="1:32" ht="12.5">
+    <row r="474" spans="1:32" ht="12.75">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -18097,7 +18092,7 @@
       <c r="AE474" s="2"/>
       <c r="AF474" s="2"/>
     </row>
-    <row r="475" spans="1:32" ht="12.5">
+    <row r="475" spans="1:32" ht="12.75">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -18131,7 +18126,7 @@
       <c r="AE475" s="2"/>
       <c r="AF475" s="2"/>
     </row>
-    <row r="476" spans="1:32" ht="12.5">
+    <row r="476" spans="1:32" ht="12.75">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -18165,7 +18160,7 @@
       <c r="AE476" s="2"/>
       <c r="AF476" s="2"/>
     </row>
-    <row r="477" spans="1:32" ht="12.5">
+    <row r="477" spans="1:32" ht="12.75">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -18199,7 +18194,7 @@
       <c r="AE477" s="2"/>
       <c r="AF477" s="2"/>
     </row>
-    <row r="478" spans="1:32" ht="12.5">
+    <row r="478" spans="1:32" ht="12.75">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -18233,7 +18228,7 @@
       <c r="AE478" s="2"/>
       <c r="AF478" s="2"/>
     </row>
-    <row r="479" spans="1:32" ht="12.5">
+    <row r="479" spans="1:32" ht="12.75">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -18267,7 +18262,7 @@
       <c r="AE479" s="2"/>
       <c r="AF479" s="2"/>
     </row>
-    <row r="480" spans="1:32" ht="12.5">
+    <row r="480" spans="1:32" ht="12.75">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -18301,7 +18296,7 @@
       <c r="AE480" s="2"/>
       <c r="AF480" s="2"/>
     </row>
-    <row r="481" spans="1:32" ht="12.5">
+    <row r="481" spans="1:32" ht="12.75">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -18335,7 +18330,7 @@
       <c r="AE481" s="2"/>
       <c r="AF481" s="2"/>
     </row>
-    <row r="482" spans="1:32" ht="12.5">
+    <row r="482" spans="1:32" ht="12.75">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -18369,7 +18364,7 @@
       <c r="AE482" s="2"/>
       <c r="AF482" s="2"/>
     </row>
-    <row r="483" spans="1:32" ht="12.5">
+    <row r="483" spans="1:32" ht="12.75">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -18403,7 +18398,7 @@
       <c r="AE483" s="2"/>
       <c r="AF483" s="2"/>
     </row>
-    <row r="484" spans="1:32" ht="12.5">
+    <row r="484" spans="1:32" ht="12.75">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -18437,7 +18432,7 @@
       <c r="AE484" s="2"/>
       <c r="AF484" s="2"/>
     </row>
-    <row r="485" spans="1:32" ht="12.5">
+    <row r="485" spans="1:32" ht="12.75">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -18471,7 +18466,7 @@
       <c r="AE485" s="2"/>
       <c r="AF485" s="2"/>
     </row>
-    <row r="486" spans="1:32" ht="12.5">
+    <row r="486" spans="1:32" ht="12.75">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -18505,7 +18500,7 @@
       <c r="AE486" s="2"/>
       <c r="AF486" s="2"/>
     </row>
-    <row r="487" spans="1:32" ht="12.5">
+    <row r="487" spans="1:32" ht="12.75">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -18539,7 +18534,7 @@
       <c r="AE487" s="2"/>
       <c r="AF487" s="2"/>
     </row>
-    <row r="488" spans="1:32" ht="12.5">
+    <row r="488" spans="1:32" ht="12.75">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -18573,7 +18568,7 @@
       <c r="AE488" s="2"/>
       <c r="AF488" s="2"/>
     </row>
-    <row r="489" spans="1:32" ht="12.5">
+    <row r="489" spans="1:32" ht="12.75">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -18607,7 +18602,7 @@
       <c r="AE489" s="2"/>
       <c r="AF489" s="2"/>
     </row>
-    <row r="490" spans="1:32" ht="12.5">
+    <row r="490" spans="1:32" ht="12.75">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -18641,7 +18636,7 @@
       <c r="AE490" s="2"/>
       <c r="AF490" s="2"/>
     </row>
-    <row r="491" spans="1:32" ht="12.5">
+    <row r="491" spans="1:32" ht="12.75">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -18675,7 +18670,7 @@
       <c r="AE491" s="2"/>
       <c r="AF491" s="2"/>
     </row>
-    <row r="492" spans="1:32" ht="12.5">
+    <row r="492" spans="1:32" ht="12.75">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -18709,7 +18704,7 @@
       <c r="AE492" s="2"/>
       <c r="AF492" s="2"/>
     </row>
-    <row r="493" spans="1:32" ht="12.5">
+    <row r="493" spans="1:32" ht="12.75">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -18743,7 +18738,7 @@
       <c r="AE493" s="2"/>
       <c r="AF493" s="2"/>
     </row>
-    <row r="494" spans="1:32" ht="12.5">
+    <row r="494" spans="1:32" ht="12.75">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -18777,7 +18772,7 @@
       <c r="AE494" s="2"/>
       <c r="AF494" s="2"/>
     </row>
-    <row r="495" spans="1:32" ht="12.5">
+    <row r="495" spans="1:32" ht="12.75">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -18811,7 +18806,7 @@
       <c r="AE495" s="2"/>
       <c r="AF495" s="2"/>
     </row>
-    <row r="496" spans="1:32" ht="12.5">
+    <row r="496" spans="1:32" ht="12.75">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -18845,7 +18840,7 @@
       <c r="AE496" s="2"/>
       <c r="AF496" s="2"/>
     </row>
-    <row r="497" spans="1:32" ht="12.5">
+    <row r="497" spans="1:32" ht="12.75">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -18879,7 +18874,7 @@
       <c r="AE497" s="2"/>
       <c r="AF497" s="2"/>
     </row>
-    <row r="498" spans="1:32" ht="12.5">
+    <row r="498" spans="1:32" ht="12.75">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -18913,7 +18908,7 @@
       <c r="AE498" s="2"/>
       <c r="AF498" s="2"/>
     </row>
-    <row r="499" spans="1:32" ht="12.5">
+    <row r="499" spans="1:32" ht="12.75">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -18947,7 +18942,7 @@
       <c r="AE499" s="2"/>
       <c r="AF499" s="2"/>
     </row>
-    <row r="500" spans="1:32" ht="12.5">
+    <row r="500" spans="1:32" ht="12.75">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -18981,7 +18976,7 @@
       <c r="AE500" s="2"/>
       <c r="AF500" s="2"/>
     </row>
-    <row r="501" spans="1:32" ht="12.5">
+    <row r="501" spans="1:32" ht="12.75">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -19015,7 +19010,7 @@
       <c r="AE501" s="2"/>
       <c r="AF501" s="2"/>
     </row>
-    <row r="502" spans="1:32" ht="12.5">
+    <row r="502" spans="1:32" ht="12.75">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -19049,7 +19044,7 @@
       <c r="AE502" s="2"/>
       <c r="AF502" s="2"/>
     </row>
-    <row r="503" spans="1:32" ht="12.5">
+    <row r="503" spans="1:32" ht="12.75">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -19083,7 +19078,7 @@
       <c r="AE503" s="2"/>
       <c r="AF503" s="2"/>
     </row>
-    <row r="504" spans="1:32" ht="12.5">
+    <row r="504" spans="1:32" ht="12.75">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -19117,7 +19112,7 @@
       <c r="AE504" s="2"/>
       <c r="AF504" s="2"/>
     </row>
-    <row r="505" spans="1:32" ht="12.5">
+    <row r="505" spans="1:32" ht="12.75">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -19151,7 +19146,7 @@
       <c r="AE505" s="2"/>
       <c r="AF505" s="2"/>
     </row>
-    <row r="506" spans="1:32" ht="12.5">
+    <row r="506" spans="1:32" ht="12.75">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -19185,7 +19180,7 @@
       <c r="AE506" s="2"/>
       <c r="AF506" s="2"/>
     </row>
-    <row r="507" spans="1:32" ht="12.5">
+    <row r="507" spans="1:32" ht="12.75">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -19219,7 +19214,7 @@
       <c r="AE507" s="2"/>
       <c r="AF507" s="2"/>
     </row>
-    <row r="508" spans="1:32" ht="12.5">
+    <row r="508" spans="1:32" ht="12.75">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -19253,7 +19248,7 @@
       <c r="AE508" s="2"/>
       <c r="AF508" s="2"/>
     </row>
-    <row r="509" spans="1:32" ht="12.5">
+    <row r="509" spans="1:32" ht="12.75">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -19287,7 +19282,7 @@
       <c r="AE509" s="2"/>
       <c r="AF509" s="2"/>
     </row>
-    <row r="510" spans="1:32" ht="12.5">
+    <row r="510" spans="1:32" ht="12.75">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -19321,7 +19316,7 @@
       <c r="AE510" s="2"/>
       <c r="AF510" s="2"/>
     </row>
-    <row r="511" spans="1:32" ht="12.5">
+    <row r="511" spans="1:32" ht="12.75">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -19355,7 +19350,7 @@
       <c r="AE511" s="2"/>
       <c r="AF511" s="2"/>
     </row>
-    <row r="512" spans="1:32" ht="12.5">
+    <row r="512" spans="1:32" ht="12.75">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -19389,7 +19384,7 @@
       <c r="AE512" s="2"/>
       <c r="AF512" s="2"/>
     </row>
-    <row r="513" spans="1:32" ht="12.5">
+    <row r="513" spans="1:32" ht="12.75">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -19423,7 +19418,7 @@
       <c r="AE513" s="2"/>
       <c r="AF513" s="2"/>
     </row>
-    <row r="514" spans="1:32" ht="12.5">
+    <row r="514" spans="1:32" ht="12.75">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -19457,7 +19452,7 @@
       <c r="AE514" s="2"/>
       <c r="AF514" s="2"/>
     </row>
-    <row r="515" spans="1:32" ht="12.5">
+    <row r="515" spans="1:32" ht="12.75">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -19491,7 +19486,7 @@
       <c r="AE515" s="2"/>
       <c r="AF515" s="2"/>
     </row>
-    <row r="516" spans="1:32" ht="12.5">
+    <row r="516" spans="1:32" ht="12.75">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -19525,7 +19520,7 @@
       <c r="AE516" s="2"/>
       <c r="AF516" s="2"/>
     </row>
-    <row r="517" spans="1:32" ht="12.5">
+    <row r="517" spans="1:32" ht="12.75">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -19559,7 +19554,7 @@
       <c r="AE517" s="2"/>
       <c r="AF517" s="2"/>
     </row>
-    <row r="518" spans="1:32" ht="12.5">
+    <row r="518" spans="1:32" ht="12.75">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -19593,7 +19588,7 @@
       <c r="AE518" s="2"/>
       <c r="AF518" s="2"/>
     </row>
-    <row r="519" spans="1:32" ht="12.5">
+    <row r="519" spans="1:32" ht="12.75">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -19627,7 +19622,7 @@
       <c r="AE519" s="2"/>
       <c r="AF519" s="2"/>
     </row>
-    <row r="520" spans="1:32" ht="12.5">
+    <row r="520" spans="1:32" ht="12.75">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -19661,7 +19656,7 @@
       <c r="AE520" s="2"/>
       <c r="AF520" s="2"/>
     </row>
-    <row r="521" spans="1:32" ht="12.5">
+    <row r="521" spans="1:32" ht="12.75">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -19695,7 +19690,7 @@
       <c r="AE521" s="2"/>
       <c r="AF521" s="2"/>
     </row>
-    <row r="522" spans="1:32" ht="12.5">
+    <row r="522" spans="1:32" ht="12.75">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -19729,7 +19724,7 @@
       <c r="AE522" s="2"/>
       <c r="AF522" s="2"/>
     </row>
-    <row r="523" spans="1:32" ht="12.5">
+    <row r="523" spans="1:32" ht="12.75">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -19763,7 +19758,7 @@
       <c r="AE523" s="2"/>
       <c r="AF523" s="2"/>
     </row>
-    <row r="524" spans="1:32" ht="12.5">
+    <row r="524" spans="1:32" ht="12.75">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -19797,7 +19792,7 @@
       <c r="AE524" s="2"/>
       <c r="AF524" s="2"/>
     </row>
-    <row r="525" spans="1:32" ht="12.5">
+    <row r="525" spans="1:32" ht="12.75">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -19831,7 +19826,7 @@
       <c r="AE525" s="2"/>
       <c r="AF525" s="2"/>
     </row>
-    <row r="526" spans="1:32" ht="12.5">
+    <row r="526" spans="1:32" ht="12.75">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -19865,7 +19860,7 @@
       <c r="AE526" s="2"/>
       <c r="AF526" s="2"/>
     </row>
-    <row r="527" spans="1:32" ht="12.5">
+    <row r="527" spans="1:32" ht="12.75">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -19899,7 +19894,7 @@
       <c r="AE527" s="2"/>
       <c r="AF527" s="2"/>
     </row>
-    <row r="528" spans="1:32" ht="12.5">
+    <row r="528" spans="1:32" ht="12.75">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -19933,7 +19928,7 @@
       <c r="AE528" s="2"/>
       <c r="AF528" s="2"/>
     </row>
-    <row r="529" spans="1:32" ht="12.5">
+    <row r="529" spans="1:32" ht="12.75">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -19967,7 +19962,7 @@
       <c r="AE529" s="2"/>
       <c r="AF529" s="2"/>
     </row>
-    <row r="530" spans="1:32" ht="12.5">
+    <row r="530" spans="1:32" ht="12.75">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -20001,7 +19996,7 @@
       <c r="AE530" s="2"/>
       <c r="AF530" s="2"/>
     </row>
-    <row r="531" spans="1:32" ht="12.5">
+    <row r="531" spans="1:32" ht="12.75">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -20035,7 +20030,7 @@
       <c r="AE531" s="2"/>
       <c r="AF531" s="2"/>
     </row>
-    <row r="532" spans="1:32" ht="12.5">
+    <row r="532" spans="1:32" ht="12.75">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -20069,7 +20064,7 @@
       <c r="AE532" s="2"/>
       <c r="AF532" s="2"/>
     </row>
-    <row r="533" spans="1:32" ht="12.5">
+    <row r="533" spans="1:32" ht="12.75">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -20103,7 +20098,7 @@
       <c r="AE533" s="2"/>
       <c r="AF533" s="2"/>
     </row>
-    <row r="534" spans="1:32" ht="12.5">
+    <row r="534" spans="1:32" ht="12.75">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -20137,7 +20132,7 @@
       <c r="AE534" s="2"/>
       <c r="AF534" s="2"/>
     </row>
-    <row r="535" spans="1:32" ht="12.5">
+    <row r="535" spans="1:32" ht="12.75">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -20171,7 +20166,7 @@
       <c r="AE535" s="2"/>
       <c r="AF535" s="2"/>
     </row>
-    <row r="536" spans="1:32" ht="12.5">
+    <row r="536" spans="1:32" ht="12.75">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -20205,7 +20200,7 @@
       <c r="AE536" s="2"/>
       <c r="AF536" s="2"/>
     </row>
-    <row r="537" spans="1:32" ht="12.5">
+    <row r="537" spans="1:32" ht="12.75">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -20239,7 +20234,7 @@
       <c r="AE537" s="2"/>
       <c r="AF537" s="2"/>
     </row>
-    <row r="538" spans="1:32" ht="12.5">
+    <row r="538" spans="1:32" ht="12.75">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -20273,7 +20268,7 @@
       <c r="AE538" s="2"/>
       <c r="AF538" s="2"/>
     </row>
-    <row r="539" spans="1:32" ht="12.5">
+    <row r="539" spans="1:32" ht="12.75">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -20307,7 +20302,7 @@
       <c r="AE539" s="2"/>
       <c r="AF539" s="2"/>
     </row>
-    <row r="540" spans="1:32" ht="12.5">
+    <row r="540" spans="1:32" ht="12.75">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -20341,7 +20336,7 @@
       <c r="AE540" s="2"/>
       <c r="AF540" s="2"/>
     </row>
-    <row r="541" spans="1:32" ht="12.5">
+    <row r="541" spans="1:32" ht="12.75">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -20375,7 +20370,7 @@
       <c r="AE541" s="2"/>
       <c r="AF541" s="2"/>
     </row>
-    <row r="542" spans="1:32" ht="12.5">
+    <row r="542" spans="1:32" ht="12.75">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -20409,7 +20404,7 @@
       <c r="AE542" s="2"/>
       <c r="AF542" s="2"/>
     </row>
-    <row r="543" spans="1:32" ht="12.5">
+    <row r="543" spans="1:32" ht="12.75">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -20443,7 +20438,7 @@
       <c r="AE543" s="2"/>
       <c r="AF543" s="2"/>
     </row>
-    <row r="544" spans="1:32" ht="12.5">
+    <row r="544" spans="1:32" ht="12.75">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -20477,7 +20472,7 @@
       <c r="AE544" s="2"/>
       <c r="AF544" s="2"/>
     </row>
-    <row r="545" spans="1:32" ht="12.5">
+    <row r="545" spans="1:32" ht="12.75">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -20511,7 +20506,7 @@
       <c r="AE545" s="2"/>
       <c r="AF545" s="2"/>
     </row>
-    <row r="546" spans="1:32" ht="12.5">
+    <row r="546" spans="1:32" ht="12.75">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -20545,7 +20540,7 @@
       <c r="AE546" s="2"/>
       <c r="AF546" s="2"/>
     </row>
-    <row r="547" spans="1:32" ht="12.5">
+    <row r="547" spans="1:32" ht="12.75">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -20579,7 +20574,7 @@
       <c r="AE547" s="2"/>
       <c r="AF547" s="2"/>
     </row>
-    <row r="548" spans="1:32" ht="12.5">
+    <row r="548" spans="1:32" ht="12.75">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -20613,7 +20608,7 @@
       <c r="AE548" s="2"/>
       <c r="AF548" s="2"/>
     </row>
-    <row r="549" spans="1:32" ht="12.5">
+    <row r="549" spans="1:32" ht="12.75">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -20647,7 +20642,7 @@
       <c r="AE549" s="2"/>
       <c r="AF549" s="2"/>
     </row>
-    <row r="550" spans="1:32" ht="12.5">
+    <row r="550" spans="1:32" ht="12.75">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -20681,7 +20676,7 @@
       <c r="AE550" s="2"/>
       <c r="AF550" s="2"/>
     </row>
-    <row r="551" spans="1:32" ht="12.5">
+    <row r="551" spans="1:32" ht="12.75">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -20715,7 +20710,7 @@
       <c r="AE551" s="2"/>
       <c r="AF551" s="2"/>
     </row>
-    <row r="552" spans="1:32" ht="12.5">
+    <row r="552" spans="1:32" ht="12.75">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -20749,7 +20744,7 @@
       <c r="AE552" s="2"/>
       <c r="AF552" s="2"/>
     </row>
-    <row r="553" spans="1:32" ht="12.5">
+    <row r="553" spans="1:32" ht="12.75">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -20783,7 +20778,7 @@
       <c r="AE553" s="2"/>
       <c r="AF553" s="2"/>
     </row>
-    <row r="554" spans="1:32" ht="12.5">
+    <row r="554" spans="1:32" ht="12.75">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -20817,7 +20812,7 @@
       <c r="AE554" s="2"/>
       <c r="AF554" s="2"/>
     </row>
-    <row r="555" spans="1:32" ht="12.5">
+    <row r="555" spans="1:32" ht="12.75">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -20851,7 +20846,7 @@
       <c r="AE555" s="2"/>
       <c r="AF555" s="2"/>
     </row>
-    <row r="556" spans="1:32" ht="12.5">
+    <row r="556" spans="1:32" ht="12.75">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -20885,7 +20880,7 @@
       <c r="AE556" s="2"/>
       <c r="AF556" s="2"/>
     </row>
-    <row r="557" spans="1:32" ht="12.5">
+    <row r="557" spans="1:32" ht="12.75">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -20919,7 +20914,7 @@
       <c r="AE557" s="2"/>
       <c r="AF557" s="2"/>
     </row>
-    <row r="558" spans="1:32" ht="12.5">
+    <row r="558" spans="1:32" ht="12.75">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -20953,7 +20948,7 @@
       <c r="AE558" s="2"/>
       <c r="AF558" s="2"/>
     </row>
-    <row r="559" spans="1:32" ht="12.5">
+    <row r="559" spans="1:32" ht="12.75">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -20987,7 +20982,7 @@
       <c r="AE559" s="2"/>
       <c r="AF559" s="2"/>
     </row>
-    <row r="560" spans="1:32" ht="12.5">
+    <row r="560" spans="1:32" ht="12.75">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -21021,7 +21016,7 @@
       <c r="AE560" s="2"/>
       <c r="AF560" s="2"/>
     </row>
-    <row r="561" spans="1:32" ht="12.5">
+    <row r="561" spans="1:32" ht="12.75">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -21055,7 +21050,7 @@
       <c r="AE561" s="2"/>
       <c r="AF561" s="2"/>
     </row>
-    <row r="562" spans="1:32" ht="12.5">
+    <row r="562" spans="1:32" ht="12.75">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -21089,7 +21084,7 @@
       <c r="AE562" s="2"/>
       <c r="AF562" s="2"/>
     </row>
-    <row r="563" spans="1:32" ht="12.5">
+    <row r="563" spans="1:32" ht="12.75">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -21123,7 +21118,7 @@
       <c r="AE563" s="2"/>
       <c r="AF563" s="2"/>
     </row>
-    <row r="564" spans="1:32" ht="12.5">
+    <row r="564" spans="1:32" ht="12.75">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -21157,7 +21152,7 @@
       <c r="AE564" s="2"/>
       <c r="AF564" s="2"/>
     </row>
-    <row r="565" spans="1:32" ht="12.5">
+    <row r="565" spans="1:32" ht="12.75">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -21191,7 +21186,7 @@
       <c r="AE565" s="2"/>
       <c r="AF565" s="2"/>
     </row>
-    <row r="566" spans="1:32" ht="12.5">
+    <row r="566" spans="1:32" ht="12.75">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -21225,7 +21220,7 @@
       <c r="AE566" s="2"/>
       <c r="AF566" s="2"/>
     </row>
-    <row r="567" spans="1:32" ht="12.5">
+    <row r="567" spans="1:32" ht="12.75">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -21259,7 +21254,7 @@
       <c r="AE567" s="2"/>
       <c r="AF567" s="2"/>
     </row>
-    <row r="568" spans="1:32" ht="12.5">
+    <row r="568" spans="1:32" ht="12.75">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -21293,7 +21288,7 @@
       <c r="AE568" s="2"/>
       <c r="AF568" s="2"/>
     </row>
-    <row r="569" spans="1:32" ht="12.5">
+    <row r="569" spans="1:32" ht="12.75">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -21327,7 +21322,7 @@
       <c r="AE569" s="2"/>
       <c r="AF569" s="2"/>
     </row>
-    <row r="570" spans="1:32" ht="12.5">
+    <row r="570" spans="1:32" ht="12.75">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -21361,7 +21356,7 @@
       <c r="AE570" s="2"/>
       <c r="AF570" s="2"/>
     </row>
-    <row r="571" spans="1:32" ht="12.5">
+    <row r="571" spans="1:32" ht="12.75">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -21395,7 +21390,7 @@
       <c r="AE571" s="2"/>
       <c r="AF571" s="2"/>
     </row>
-    <row r="572" spans="1:32" ht="12.5">
+    <row r="572" spans="1:32" ht="12.75">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -21429,7 +21424,7 @@
       <c r="AE572" s="2"/>
       <c r="AF572" s="2"/>
     </row>
-    <row r="573" spans="1:32" ht="12.5">
+    <row r="573" spans="1:32" ht="12.75">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -21463,7 +21458,7 @@
       <c r="AE573" s="2"/>
       <c r="AF573" s="2"/>
     </row>
-    <row r="574" spans="1:32" ht="12.5">
+    <row r="574" spans="1:32" ht="12.75">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -21497,7 +21492,7 @@
       <c r="AE574" s="2"/>
       <c r="AF574" s="2"/>
     </row>
-    <row r="575" spans="1:32" ht="12.5">
+    <row r="575" spans="1:32" ht="12.75">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -21531,7 +21526,7 @@
       <c r="AE575" s="2"/>
       <c r="AF575" s="2"/>
     </row>
-    <row r="576" spans="1:32" ht="12.5">
+    <row r="576" spans="1:32" ht="12.75">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -21565,7 +21560,7 @@
       <c r="AE576" s="2"/>
       <c r="AF576" s="2"/>
     </row>
-    <row r="577" spans="1:32" ht="12.5">
+    <row r="577" spans="1:32" ht="12.75">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -21599,7 +21594,7 @@
       <c r="AE577" s="2"/>
       <c r="AF577" s="2"/>
     </row>
-    <row r="578" spans="1:32" ht="12.5">
+    <row r="578" spans="1:32" ht="12.75">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -21633,7 +21628,7 @@
       <c r="AE578" s="2"/>
       <c r="AF578" s="2"/>
     </row>
-    <row r="579" spans="1:32" ht="12.5">
+    <row r="579" spans="1:32" ht="12.75">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -21667,7 +21662,7 @@
       <c r="AE579" s="2"/>
       <c r="AF579" s="2"/>
     </row>
-    <row r="580" spans="1:32" ht="12.5">
+    <row r="580" spans="1:32" ht="12.75">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -21701,7 +21696,7 @@
       <c r="AE580" s="2"/>
       <c r="AF580" s="2"/>
     </row>
-    <row r="581" spans="1:32" ht="12.5">
+    <row r="581" spans="1:32" ht="12.75">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -21735,7 +21730,7 @@
       <c r="AE581" s="2"/>
       <c r="AF581" s="2"/>
     </row>
-    <row r="582" spans="1:32" ht="12.5">
+    <row r="582" spans="1:32" ht="12.75">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -21769,7 +21764,7 @@
       <c r="AE582" s="2"/>
       <c r="AF582" s="2"/>
     </row>
-    <row r="583" spans="1:32" ht="12.5">
+    <row r="583" spans="1:32" ht="12.75">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -21803,7 +21798,7 @@
       <c r="AE583" s="2"/>
       <c r="AF583" s="2"/>
     </row>
-    <row r="584" spans="1:32" ht="12.5">
+    <row r="584" spans="1:32" ht="12.75">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -21837,7 +21832,7 @@
       <c r="AE584" s="2"/>
       <c r="AF584" s="2"/>
     </row>
-    <row r="585" spans="1:32" ht="12.5">
+    <row r="585" spans="1:32" ht="12.75">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -21871,7 +21866,7 @@
       <c r="AE585" s="2"/>
       <c r="AF585" s="2"/>
     </row>
-    <row r="586" spans="1:32" ht="12.5">
+    <row r="586" spans="1:32" ht="12.75">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -21905,7 +21900,7 @@
       <c r="AE586" s="2"/>
       <c r="AF586" s="2"/>
     </row>
-    <row r="587" spans="1:32" ht="12.5">
+    <row r="587" spans="1:32" ht="12.75">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -21939,7 +21934,7 @@
       <c r="AE587" s="2"/>
       <c r="AF587" s="2"/>
     </row>
-    <row r="588" spans="1:32" ht="12.5">
+    <row r="588" spans="1:32" ht="12.75">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -21973,7 +21968,7 @@
       <c r="AE588" s="2"/>
       <c r="AF588" s="2"/>
     </row>
-    <row r="589" spans="1:32" ht="12.5">
+    <row r="589" spans="1:32" ht="12.75">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -22007,7 +22002,7 @@
       <c r="AE589" s="2"/>
       <c r="AF589" s="2"/>
     </row>
-    <row r="590" spans="1:32" ht="12.5">
+    <row r="590" spans="1:32" ht="12.75">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -22041,7 +22036,7 @@
       <c r="AE590" s="2"/>
       <c r="AF590" s="2"/>
     </row>
-    <row r="591" spans="1:32" ht="12.5">
+    <row r="591" spans="1:32" ht="12.75">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -22075,7 +22070,7 @@
       <c r="AE591" s="2"/>
       <c r="AF591" s="2"/>
     </row>
-    <row r="592" spans="1:32" ht="12.5">
+    <row r="592" spans="1:32" ht="12.75">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -22109,7 +22104,7 @@
       <c r="AE592" s="2"/>
       <c r="AF592" s="2"/>
     </row>
-    <row r="593" spans="1:32" ht="12.5">
+    <row r="593" spans="1:32" ht="12.75">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -22143,7 +22138,7 @@
       <c r="AE593" s="2"/>
       <c r="AF593" s="2"/>
     </row>
-    <row r="594" spans="1:32" ht="12.5">
+    <row r="594" spans="1:32" ht="12.75">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -22177,7 +22172,7 @@
       <c r="AE594" s="2"/>
       <c r="AF594" s="2"/>
     </row>
-    <row r="595" spans="1:32" ht="12.5">
+    <row r="595" spans="1:32" ht="12.75">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -22211,7 +22206,7 @@
       <c r="AE595" s="2"/>
       <c r="AF595" s="2"/>
     </row>
-    <row r="596" spans="1:32" ht="12.5">
+    <row r="596" spans="1:32" ht="12.75">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -22245,7 +22240,7 @@
       <c r="AE596" s="2"/>
       <c r="AF596" s="2"/>
     </row>
-    <row r="597" spans="1:32" ht="12.5">
+    <row r="597" spans="1:32" ht="12.75">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -22279,7 +22274,7 @@
       <c r="AE597" s="2"/>
       <c r="AF597" s="2"/>
     </row>
-    <row r="598" spans="1:32" ht="12.5">
+    <row r="598" spans="1:32" ht="12.75">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -22313,7 +22308,7 @@
       <c r="AE598" s="2"/>
       <c r="AF598" s="2"/>
     </row>
-    <row r="599" spans="1:32" ht="12.5">
+    <row r="599" spans="1:32" ht="12.75">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -22347,7 +22342,7 @@
       <c r="AE599" s="2"/>
       <c r="AF599" s="2"/>
     </row>
-    <row r="600" spans="1:32" ht="12.5">
+    <row r="600" spans="1:32" ht="12.75">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -22381,7 +22376,7 @@
       <c r="AE600" s="2"/>
       <c r="AF600" s="2"/>
     </row>
-    <row r="601" spans="1:32" ht="12.5">
+    <row r="601" spans="1:32" ht="12.75">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -22415,7 +22410,7 @@
       <c r="AE601" s="2"/>
       <c r="AF601" s="2"/>
     </row>
-    <row r="602" spans="1:32" ht="12.5">
+    <row r="602" spans="1:32" ht="12.75">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -22449,7 +22444,7 @@
       <c r="AE602" s="2"/>
       <c r="AF602" s="2"/>
     </row>
-    <row r="603" spans="1:32" ht="12.5">
+    <row r="603" spans="1:32" ht="12.75">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -22483,7 +22478,7 @@
       <c r="AE603" s="2"/>
       <c r="AF603" s="2"/>
     </row>
-    <row r="604" spans="1:32" ht="12.5">
+    <row r="604" spans="1:32" ht="12.75">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -22517,7 +22512,7 @@
       <c r="AE604" s="2"/>
       <c r="AF604" s="2"/>
     </row>
-    <row r="605" spans="1:32" ht="12.5">
+    <row r="605" spans="1:32" ht="12.75">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -22551,7 +22546,7 @@
       <c r="AE605" s="2"/>
       <c r="AF605" s="2"/>
     </row>
-    <row r="606" spans="1:32" ht="12.5">
+    <row r="606" spans="1:32" ht="12.75">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -22585,7 +22580,7 @@
       <c r="AE606" s="2"/>
       <c r="AF606" s="2"/>
     </row>
-    <row r="607" spans="1:32" ht="12.5">
+    <row r="607" spans="1:32" ht="12.75">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -22619,7 +22614,7 @@
       <c r="AE607" s="2"/>
       <c r="AF607" s="2"/>
     </row>
-    <row r="608" spans="1:32" ht="12.5">
+    <row r="608" spans="1:32" ht="12.75">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -22653,7 +22648,7 @@
       <c r="AE608" s="2"/>
       <c r="AF608" s="2"/>
     </row>
-    <row r="609" spans="1:32" ht="12.5">
+    <row r="609" spans="1:32" ht="12.75">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -22687,7 +22682,7 @@
       <c r="AE609" s="2"/>
       <c r="AF609" s="2"/>
     </row>
-    <row r="610" spans="1:32" ht="12.5">
+    <row r="610" spans="1:32" ht="12.75">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -22721,7 +22716,7 @@
       <c r="AE610" s="2"/>
       <c r="AF610" s="2"/>
     </row>
-    <row r="611" spans="1:32" ht="12.5">
+    <row r="611" spans="1:32" ht="12.75">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -22755,7 +22750,7 @@
       <c r="AE611" s="2"/>
       <c r="AF611" s="2"/>
     </row>
-    <row r="612" spans="1:32" ht="12.5">
+    <row r="612" spans="1:32" ht="12.75">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -22789,7 +22784,7 @@
       <c r="AE612" s="2"/>
       <c r="AF612" s="2"/>
     </row>
-    <row r="613" spans="1:32" ht="12.5">
+    <row r="613" spans="1:32" ht="12.75">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -22823,7 +22818,7 @@
       <c r="AE613" s="2"/>
       <c r="AF613" s="2"/>
     </row>
-    <row r="614" spans="1:32" ht="12.5">
+    <row r="614" spans="1:32" ht="12.75">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -22857,7 +22852,7 @@
       <c r="AE614" s="2"/>
       <c r="AF614" s="2"/>
     </row>
-    <row r="615" spans="1:32" ht="12.5">
+    <row r="615" spans="1:32" ht="12.75">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -22891,7 +22886,7 @@
       <c r="AE615" s="2"/>
       <c r="AF615" s="2"/>
     </row>
-    <row r="616" spans="1:32" ht="12.5">
+    <row r="616" spans="1:32" ht="12.75">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -22925,7 +22920,7 @@
       <c r="AE616" s="2"/>
       <c r="AF616" s="2"/>
     </row>
-    <row r="617" spans="1:32" ht="12.5">
+    <row r="617" spans="1:32" ht="12.75">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -22959,7 +22954,7 @@
       <c r="AE617" s="2"/>
       <c r="AF617" s="2"/>
     </row>
-    <row r="618" spans="1:32" ht="12.5">
+    <row r="618" spans="1:32" ht="12.75">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -22993,7 +22988,7 @@
       <c r="AE618" s="2"/>
       <c r="AF618" s="2"/>
     </row>
-    <row r="619" spans="1:32" ht="12.5">
+    <row r="619" spans="1:32" ht="12.75">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -23027,7 +23022,7 @@
       <c r="AE619" s="2"/>
       <c r="AF619" s="2"/>
     </row>
-    <row r="620" spans="1:32" ht="12.5">
+    <row r="620" spans="1:32" ht="12.75">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -23061,7 +23056,7 @@
       <c r="AE620" s="2"/>
       <c r="AF620" s="2"/>
     </row>
-    <row r="621" spans="1:32" ht="12.5">
+    <row r="621" spans="1:32" ht="12.75">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -23095,7 +23090,7 @@
       <c r="AE621" s="2"/>
       <c r="AF621" s="2"/>
     </row>
-    <row r="622" spans="1:32" ht="12.5">
+    <row r="622" spans="1:32" ht="12.75">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -23129,7 +23124,7 @@
       <c r="AE622" s="2"/>
       <c r="AF622" s="2"/>
     </row>
-    <row r="623" spans="1:32" ht="12.5">
+    <row r="623" spans="1:32" ht="12.75">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -23163,7 +23158,7 @@
       <c r="AE623" s="2"/>
       <c r="AF623" s="2"/>
     </row>
-    <row r="624" spans="1:32" ht="12.5">
+    <row r="624" spans="1:32" ht="12.75">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -23197,7 +23192,7 @@
       <c r="AE624" s="2"/>
       <c r="AF624" s="2"/>
     </row>
-    <row r="625" spans="1:32" ht="12.5">
+    <row r="625" spans="1:32" ht="12.75">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -23231,7 +23226,7 @@
       <c r="AE625" s="2"/>
       <c r="AF625" s="2"/>
     </row>
-    <row r="626" spans="1:32" ht="12.5">
+    <row r="626" spans="1:32" ht="12.75">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -23265,7 +23260,7 @@
       <c r="AE626" s="2"/>
       <c r="AF626" s="2"/>
     </row>
-    <row r="627" spans="1:32" ht="12.5">
+    <row r="627" spans="1:32" ht="12.75">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -23299,7 +23294,7 @@
       <c r="AE627" s="2"/>
       <c r="AF627" s="2"/>
     </row>
-    <row r="628" spans="1:32" ht="12.5">
+    <row r="628" spans="1:32" ht="12.75">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -23333,7 +23328,7 @@
       <c r="AE628" s="2"/>
       <c r="AF628" s="2"/>
     </row>
-    <row r="629" spans="1:32" ht="12.5">
+    <row r="629" spans="1:32" ht="12.75">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -23367,7 +23362,7 @@
       <c r="AE629" s="2"/>
       <c r="AF629" s="2"/>
     </row>
-    <row r="630" spans="1:32" ht="12.5">
+    <row r="630" spans="1:32" ht="12.75">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -23401,7 +23396,7 @@
       <c r="AE630" s="2"/>
       <c r="AF630" s="2"/>
     </row>
-    <row r="631" spans="1:32" ht="12.5">
+    <row r="631" spans="1:32" ht="12.75">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -23435,7 +23430,7 @@
       <c r="AE631" s="2"/>
       <c r="AF631" s="2"/>
     </row>
-    <row r="632" spans="1:32" ht="12.5">
+    <row r="632" spans="1:32" ht="12.75">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -23469,7 +23464,7 @@
       <c r="AE632" s="2"/>
       <c r="AF632" s="2"/>
     </row>
-    <row r="633" spans="1:32" ht="12.5">
+    <row r="633" spans="1:32" ht="12.75">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -23503,7 +23498,7 @@
       <c r="AE633" s="2"/>
       <c r="AF633" s="2"/>
     </row>
-    <row r="634" spans="1:32" ht="12.5">
+    <row r="634" spans="1:32" ht="12.75">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -23537,7 +23532,7 @@
       <c r="AE634" s="2"/>
       <c r="AF634" s="2"/>
     </row>
-    <row r="635" spans="1:32" ht="12.5">
+    <row r="635" spans="1:32" ht="12.75">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -23571,7 +23566,7 @@
       <c r="AE635" s="2"/>
       <c r="AF635" s="2"/>
     </row>
-    <row r="636" spans="1:32" ht="12.5">
+    <row r="636" spans="1:32" ht="12.75">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -23605,7 +23600,7 @@
       <c r="AE636" s="2"/>
       <c r="AF636" s="2"/>
     </row>
-    <row r="637" spans="1:32" ht="12.5">
+    <row r="637" spans="1:32" ht="12.75">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -23639,7 +23634,7 @@
       <c r="AE637" s="2"/>
       <c r="AF637" s="2"/>
     </row>
-    <row r="638" spans="1:32" ht="12.5">
+    <row r="638" spans="1:32" ht="12.75">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -23673,7 +23668,7 @@
       <c r="AE638" s="2"/>
       <c r="AF638" s="2"/>
     </row>
-    <row r="639" spans="1:32" ht="12.5">
+    <row r="639" spans="1:32" ht="12.75">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -23707,7 +23702,7 @@
       <c r="AE639" s="2"/>
       <c r="AF639" s="2"/>
     </row>
-    <row r="640" spans="1:32" ht="12.5">
+    <row r="640" spans="1:32" ht="12.75">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -23741,7 +23736,7 @@
       <c r="AE640" s="2"/>
       <c r="AF640" s="2"/>
     </row>
-    <row r="641" spans="1:32" ht="12.5">
+    <row r="641" spans="1:32" ht="12.75">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -23775,7 +23770,7 @@
       <c r="AE641" s="2"/>
       <c r="AF641" s="2"/>
     </row>
-    <row r="642" spans="1:32" ht="12.5">
+    <row r="642" spans="1:32" ht="12.75">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -23809,7 +23804,7 @@
       <c r="AE642" s="2"/>
       <c r="AF642" s="2"/>
     </row>
-    <row r="643" spans="1:32" ht="12.5">
+    <row r="643" spans="1:32" ht="12.75">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -23843,7 +23838,7 @@
       <c r="AE643" s="2"/>
       <c r="AF643" s="2"/>
     </row>
-    <row r="644" spans="1:32" ht="12.5">
+    <row r="644" spans="1:32" ht="12.75">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -23877,7 +23872,7 @@
       <c r="AE644" s="2"/>
       <c r="AF644" s="2"/>
     </row>
-    <row r="645" spans="1:32" ht="12.5">
+    <row r="645" spans="1:32" ht="12.75">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -23911,7 +23906,7 @@
       <c r="AE645" s="2"/>
       <c r="AF645" s="2"/>
     </row>
-    <row r="646" spans="1:32" ht="12.5">
+    <row r="646" spans="1:32" ht="12.75">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -23945,7 +23940,7 @@
       <c r="AE646" s="2"/>
       <c r="AF646" s="2"/>
     </row>
-    <row r="647" spans="1:32" ht="12.5">
+    <row r="647" spans="1:32" ht="12.75">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -23979,7 +23974,7 @@
       <c r="AE647" s="2"/>
       <c r="AF647" s="2"/>
     </row>
-    <row r="648" spans="1:32" ht="12.5">
+    <row r="648" spans="1:32" ht="12.75">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -24013,7 +24008,7 @@
       <c r="AE648" s="2"/>
       <c r="AF648" s="2"/>
     </row>
-    <row r="649" spans="1:32" ht="12.5">
+    <row r="649" spans="1:32" ht="12.75">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -24047,7 +24042,7 @@
       <c r="AE649" s="2"/>
       <c r="AF649" s="2"/>
     </row>
-    <row r="650" spans="1:32" ht="12.5">
+    <row r="650" spans="1:32" ht="12.75">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -24081,7 +24076,7 @@
       <c r="AE650" s="2"/>
       <c r="AF650" s="2"/>
     </row>
-    <row r="651" spans="1:32" ht="12.5">
+    <row r="651" spans="1:32" ht="12.75">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -24115,7 +24110,7 @@
       <c r="AE651" s="2"/>
       <c r="AF651" s="2"/>
     </row>
-    <row r="652" spans="1:32" ht="12.5">
+    <row r="652" spans="1:32" ht="12.75">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -24149,7 +24144,7 @@
       <c r="AE652" s="2"/>
       <c r="AF652" s="2"/>
     </row>
-    <row r="653" spans="1:32" ht="12.5">
+    <row r="653" spans="1:32" ht="12.75">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -24183,7 +24178,7 @@
       <c r="AE653" s="2"/>
       <c r="AF653" s="2"/>
     </row>
-    <row r="654" spans="1:32" ht="12.5">
+    <row r="654" spans="1:32" ht="12.75">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -24217,7 +24212,7 @@
       <c r="AE654" s="2"/>
       <c r="AF654" s="2"/>
     </row>
-    <row r="655" spans="1:32" ht="12.5">
+    <row r="655" spans="1:32" ht="12.75">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -24251,7 +24246,7 @@
       <c r="AE655" s="2"/>
       <c r="AF655" s="2"/>
     </row>
-    <row r="656" spans="1:32" ht="12.5">
+    <row r="656" spans="1:32" ht="12.75">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -24285,7 +24280,7 @@
       <c r="AE656" s="2"/>
       <c r="AF656" s="2"/>
     </row>
-    <row r="657" spans="1:32" ht="12.5">
+    <row r="657" spans="1:32" ht="12.75">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -24319,7 +24314,7 @@
       <c r="AE657" s="2"/>
       <c r="AF657" s="2"/>
     </row>
-    <row r="658" spans="1:32" ht="12.5">
+    <row r="658" spans="1:32" ht="12.75">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -24353,7 +24348,7 @@
       <c r="AE658" s="2"/>
       <c r="AF658" s="2"/>
     </row>
-    <row r="659" spans="1:32" ht="12.5">
+    <row r="659" spans="1:32" ht="12.75">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -24387,7 +24382,7 @@
       <c r="AE659" s="2"/>
       <c r="AF659" s="2"/>
     </row>
-    <row r="660" spans="1:32" ht="12.5">
+    <row r="660" spans="1:32" ht="12.75">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -24421,7 +24416,7 @@
       <c r="AE660" s="2"/>
       <c r="AF660" s="2"/>
     </row>
-    <row r="661" spans="1:32" ht="12.5">
+    <row r="661" spans="1:32" ht="12.75">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -24455,7 +24450,7 @@
       <c r="AE661" s="2"/>
       <c r="AF661" s="2"/>
     </row>
-    <row r="662" spans="1:32" ht="12.5">
+    <row r="662" spans="1:32" ht="12.75">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -24489,7 +24484,7 @@
       <c r="AE662" s="2"/>
       <c r="AF662" s="2"/>
     </row>
-    <row r="663" spans="1:32" ht="12.5">
+    <row r="663" spans="1:32" ht="12.75">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -24523,7 +24518,7 @@
       <c r="AE663" s="2"/>
       <c r="AF663" s="2"/>
     </row>
-    <row r="664" spans="1:32" ht="12.5">
+    <row r="664" spans="1:32" ht="12.75">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -24557,7 +24552,7 @@
       <c r="AE664" s="2"/>
       <c r="AF664" s="2"/>
     </row>
-    <row r="665" spans="1:32" ht="12.5">
+    <row r="665" spans="1:32" ht="12.75">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -24591,7 +24586,7 @@
       <c r="AE665" s="2"/>
       <c r="AF665" s="2"/>
     </row>
-    <row r="666" spans="1:32" ht="12.5">
+    <row r="666" spans="1:32" ht="12.75">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -24625,7 +24620,7 @@
       <c r="AE666" s="2"/>
       <c r="AF666" s="2"/>
     </row>
-    <row r="667" spans="1:32" ht="12.5">
+    <row r="667" spans="1:32" ht="12.75">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -24659,7 +24654,7 @@
       <c r="AE667" s="2"/>
       <c r="AF667" s="2"/>
     </row>
-    <row r="668" spans="1:32" ht="12.5">
+    <row r="668" spans="1:32" ht="12.75">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -24693,7 +24688,7 @@
       <c r="AE668" s="2"/>
       <c r="AF668" s="2"/>
     </row>
-    <row r="669" spans="1:32" ht="12.5">
+    <row r="669" spans="1:32" ht="12.75">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -24727,7 +24722,7 @@
       <c r="AE669" s="2"/>
       <c r="AF669" s="2"/>
     </row>
-    <row r="670" spans="1:32" ht="12.5">
+    <row r="670" spans="1:32" ht="12.75">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -24761,7 +24756,7 @@
       <c r="AE670" s="2"/>
       <c r="AF670" s="2"/>
     </row>
-    <row r="671" spans="1:32" ht="12.5">
+    <row r="671" spans="1:32" ht="12.75">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -24795,7 +24790,7 @@
       <c r="AE671" s="2"/>
       <c r="AF671" s="2"/>
     </row>
-    <row r="672" spans="1:32" ht="12.5">
+    <row r="672" spans="1:32" ht="12.75">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -24829,7 +24824,7 @@
       <c r="AE672" s="2"/>
       <c r="AF672" s="2"/>
     </row>
-    <row r="673" spans="1:32" ht="12.5">
+    <row r="673" spans="1:32" ht="12.75">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -24863,7 +24858,7 @@
       <c r="AE673" s="2"/>
       <c r="AF673" s="2"/>
     </row>
-    <row r="674" spans="1:32" ht="12.5">
+    <row r="674" spans="1:32" ht="12.75">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -24897,7 +24892,7 @@
       <c r="AE674" s="2"/>
       <c r="AF674" s="2"/>
     </row>
-    <row r="675" spans="1:32" ht="12.5">
+    <row r="675" spans="1:32" ht="12.75">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -24931,7 +24926,7 @@
       <c r="AE675" s="2"/>
       <c r="AF675" s="2"/>
     </row>
-    <row r="676" spans="1:32" ht="12.5">
+    <row r="676" spans="1:32" ht="12.75">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -24965,7 +24960,7 @@
       <c r="AE676" s="2"/>
       <c r="AF676" s="2"/>
     </row>
-    <row r="677" spans="1:32" ht="12.5">
+    <row r="677" spans="1:32" ht="12.75">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -24999,7 +24994,7 @@
       <c r="AE677" s="2"/>
       <c r="AF677" s="2"/>
     </row>
-    <row r="678" spans="1:32" ht="12.5">
+    <row r="678" spans="1:32" ht="12.75">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -25033,7 +25028,7 @@
       <c r="AE678" s="2"/>
       <c r="AF678" s="2"/>
     </row>
-    <row r="679" spans="1:32" ht="12.5">
+    <row r="679" spans="1:32" ht="12.75">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -25067,7 +25062,7 @@
       <c r="AE679" s="2"/>
       <c r="AF679" s="2"/>
     </row>
-    <row r="680" spans="1:32" ht="12.5">
+    <row r="680" spans="1:32" ht="12.75">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -25101,7 +25096,7 @@
       <c r="AE680" s="2"/>
       <c r="AF680" s="2"/>
     </row>
-    <row r="681" spans="1:32" ht="12.5">
+    <row r="681" spans="1:32" ht="12.75">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -25135,7 +25130,7 @@
       <c r="AE681" s="2"/>
       <c r="AF681" s="2"/>
     </row>
-    <row r="682" spans="1:32" ht="12.5">
+    <row r="682" spans="1:32" ht="12.75">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -25169,7 +25164,7 @@
       <c r="AE682" s="2"/>
       <c r="AF682" s="2"/>
     </row>
-    <row r="683" spans="1:32" ht="12.5">
+    <row r="683" spans="1:32" ht="12.75">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -25203,7 +25198,7 @@
       <c r="AE683" s="2"/>
       <c r="AF683" s="2"/>
     </row>
-    <row r="684" spans="1:32" ht="12.5">
+    <row r="684" spans="1:32" ht="12.75">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -25237,7 +25232,7 @@
       <c r="AE684" s="2"/>
       <c r="AF684" s="2"/>
     </row>
-    <row r="685" spans="1:32" ht="12.5">
+    <row r="685" spans="1:32" ht="12.75">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -25271,7 +25266,7 @@
       <c r="AE685" s="2"/>
       <c r="AF685" s="2"/>
     </row>
-    <row r="686" spans="1:32" ht="12.5">
+    <row r="686" spans="1:32" ht="12.75">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -25305,7 +25300,7 @@
       <c r="AE686" s="2"/>
       <c r="AF686" s="2"/>
     </row>
-    <row r="687" spans="1:32" ht="12.5">
+    <row r="687" spans="1:32" ht="12.75">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -25339,7 +25334,7 @@
       <c r="AE687" s="2"/>
       <c r="AF687" s="2"/>
     </row>
-    <row r="688" spans="1:32" ht="12.5">
+    <row r="688" spans="1:32" ht="12.75">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -25373,7 +25368,7 @@
       <c r="AE688" s="2"/>
       <c r="AF688" s="2"/>
     </row>
-    <row r="689" spans="1:32" ht="12.5">
+    <row r="689" spans="1:32" ht="12.75">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -25407,7 +25402,7 @@
       <c r="AE689" s="2"/>
       <c r="AF689" s="2"/>
     </row>
-    <row r="690" spans="1:32" ht="12.5">
+    <row r="690" spans="1:32" ht="12.75">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -25441,7 +25436,7 @@
       <c r="AE690" s="2"/>
       <c r="AF690" s="2"/>
     </row>
-    <row r="691" spans="1:32" ht="12.5">
+    <row r="691" spans="1:32" ht="12.75">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -25475,7 +25470,7 @@
       <c r="AE691" s="2"/>
       <c r="AF691" s="2"/>
     </row>
-    <row r="692" spans="1:32" ht="12.5">
+    <row r="692" spans="1:32" ht="12.75">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -25509,7 +25504,7 @@
       <c r="AE692" s="2"/>
       <c r="AF692" s="2"/>
     </row>
-    <row r="693" spans="1:32" ht="12.5">
+    <row r="693" spans="1:32" ht="12.75">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -25543,7 +25538,7 @@
       <c r="AE693" s="2"/>
       <c r="AF693" s="2"/>
     </row>
-    <row r="694" spans="1:32" ht="12.5">
+    <row r="694" spans="1:32" ht="12.75">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -25577,7 +25572,7 @@
       <c r="AE694" s="2"/>
       <c r="AF694" s="2"/>
     </row>
-    <row r="695" spans="1:32" ht="12.5">
+    <row r="695" spans="1:32" ht="12.75">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -25611,7 +25606,7 @@
       <c r="AE695" s="2"/>
       <c r="AF695" s="2"/>
     </row>
-    <row r="696" spans="1:32" ht="12.5">
+    <row r="696" spans="1:32" ht="12.75">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -25645,7 +25640,7 @@
       <c r="AE696" s="2"/>
       <c r="AF696" s="2"/>
     </row>
-    <row r="697" spans="1:32" ht="12.5">
+    <row r="697" spans="1:32" ht="12.75">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -25679,7 +25674,7 @@
       <c r="AE697" s="2"/>
       <c r="AF697" s="2"/>
     </row>
-    <row r="698" spans="1:32" ht="12.5">
+    <row r="698" spans="1:32" ht="12.75">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -25713,7 +25708,7 @@
       <c r="AE698" s="2"/>
       <c r="AF698" s="2"/>
     </row>
-    <row r="699" spans="1:32" ht="12.5">
+    <row r="699" spans="1:32" ht="12.75">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -25747,7 +25742,7 @@
       <c r="AE699" s="2"/>
       <c r="AF699" s="2"/>
     </row>
-    <row r="700" spans="1:32" ht="12.5">
+    <row r="700" spans="1:32" ht="12.75">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -25781,7 +25776,7 @@
       <c r="AE700" s="2"/>
       <c r="AF700" s="2"/>
     </row>
-    <row r="701" spans="1:32" ht="12.5">
+    <row r="701" spans="1:32" ht="12.75">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -25815,7 +25810,7 @@
       <c r="AE701" s="2"/>
       <c r="AF701" s="2"/>
     </row>
-    <row r="702" spans="1:32" ht="12.5">
+    <row r="702" spans="1:32" ht="12.75">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -25849,7 +25844,7 @@
       <c r="AE702" s="2"/>
       <c r="AF702" s="2"/>
     </row>
-    <row r="703" spans="1:32" ht="12.5">
+    <row r="703" spans="1:32" ht="12.75">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -25883,7 +25878,7 @@
       <c r="AE703" s="2"/>
       <c r="AF703" s="2"/>
     </row>
-    <row r="704" spans="1:32" ht="12.5">
+    <row r="704" spans="1:32" ht="12.75">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -25917,7 +25912,7 @@
       <c r="AE704" s="2"/>
       <c r="AF704" s="2"/>
     </row>
-    <row r="705" spans="1:32" ht="12.5">
+    <row r="705" spans="1:32" ht="12.75">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -25951,7 +25946,7 @@
       <c r="AE705" s="2"/>
       <c r="AF705" s="2"/>
     </row>
-    <row r="706" spans="1:32" ht="12.5">
+    <row r="706" spans="1:32" ht="12.75">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -25985,7 +25980,7 @@
       <c r="AE706" s="2"/>
       <c r="AF706" s="2"/>
     </row>
-    <row r="707" spans="1:32" ht="12.5">
+    <row r="707" spans="1:32" ht="12.75">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -26019,7 +26014,7 @@
       <c r="AE707" s="2"/>
       <c r="AF707" s="2"/>
     </row>
-    <row r="708" spans="1:32" ht="12.5">
+    <row r="708" spans="1:32" ht="12.75">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -26053,7 +26048,7 @@
       <c r="AE708" s="2"/>
       <c r="AF708" s="2"/>
     </row>
-    <row r="709" spans="1:32" ht="12.5">
+    <row r="709" spans="1:32" ht="12.75">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -26087,7 +26082,7 @@
       <c r="AE709" s="2"/>
       <c r="AF709" s="2"/>
     </row>
-    <row r="710" spans="1:32" ht="12.5">
+    <row r="710" spans="1:32" ht="12.75">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -26121,7 +26116,7 @@
       <c r="AE710" s="2"/>
       <c r="AF710" s="2"/>
     </row>
-    <row r="711" spans="1:32" ht="12.5">
+    <row r="711" spans="1:32" ht="12.75">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -26155,7 +26150,7 @@
       <c r="AE711" s="2"/>
       <c r="AF711" s="2"/>
     </row>
-    <row r="712" spans="1:32" ht="12.5">
+    <row r="712" spans="1:32" ht="12.75">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -26189,7 +26184,7 @@
       <c r="AE712" s="2"/>
       <c r="AF712" s="2"/>
     </row>
-    <row r="713" spans="1:32" ht="12.5">
+    <row r="713" spans="1:32" ht="12.75">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -26223,7 +26218,7 @@
       <c r="AE713" s="2"/>
       <c r="AF713" s="2"/>
     </row>
-    <row r="714" spans="1:32" ht="12.5">
+    <row r="714" spans="1:32" ht="12.75">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -26257,7 +26252,7 @@
       <c r="AE714" s="2"/>
       <c r="AF714" s="2"/>
     </row>
-    <row r="715" spans="1:32" ht="12.5">
+    <row r="715" spans="1:32" ht="12.75">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -26291,7 +26286,7 @@
       <c r="AE715" s="2"/>
       <c r="AF715" s="2"/>
     </row>
-    <row r="716" spans="1:32" ht="12.5">
+    <row r="716" spans="1:32" ht="12.75">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -26325,7 +26320,7 @@
       <c r="AE716" s="2"/>
       <c r="AF716" s="2"/>
     </row>
-    <row r="717" spans="1:32" ht="12.5">
+    <row r="717" spans="1:32" ht="12.75">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -26359,7 +26354,7 @@
       <c r="AE717" s="2"/>
       <c r="AF717" s="2"/>
     </row>
-    <row r="718" spans="1:32" ht="12.5">
+    <row r="718" spans="1:32" ht="12.75">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -26393,7 +26388,7 @@
       <c r="AE718" s="2"/>
       <c r="AF718" s="2"/>
     </row>
-    <row r="719" spans="1:32" ht="12.5">
+    <row r="719" spans="1:32" ht="12.75">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -26427,7 +26422,7 @@
       <c r="AE719" s="2"/>
       <c r="AF719" s="2"/>
     </row>
-    <row r="720" spans="1:32" ht="12.5">
+    <row r="720" spans="1:32" ht="12.75">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -26461,7 +26456,7 @@
       <c r="AE720" s="2"/>
       <c r="AF720" s="2"/>
     </row>
-    <row r="721" spans="1:32" ht="12.5">
+    <row r="721" spans="1:32" ht="12.75">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -26495,7 +26490,7 @@
       <c r="AE721" s="2"/>
       <c r="AF721" s="2"/>
     </row>
-    <row r="722" spans="1:32" ht="12.5">
+    <row r="722" spans="1:32" ht="12.75">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -26529,7 +26524,7 @@
       <c r="AE722" s="2"/>
       <c r="AF722" s="2"/>
     </row>
-    <row r="723" spans="1:32" ht="12.5">
+    <row r="723" spans="1:32" ht="12.75">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -26563,7 +26558,7 @@
       <c r="AE723" s="2"/>
       <c r="AF723" s="2"/>
     </row>
-    <row r="724" spans="1:32" ht="12.5">
+    <row r="724" spans="1:32" ht="12.75">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -26597,7 +26592,7 @@
       <c r="AE724" s="2"/>
       <c r="AF724" s="2"/>
     </row>
-    <row r="725" spans="1:32" ht="12.5">
+    <row r="725" spans="1:32" ht="12.75">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -26631,7 +26626,7 @@
       <c r="AE725" s="2"/>
       <c r="AF725" s="2"/>
     </row>
-    <row r="726" spans="1:32" ht="12.5">
+    <row r="726" spans="1:32" ht="12.75">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -26665,7 +26660,7 @@
       <c r="AE726" s="2"/>
       <c r="AF726" s="2"/>
     </row>
-    <row r="727" spans="1:32" ht="12.5">
+    <row r="727" spans="1:32" ht="12.75">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -26699,7 +26694,7 @@
       <c r="AE727" s="2"/>
       <c r="AF727" s="2"/>
     </row>
-    <row r="728" spans="1:32" ht="12.5">
+    <row r="728" spans="1:32" ht="12.75">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -26733,7 +26728,7 @@
       <c r="AE728" s="2"/>
       <c r="AF728" s="2"/>
     </row>
-    <row r="729" spans="1:32" ht="12.5">
+    <row r="729" spans="1:32" ht="12.75">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -26767,7 +26762,7 @@
       <c r="AE729" s="2"/>
       <c r="AF729" s="2"/>
     </row>
-    <row r="730" spans="1:32" ht="12.5">
+    <row r="730" spans="1:32" ht="12.75">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -26801,7 +26796,7 @@
       <c r="AE730" s="2"/>
       <c r="AF730" s="2"/>
     </row>
-    <row r="731" spans="1:32" ht="12.5">
+    <row r="731" spans="1:32" ht="12.75">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -26835,7 +26830,7 @@
       <c r="AE731" s="2"/>
       <c r="AF731" s="2"/>
     </row>
-    <row r="732" spans="1:32" ht="12.5">
+    <row r="732" spans="1:32" ht="12.75">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -26869,7 +26864,7 @@
       <c r="AE732" s="2"/>
       <c r="AF732" s="2"/>
     </row>
-    <row r="733" spans="1:32" ht="12.5">
+    <row r="733" spans="1:32" ht="12.75">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -26903,7 +26898,7 @@
       <c r="AE733" s="2"/>
       <c r="AF733" s="2"/>
     </row>
-    <row r="734" spans="1:32" ht="12.5">
+    <row r="734" spans="1:32" ht="12.75">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -26937,7 +26932,7 @@
       <c r="AE734" s="2"/>
       <c r="AF734" s="2"/>
     </row>
-    <row r="735" spans="1:32" ht="12.5">
+    <row r="735" spans="1:32" ht="12.75">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -26971,7 +26966,7 @@
       <c r="AE735" s="2"/>
       <c r="AF735" s="2"/>
     </row>
-    <row r="736" spans="1:32" ht="12.5">
+    <row r="736" spans="1:32" ht="12.75">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -27005,7 +27000,7 @@
       <c r="AE736" s="2"/>
       <c r="AF736" s="2"/>
     </row>
-    <row r="737" spans="1:32" ht="12.5">
+    <row r="737" spans="1:32" ht="12.75">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -27039,7 +27034,7 @@
       <c r="AE737" s="2"/>
       <c r="AF737" s="2"/>
     </row>
-    <row r="738" spans="1:32" ht="12.5">
+    <row r="738" spans="1:32" ht="12.75">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -27073,7 +27068,7 @@
       <c r="AE738" s="2"/>
       <c r="AF738" s="2"/>
     </row>
-    <row r="739" spans="1:32" ht="12.5">
+    <row r="739" spans="1:32" ht="12.75">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -27107,7 +27102,7 @@
       <c r="AE739" s="2"/>
       <c r="AF739" s="2"/>
     </row>
-    <row r="740" spans="1:32" ht="12.5">
+    <row r="740" spans="1:32" ht="12.75">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -27141,7 +27136,7 @@
       <c r="AE740" s="2"/>
       <c r="AF740" s="2"/>
     </row>
-    <row r="741" spans="1:32" ht="12.5">
+    <row r="741" spans="1:32" ht="12.75">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -27175,7 +27170,7 @@
       <c r="AE741" s="2"/>
       <c r="AF741" s="2"/>
     </row>
-    <row r="742" spans="1:32" ht="12.5">
+    <row r="742" spans="1:32" ht="12.75">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -27209,7 +27204,7 @@
       <c r="AE742" s="2"/>
       <c r="AF742" s="2"/>
     </row>
-    <row r="743" spans="1:32" ht="12.5">
+    <row r="743" spans="1:32" ht="12.75">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -27243,7 +27238,7 @@
       <c r="AE743" s="2"/>
       <c r="AF743" s="2"/>
     </row>
-    <row r="744" spans="1:32" ht="12.5">
+    <row r="744" spans="1:32" ht="12.75">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -27277,7 +27272,7 @@
       <c r="AE744" s="2"/>
       <c r="AF744" s="2"/>
     </row>
-    <row r="745" spans="1:32" ht="12.5">
+    <row r="745" spans="1:32" ht="12.75">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -27311,7 +27306,7 @@
       <c r="AE745" s="2"/>
       <c r="AF745" s="2"/>
     </row>
-    <row r="746" spans="1:32" ht="12.5">
+    <row r="746" spans="1:32" ht="12.75">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -27345,7 +27340,7 @@
       <c r="AE746" s="2"/>
       <c r="AF746" s="2"/>
     </row>
-    <row r="747" spans="1:32" ht="12.5">
+    <row r="747" spans="1:32" ht="12.75">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -27379,7 +27374,7 @@
       <c r="AE747" s="2"/>
       <c r="AF747" s="2"/>
     </row>
-    <row r="748" spans="1:32" ht="12.5">
+    <row r="748" spans="1:32" ht="12.75">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -27413,7 +27408,7 @@
       <c r="AE748" s="2"/>
       <c r="AF748" s="2"/>
     </row>
-    <row r="749" spans="1:32" ht="12.5">
+    <row r="749" spans="1:32" ht="12.75">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -27447,7 +27442,7 @@
       <c r="AE749" s="2"/>
       <c r="AF749" s="2"/>
     </row>
-    <row r="750" spans="1:32" ht="12.5">
+    <row r="750" spans="1:32" ht="12.75">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -27481,7 +27476,7 @@
       <c r="AE750" s="2"/>
       <c r="AF750" s="2"/>
     </row>
-    <row r="751" spans="1:32" ht="12.5">
+    <row r="751" spans="1:32" ht="12.75">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -27515,7 +27510,7 @@
       <c r="AE751" s="2"/>
       <c r="AF751" s="2"/>
     </row>
-    <row r="752" spans="1:32" ht="12.5">
+    <row r="752" spans="1:32" ht="12.75">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -27549,7 +27544,7 @@
       <c r="AE752" s="2"/>
       <c r="AF752" s="2"/>
     </row>
-    <row r="753" spans="1:32" ht="12.5">
+    <row r="753" spans="1:32" ht="12.75">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -27583,7 +27578,7 @@
       <c r="AE753" s="2"/>
       <c r="AF753" s="2"/>
     </row>
-    <row r="754" spans="1:32" ht="12.5">
+    <row r="754" spans="1:32" ht="12.75">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -27617,7 +27612,7 @@
       <c r="AE754" s="2"/>
       <c r="AF754" s="2"/>
     </row>
-    <row r="755" spans="1:32" ht="12.5">
+    <row r="755" spans="1:32" ht="12.75">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -27651,7 +27646,7 @@
       <c r="AE755" s="2"/>
       <c r="AF755" s="2"/>
     </row>
-    <row r="756" spans="1:32" ht="12.5">
+    <row r="756" spans="1:32" ht="12.75">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -27685,7 +27680,7 @@
       <c r="AE756" s="2"/>
       <c r="AF756" s="2"/>
     </row>
-    <row r="757" spans="1:32" ht="12.5">
+    <row r="757" spans="1:32" ht="12.75">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -27719,7 +27714,7 @@
       <c r="AE757" s="2"/>
       <c r="AF757" s="2"/>
     </row>
-    <row r="758" spans="1:32" ht="12.5">
+    <row r="758" spans="1:32" ht="12.75">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -27753,7 +27748,7 @@
       <c r="AE758" s="2"/>
       <c r="AF758" s="2"/>
     </row>
-    <row r="759" spans="1:32" ht="12.5">
+    <row r="759" spans="1:32" ht="12.75">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -27787,7 +27782,7 @@
       <c r="AE759" s="2"/>
       <c r="AF759" s="2"/>
     </row>
-    <row r="760" spans="1:32" ht="12.5">
+    <row r="760" spans="1:32" ht="12.75">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -27821,7 +27816,7 @@
       <c r="AE760" s="2"/>
       <c r="AF760" s="2"/>
     </row>
-    <row r="761" spans="1:32" ht="12.5">
+    <row r="761" spans="1:32" ht="12.75">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -27855,7 +27850,7 @@
       <c r="AE761" s="2"/>
       <c r="AF761" s="2"/>
     </row>
-    <row r="762" spans="1:32" ht="12.5">
+    <row r="762" spans="1:32" ht="12.75">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -27889,7 +27884,7 @@
       <c r="AE762" s="2"/>
       <c r="AF762" s="2"/>
     </row>
-    <row r="763" spans="1:32" ht="12.5">
+    <row r="763" spans="1:32" ht="12.75">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -27923,7 +27918,7 @@
       <c r="AE763" s="2"/>
       <c r="AF763" s="2"/>
     </row>
-    <row r="764" spans="1:32" ht="12.5">
+    <row r="764" spans="1:32" ht="12.75">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -27957,7 +27952,7 @@
       <c r="AE764" s="2"/>
       <c r="AF764" s="2"/>
     </row>
-    <row r="765" spans="1:32" ht="12.5">
+    <row r="765" spans="1:32" ht="12.75">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -27991,7 +27986,7 @@
       <c r="AE765" s="2"/>
       <c r="AF765" s="2"/>
     </row>
-    <row r="766" spans="1:32" ht="12.5">
+    <row r="766" spans="1:32" ht="12.75">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -28025,7 +28020,7 @@
       <c r="AE766" s="2"/>
       <c r="AF766" s="2"/>
     </row>
-    <row r="767" spans="1:32" ht="12.5">
+    <row r="767" spans="1:32" ht="12.75">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -28059,7 +28054,7 @@
       <c r="AE767" s="2"/>
       <c r="AF767" s="2"/>
     </row>
-    <row r="768" spans="1:32" ht="12.5">
+    <row r="768" spans="1:32" ht="12.75">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -28093,7 +28088,7 @@
       <c r="AE768" s="2"/>
       <c r="AF768" s="2"/>
     </row>
-    <row r="769" spans="1:32" ht="12.5">
+    <row r="769" spans="1:32" ht="12.75">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -28127,7 +28122,7 @@
       <c r="AE769" s="2"/>
       <c r="AF769" s="2"/>
     </row>
-    <row r="770" spans="1:32" ht="12.5">
+    <row r="770" spans="1:32" ht="12.75">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -28161,7 +28156,7 @@
       <c r="AE770" s="2"/>
       <c r="AF770" s="2"/>
     </row>
-    <row r="771" spans="1:32" ht="12.5">
+    <row r="771" spans="1:32" ht="12.75">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -28195,7 +28190,7 @@
       <c r="AE771" s="2"/>
       <c r="AF771" s="2"/>
     </row>
-    <row r="772" spans="1:32" ht="12.5">
+    <row r="772" spans="1:32" ht="12.75">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -28229,7 +28224,7 @@
       <c r="AE772" s="2"/>
       <c r="AF772" s="2"/>
     </row>
-    <row r="773" spans="1:32" ht="12.5">
+    <row r="773" spans="1:32" ht="12.75">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -28263,7 +28258,7 @@
       <c r="AE773" s="2"/>
       <c r="AF773" s="2"/>
     </row>
-    <row r="774" spans="1:32" ht="12.5">
+    <row r="774" spans="1:32" ht="12.75">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -28297,7 +28292,7 @@
       <c r="AE774" s="2"/>
       <c r="AF774" s="2"/>
     </row>
-    <row r="775" spans="1:32" ht="12.5">
+    <row r="775" spans="1:32" ht="12.75">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -28331,7 +28326,7 @@
       <c r="AE775" s="2"/>
       <c r="AF775" s="2"/>
     </row>
-    <row r="776" spans="1:32" ht="12.5">
+    <row r="776" spans="1:32" ht="12.75">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -28365,7 +28360,7 @@
       <c r="AE776" s="2"/>
       <c r="AF776" s="2"/>
     </row>
-    <row r="777" spans="1:32" ht="12.5">
+    <row r="777" spans="1:32" ht="12.75">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -28399,7 +28394,7 @@
       <c r="AE777" s="2"/>
       <c r="AF777" s="2"/>
     </row>
-    <row r="778" spans="1:32" ht="12.5">
+    <row r="778" spans="1:32" ht="12.75">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -28433,7 +28428,7 @@
       <c r="AE778" s="2"/>
       <c r="AF778" s="2"/>
     </row>
-    <row r="779" spans="1:32" ht="12.5">
+    <row r="779" spans="1:32" ht="12.75">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -28467,7 +28462,7 @@
       <c r="AE779" s="2"/>
       <c r="AF779" s="2"/>
     </row>
-    <row r="780" spans="1:32" ht="12.5">
+    <row r="780" spans="1:32" ht="12.75">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -28501,7 +28496,7 @@
       <c r="AE780" s="2"/>
       <c r="AF780" s="2"/>
     </row>
-    <row r="781" spans="1:32" ht="12.5">
+    <row r="781" spans="1:32" ht="12.75">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -28535,7 +28530,7 @@
       <c r="AE781" s="2"/>
       <c r="AF781" s="2"/>
     </row>
-    <row r="782" spans="1:32" ht="12.5">
+    <row r="782" spans="1:32" ht="12.75">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -28569,7 +28564,7 @@
       <c r="AE782" s="2"/>
       <c r="AF782" s="2"/>
     </row>
-    <row r="783" spans="1:32" ht="12.5">
+    <row r="783" spans="1:32" ht="12.75">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -28603,7 +28598,7 @@
       <c r="AE783" s="2"/>
       <c r="AF783" s="2"/>
     </row>
-    <row r="784" spans="1:32" ht="12.5">
+    <row r="784" spans="1:32" ht="12.75">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -28637,7 +28632,7 @@
       <c r="AE784" s="2"/>
       <c r="AF784" s="2"/>
     </row>
-    <row r="785" spans="1:32" ht="12.5">
+    <row r="785" spans="1:32" ht="12.75">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -28671,7 +28666,7 @@
       <c r="AE785" s="2"/>
       <c r="AF785" s="2"/>
     </row>
-    <row r="786" spans="1:32" ht="12.5">
+    <row r="786" spans="1:32" ht="12.75">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -28705,7 +28700,7 @@
       <c r="AE786" s="2"/>
       <c r="AF786" s="2"/>
     </row>
-    <row r="787" spans="1:32" ht="12.5">
+    <row r="787" spans="1:32" ht="12.75">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -28739,7 +28734,7 @@
       <c r="AE787" s="2"/>
       <c r="AF787" s="2"/>
     </row>
-    <row r="788" spans="1:32" ht="12.5">
+    <row r="788" spans="1:32" ht="12.75">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -28773,7 +28768,7 @@
       <c r="AE788" s="2"/>
       <c r="AF788" s="2"/>
     </row>
-    <row r="789" spans="1:32" ht="12.5">
+    <row r="789" spans="1:32" ht="12.75">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -28807,7 +28802,7 @@
       <c r="AE789" s="2"/>
       <c r="AF789" s="2"/>
     </row>
-    <row r="790" spans="1:32" ht="12.5">
+    <row r="790" spans="1:32" ht="12.75">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -28841,7 +28836,7 @@
       <c r="AE790" s="2"/>
       <c r="AF790" s="2"/>
     </row>
-    <row r="791" spans="1:32" ht="12.5">
+    <row r="791" spans="1:32" ht="12.75">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -28875,7 +28870,7 @@
       <c r="AE791" s="2"/>
       <c r="AF791" s="2"/>
     </row>
-    <row r="792" spans="1:32" ht="12.5">
+    <row r="792" spans="1:32" ht="12.75">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -28909,7 +28904,7 @@
       <c r="AE792" s="2"/>
       <c r="AF792" s="2"/>
     </row>
-    <row r="793" spans="1:32" ht="12.5">
+    <row r="793" spans="1:32" ht="12.75">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -28943,7 +28938,7 @@
       <c r="AE793" s="2"/>
       <c r="AF793" s="2"/>
     </row>
-    <row r="794" spans="1:32" ht="12.5">
+    <row r="794" spans="1:32" ht="12.75">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -28977,7 +28972,7 @@
       <c r="AE794" s="2"/>
       <c r="AF794" s="2"/>
     </row>
-    <row r="795" spans="1:32" ht="12.5">
+    <row r="795" spans="1:32" ht="12.75">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -29011,7 +29006,7 @@
       <c r="AE795" s="2"/>
       <c r="AF795" s="2"/>
     </row>
-    <row r="796" spans="1:32" ht="12.5">
+    <row r="796" spans="1:32" ht="12.75">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -29045,7 +29040,7 @@
       <c r="AE796" s="2"/>
       <c r="AF796" s="2"/>
     </row>
-    <row r="797" spans="1:32" ht="12.5">
+    <row r="797" spans="1:32" ht="12.75">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -29079,7 +29074,7 @@
       <c r="AE797" s="2"/>
       <c r="AF797" s="2"/>
     </row>
-    <row r="798" spans="1:32" ht="12.5">
+    <row r="798" spans="1:32" ht="12.75">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -29113,7 +29108,7 @@
       <c r="AE798" s="2"/>
       <c r="AF798" s="2"/>
     </row>
-    <row r="799" spans="1:32" ht="12.5">
+    <row r="799" spans="1:32" ht="12.75">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -29147,7 +29142,7 @@
       <c r="AE799" s="2"/>
       <c r="AF799" s="2"/>
     </row>
-    <row r="800" spans="1:32" ht="12.5">
+    <row r="800" spans="1:32" ht="12.75">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -29181,7 +29176,7 @@
       <c r="AE800" s="2"/>
       <c r="AF800" s="2"/>
     </row>
-    <row r="801" spans="1:32" ht="12.5">
+    <row r="801" spans="1:32" ht="12.75">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -29215,7 +29210,7 @@
       <c r="AE801" s="2"/>
       <c r="AF801" s="2"/>
     </row>
-    <row r="802" spans="1:32" ht="12.5">
+    <row r="802" spans="1:32" ht="12.75">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -29249,7 +29244,7 @@
       <c r="AE802" s="2"/>
       <c r="AF802" s="2"/>
     </row>
-    <row r="803" spans="1:32" ht="12.5">
+    <row r="803" spans="1:32" ht="12.75">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -29283,7 +29278,7 @@
       <c r="AE803" s="2"/>
       <c r="AF803" s="2"/>
     </row>
-    <row r="804" spans="1:32" ht="12.5">
+    <row r="804" spans="1:32" ht="12.75">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -29317,7 +29312,7 @@
       <c r="AE804" s="2"/>
       <c r="AF804" s="2"/>
     </row>
-    <row r="805" spans="1:32" ht="12.5">
+    <row r="805" spans="1:32" ht="12.75">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -29351,7 +29346,7 @@
       <c r="AE805" s="2"/>
       <c r="AF805" s="2"/>
     </row>
-    <row r="806" spans="1:32" ht="12.5">
+    <row r="806" spans="1:32" ht="12.75">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -29385,7 +29380,7 @@
       <c r="AE806" s="2"/>
       <c r="AF806" s="2"/>
     </row>
-    <row r="807" spans="1:32" ht="12.5">
+    <row r="807" spans="1:32" ht="12.75">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -29419,7 +29414,7 @@
       <c r="AE807" s="2"/>
       <c r="AF807" s="2"/>
     </row>
-    <row r="808" spans="1:32" ht="12.5">
+    <row r="808" spans="1:32" ht="12.75">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -29453,7 +29448,7 @@
       <c r="AE808" s="2"/>
       <c r="AF808" s="2"/>
     </row>
-    <row r="809" spans="1:32" ht="12.5">
+    <row r="809" spans="1:32" ht="12.75">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -29487,7 +29482,7 @@
       <c r="AE809" s="2"/>
       <c r="AF809" s="2"/>
     </row>
-    <row r="810" spans="1:32" ht="12.5">
+    <row r="810" spans="1:32" ht="12.75">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -29521,7 +29516,7 @@
       <c r="AE810" s="2"/>
       <c r="AF810" s="2"/>
     </row>
-    <row r="811" spans="1:32" ht="12.5">
+    <row r="811" spans="1:32" ht="12.75">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -29555,7 +29550,7 @@
       <c r="AE811" s="2"/>
       <c r="AF811" s="2"/>
     </row>
-    <row r="812" spans="1:32" ht="12.5">
+    <row r="812" spans="1:32" ht="12.75">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -29589,7 +29584,7 @@
       <c r="AE812" s="2"/>
       <c r="AF812" s="2"/>
     </row>
-    <row r="813" spans="1:32" ht="12.5">
+    <row r="813" spans="1:32" ht="12.75">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -29623,7 +29618,7 @@
       <c r="AE813" s="2"/>
       <c r="AF813" s="2"/>
     </row>
-    <row r="814" spans="1:32" ht="12.5">
+    <row r="814" spans="1:32" ht="12.75">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -29657,7 +29652,7 @@
       <c r="AE814" s="2"/>
       <c r="AF814" s="2"/>
     </row>
-    <row r="815" spans="1:32" ht="12.5">
+    <row r="815" spans="1:32" ht="12.75">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -29691,7 +29686,7 @@
       <c r="AE815" s="2"/>
       <c r="AF815" s="2"/>
     </row>
-    <row r="816" spans="1:32" ht="12.5">
+    <row r="816" spans="1:32" ht="12.75">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -29725,7 +29720,7 @@
       <c r="AE816" s="2"/>
       <c r="AF816" s="2"/>
     </row>
-    <row r="817" spans="1:32" ht="12.5">
+    <row r="817" spans="1:32" ht="12.75">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -29759,7 +29754,7 @@
       <c r="AE817" s="2"/>
       <c r="AF817" s="2"/>
     </row>
-    <row r="818" spans="1:32" ht="12.5">
+    <row r="818" spans="1:32" ht="12.75">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -29793,7 +29788,7 @@
       <c r="AE818" s="2"/>
       <c r="AF818" s="2"/>
     </row>
-    <row r="819" spans="1:32" ht="12.5">
+    <row r="819" spans="1:32" ht="12.75">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -29827,7 +29822,7 @@
       <c r="AE819" s="2"/>
       <c r="AF819" s="2"/>
     </row>
-    <row r="820" spans="1:32" ht="12.5">
+    <row r="820" spans="1:32" ht="12.75">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -29861,7 +29856,7 @@
       <c r="AE820" s="2"/>
       <c r="AF820" s="2"/>
     </row>
-    <row r="821" spans="1:32" ht="12.5">
+    <row r="821" spans="1:32" ht="12.75">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -29895,7 +29890,7 @@
       <c r="AE821" s="2"/>
       <c r="AF821" s="2"/>
     </row>
-    <row r="822" spans="1:32" ht="12.5">
+    <row r="822" spans="1:32" ht="12.75">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -29929,7 +29924,7 @@
       <c r="AE822" s="2"/>
       <c r="AF822" s="2"/>
     </row>
-    <row r="823" spans="1:32" ht="12.5">
+    <row r="823" spans="1:32" ht="12.75">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -29963,7 +29958,7 @@
       <c r="AE823" s="2"/>
       <c r="AF823" s="2"/>
     </row>
-    <row r="824" spans="1:32" ht="12.5">
+    <row r="824" spans="1:32" ht="12.75">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -29997,7 +29992,7 @@
       <c r="AE824" s="2"/>
       <c r="AF824" s="2"/>
     </row>
-    <row r="825" spans="1:32" ht="12.5">
+    <row r="825" spans="1:32" ht="12.75">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -30031,7 +30026,7 @@
       <c r="AE825" s="2"/>
       <c r="AF825" s="2"/>
     </row>
-    <row r="826" spans="1:32" ht="12.5">
+    <row r="826" spans="1:32" ht="12.75">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -30065,7 +30060,7 @@
       <c r="AE826" s="2"/>
       <c r="AF826" s="2"/>
     </row>
-    <row r="827" spans="1:32" ht="12.5">
+    <row r="827" spans="1:32" ht="12.75">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -30099,7 +30094,7 @@
       <c r="AE827" s="2"/>
       <c r="AF827" s="2"/>
     </row>
-    <row r="828" spans="1:32" ht="12.5">
+    <row r="828" spans="1:32" ht="12.75">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -30133,7 +30128,7 @@
       <c r="AE828" s="2"/>
       <c r="AF828" s="2"/>
     </row>
-    <row r="829" spans="1:32" ht="12.5">
+    <row r="829" spans="1:32" ht="12.75">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -30167,7 +30162,7 @@
       <c r="AE829" s="2"/>
       <c r="AF829" s="2"/>
     </row>
-    <row r="830" spans="1:32" ht="12.5">
+    <row r="830" spans="1:32" ht="12.75">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -30201,7 +30196,7 @@
       <c r="AE830" s="2"/>
       <c r="AF830" s="2"/>
     </row>
-    <row r="831" spans="1:32" ht="12.5">
+    <row r="831" spans="1:32" ht="12.75">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -30235,7 +30230,7 @@
       <c r="AE831" s="2"/>
       <c r="AF831" s="2"/>
     </row>
-    <row r="832" spans="1:32" ht="12.5">
+    <row r="832" spans="1:32" ht="12.75">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -30269,7 +30264,7 @@
       <c r="AE832" s="2"/>
       <c r="AF832" s="2"/>
     </row>
-    <row r="833" spans="1:32" ht="12.5">
+    <row r="833" spans="1:32" ht="12.75">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -30303,7 +30298,7 @@
       <c r="AE833" s="2"/>
       <c r="AF833" s="2"/>
     </row>
-    <row r="834" spans="1:32" ht="12.5">
+    <row r="834" spans="1:32" ht="12.75">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -30337,7 +30332,7 @@
       <c r="AE834" s="2"/>
       <c r="AF834" s="2"/>
     </row>
-    <row r="835" spans="1:32" ht="12.5">
+    <row r="835" spans="1:32" ht="12.75">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -30371,7 +30366,7 @@
       <c r="AE835" s="2"/>
       <c r="AF835" s="2"/>
     </row>
-    <row r="836" spans="1:32" ht="12.5">
+    <row r="836" spans="1:32" ht="12.75">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -30405,7 +30400,7 @@
       <c r="AE836" s="2"/>
       <c r="AF836" s="2"/>
     </row>
-    <row r="837" spans="1:32" ht="12.5">
+    <row r="837" spans="1:32" ht="12.75">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -30439,7 +30434,7 @@
       <c r="AE837" s="2"/>
       <c r="AF837" s="2"/>
     </row>
-    <row r="838" spans="1:32" ht="12.5">
+    <row r="838" spans="1:32" ht="12.75">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -30473,7 +30468,7 @@
       <c r="AE838" s="2"/>
       <c r="AF838" s="2"/>
     </row>
-    <row r="839" spans="1:32" ht="12.5">
+    <row r="839" spans="1:32" ht="12.75">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -30507,7 +30502,7 @@
       <c r="AE839" s="2"/>
       <c r="AF839" s="2"/>
     </row>
-    <row r="840" spans="1:32" ht="12.5">
+    <row r="840" spans="1:32" ht="12.75">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -30541,7 +30536,7 @@
       <c r="AE840" s="2"/>
       <c r="AF840" s="2"/>
     </row>
-    <row r="841" spans="1:32" ht="12.5">
+    <row r="841" spans="1:32" ht="12.75">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -30575,7 +30570,7 @@
       <c r="AE841" s="2"/>
       <c r="AF841" s="2"/>
     </row>
-    <row r="842" spans="1:32" ht="12.5">
+    <row r="842" spans="1:32" ht="12.75">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -30609,7 +30604,7 @@
       <c r="AE842" s="2"/>
       <c r="AF842" s="2"/>
     </row>
-    <row r="843" spans="1:32" ht="12.5">
+    <row r="843" spans="1:32" ht="12.75">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -30643,7 +30638,7 @@
       <c r="AE843" s="2"/>
       <c r="AF843" s="2"/>
     </row>
-    <row r="844" spans="1:32" ht="12.5">
+    <row r="844" spans="1:32" ht="12.75">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -30677,7 +30672,7 @@
       <c r="AE844" s="2"/>
       <c r="AF844" s="2"/>
     </row>
-    <row r="845" spans="1:32" ht="12.5">
+    <row r="845" spans="1:32" ht="12.75">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -30711,7 +30706,7 @@
       <c r="AE845" s="2"/>
       <c r="AF845" s="2"/>
     </row>
-    <row r="846" spans="1:32" ht="12.5">
+    <row r="846" spans="1:32" ht="12.75">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -30745,7 +30740,7 @@
       <c r="AE846" s="2"/>
       <c r="AF846" s="2"/>
     </row>
-    <row r="847" spans="1:32" ht="12.5">
+    <row r="847" spans="1:32" ht="12.75">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -30779,7 +30774,7 @@
       <c r="AE847" s="2"/>
       <c r="AF847" s="2"/>
     </row>
-    <row r="848" spans="1:32" ht="12.5">
+    <row r="848" spans="1:32" ht="12.75">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -30813,7 +30808,7 @@
       <c r="AE848" s="2"/>
       <c r="AF848" s="2"/>
     </row>
-    <row r="849" spans="1:32" ht="12.5">
+    <row r="849" spans="1:32" ht="12.75">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -30847,7 +30842,7 @@
       <c r="AE849" s="2"/>
       <c r="AF849" s="2"/>
     </row>
-    <row r="850" spans="1:32" ht="12.5">
+    <row r="850" spans="1:32" ht="12.75">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -30881,7 +30876,7 @@
       <c r="AE850" s="2"/>
       <c r="AF850" s="2"/>
     </row>
-    <row r="851" spans="1:32" ht="12.5">
+    <row r="851" spans="1:32" ht="12.75">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -30915,7 +30910,7 @@
       <c r="AE851" s="2"/>
       <c r="AF851" s="2"/>
     </row>
-    <row r="852" spans="1:32" ht="12.5">
+    <row r="852" spans="1:32" ht="12.75">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -30949,7 +30944,7 @@
       <c r="AE852" s="2"/>
       <c r="AF852" s="2"/>
     </row>
-    <row r="853" spans="1:32" ht="12.5">
+    <row r="853" spans="1:32" ht="12.75">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -30983,7 +30978,7 @@
       <c r="AE853" s="2"/>
       <c r="AF853" s="2"/>
     </row>
-    <row r="854" spans="1:32" ht="12.5">
+    <row r="854" spans="1:32" ht="12.75">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -31017,7 +31012,7 @@
       <c r="AE854" s="2"/>
       <c r="AF854" s="2"/>
     </row>
-    <row r="855" spans="1:32" ht="12.5">
+    <row r="855" spans="1:32" ht="12.75">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -31051,7 +31046,7 @@
       <c r="AE855" s="2"/>
       <c r="AF855" s="2"/>
     </row>
-    <row r="856" spans="1:32" ht="12.5">
+    <row r="856" spans="1:32" ht="12.75">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -31085,7 +31080,7 @@
       <c r="AE856" s="2"/>
       <c r="AF856" s="2"/>
     </row>
-    <row r="857" spans="1:32" ht="12.5">
+    <row r="857" spans="1:32" ht="12.75">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -31119,7 +31114,7 @@
       <c r="AE857" s="2"/>
       <c r="AF857" s="2"/>
     </row>
-    <row r="858" spans="1:32" ht="12.5">
+    <row r="858" spans="1:32" ht="12.75">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -31153,7 +31148,7 @@
       <c r="AE858" s="2"/>
       <c r="AF858" s="2"/>
     </row>
-    <row r="859" spans="1:32" ht="12.5">
+    <row r="859" spans="1:32" ht="12.75">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -31187,7 +31182,7 @@
       <c r="AE859" s="2"/>
       <c r="AF859" s="2"/>
     </row>
-    <row r="860" spans="1:32" ht="12.5">
+    <row r="860" spans="1:32" ht="12.75">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -31221,7 +31216,7 @@
       <c r="AE860" s="2"/>
       <c r="AF860" s="2"/>
     </row>
-    <row r="861" spans="1:32" ht="12.5">
+    <row r="861" spans="1:32" ht="12.75">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -31255,7 +31250,7 @@
       <c r="AE861" s="2"/>
       <c r="AF861" s="2"/>
     </row>
-    <row r="862" spans="1:32" ht="12.5">
+    <row r="862" spans="1:32" ht="12.75">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -31289,7 +31284,7 @@
       <c r="AE862" s="2"/>
       <c r="AF862" s="2"/>
     </row>
-    <row r="863" spans="1:32" ht="12.5">
+    <row r="863" spans="1:32" ht="12.75">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -31323,7 +31318,7 @@
       <c r="AE863" s="2"/>
       <c r="AF863" s="2"/>
     </row>
-    <row r="864" spans="1:32" ht="12.5">
+    <row r="864" spans="1:32" ht="12.75">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -31357,7 +31352,7 @@
       <c r="AE864" s="2"/>
       <c r="AF864" s="2"/>
     </row>
-    <row r="865" spans="1:32" ht="12.5">
+    <row r="865" spans="1:32" ht="12.75">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -31391,7 +31386,7 @@
       <c r="AE865" s="2"/>
       <c r="AF865" s="2"/>
     </row>
-    <row r="866" spans="1:32" ht="12.5">
+    <row r="866" spans="1:32" ht="12.75">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -31425,7 +31420,7 @@
       <c r="AE866" s="2"/>
       <c r="AF866" s="2"/>
     </row>
-    <row r="867" spans="1:32" ht="12.5">
+    <row r="867" spans="1:32" ht="12.75">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -31459,7 +31454,7 @@
       <c r="AE867" s="2"/>
       <c r="AF867" s="2"/>
     </row>
-    <row r="868" spans="1:32" ht="12.5">
+    <row r="868" spans="1:32" ht="12.75">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -31493,7 +31488,7 @@
       <c r="AE868" s="2"/>
       <c r="AF868" s="2"/>
     </row>
-    <row r="869" spans="1:32" ht="12.5">
+    <row r="869" spans="1:32" ht="12.75">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -31527,7 +31522,7 @@
       <c r="AE869" s="2"/>
       <c r="AF869" s="2"/>
     </row>
-    <row r="870" spans="1:32" ht="12.5">
+    <row r="870" spans="1:32" ht="12.75">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -31561,7 +31556,7 @@
       <c r="AE870" s="2"/>
       <c r="AF870" s="2"/>
     </row>
-    <row r="871" spans="1:32" ht="12.5">
+    <row r="871" spans="1:32" ht="12.75">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -31595,7 +31590,7 @@
       <c r="AE871" s="2"/>
       <c r="AF871" s="2"/>
     </row>
-    <row r="872" spans="1:32" ht="12.5">
+    <row r="872" spans="1:32" ht="12.75">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -31629,7 +31624,7 @@
       <c r="AE872" s="2"/>
       <c r="AF872" s="2"/>
     </row>
-    <row r="873" spans="1:32" ht="12.5">
+    <row r="873" spans="1:32" ht="12.75">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -31663,7 +31658,7 @@
       <c r="AE873" s="2"/>
       <c r="AF873" s="2"/>
     </row>
-    <row r="874" spans="1:32" ht="12.5">
+    <row r="874" spans="1:32" ht="12.75">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -31697,7 +31692,7 @@
       <c r="AE874" s="2"/>
       <c r="AF874" s="2"/>
     </row>
-    <row r="875" spans="1:32" ht="12.5">
+    <row r="875" spans="1:32" ht="12.75">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -31731,7 +31726,7 @@
       <c r="AE875" s="2"/>
       <c r="AF875" s="2"/>
     </row>
-    <row r="876" spans="1:32" ht="12.5">
+    <row r="876" spans="1:32" ht="12.75">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -31765,7 +31760,7 @@
       <c r="AE876" s="2"/>
       <c r="AF876" s="2"/>
     </row>
-    <row r="877" spans="1:32" ht="12.5">
+    <row r="877" spans="1:32" ht="12.75">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -31799,7 +31794,7 @@
       <c r="AE877" s="2"/>
       <c r="AF877" s="2"/>
     </row>
-    <row r="878" spans="1:32" ht="12.5">
+    <row r="878" spans="1:32" ht="12.75">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -31833,7 +31828,7 @@
       <c r="AE878" s="2"/>
       <c r="AF878" s="2"/>
     </row>
-    <row r="879" spans="1:32" ht="12.5">
+    <row r="879" spans="1:32" ht="12.75">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -31867,7 +31862,7 @@
       <c r="AE879" s="2"/>
       <c r="AF879" s="2"/>
     </row>
-    <row r="880" spans="1:32" ht="12.5">
+    <row r="880" spans="1:32" ht="12.75">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -31901,7 +31896,7 @@
       <c r="AE880" s="2"/>
       <c r="AF880" s="2"/>
     </row>
-    <row r="881" spans="1:32" ht="12.5">
+    <row r="881" spans="1:32" ht="12.75">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -31935,7 +31930,7 @@
       <c r="AE881" s="2"/>
       <c r="AF881" s="2"/>
     </row>
-    <row r="882" spans="1:32" ht="12.5">
+    <row r="882" spans="1:32" ht="12.75">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -31969,7 +31964,7 @@
       <c r="AE882" s="2"/>
       <c r="AF882" s="2"/>
     </row>
-    <row r="883" spans="1:32" ht="12.5">
+    <row r="883" spans="1:32" ht="12.75">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -32003,7 +31998,7 @@
       <c r="AE883" s="2"/>
       <c r="AF883" s="2"/>
     </row>
-    <row r="884" spans="1:32" ht="12.5">
+    <row r="884" spans="1:32" ht="12.75">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -32037,7 +32032,7 @@
       <c r="AE884" s="2"/>
       <c r="AF884" s="2"/>
     </row>
-    <row r="885" spans="1:32" ht="12.5">
+    <row r="885" spans="1:32" ht="12.75">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -32071,7 +32066,7 @@
       <c r="AE885" s="2"/>
       <c r="AF885" s="2"/>
     </row>
-    <row r="886" spans="1:32" ht="12.5">
+    <row r="886" spans="1:32" ht="12.75">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -32105,7 +32100,7 @@
       <c r="AE886" s="2"/>
       <c r="AF886" s="2"/>
     </row>
-    <row r="887" spans="1:32" ht="12.5">
+    <row r="887" spans="1:32" ht="12.75">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -32139,7 +32134,7 @@
       <c r="AE887" s="2"/>
       <c r="AF887" s="2"/>
     </row>
-    <row r="888" spans="1:32" ht="12.5">
+    <row r="888" spans="1:32" ht="12.75">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -32173,7 +32168,7 @@
       <c r="AE888" s="2"/>
       <c r="AF888" s="2"/>
     </row>
-    <row r="889" spans="1:32" ht="12.5">
+    <row r="889" spans="1:32" ht="12.75">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -32207,7 +32202,7 @@
       <c r="AE889" s="2"/>
       <c r="AF889" s="2"/>
     </row>
-    <row r="890" spans="1:32" ht="12.5">
+    <row r="890" spans="1:32" ht="12.75">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -32241,7 +32236,7 @@
       <c r="AE890" s="2"/>
       <c r="AF890" s="2"/>
     </row>
-    <row r="891" spans="1:32" ht="12.5">
+    <row r="891" spans="1:32" ht="12.75">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -32275,7 +32270,7 @@
       <c r="AE891" s="2"/>
       <c r="AF891" s="2"/>
     </row>
-    <row r="892" spans="1:32" ht="12.5">
+    <row r="892" spans="1:32" ht="12.75">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -32309,7 +32304,7 @@
       <c r="AE892" s="2"/>
       <c r="AF892" s="2"/>
     </row>
-    <row r="893" spans="1:32" ht="12.5">
+    <row r="893" spans="1:32" ht="12.75">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -32343,7 +32338,7 @@
       <c r="AE893" s="2"/>
       <c r="AF893" s="2"/>
     </row>
-    <row r="894" spans="1:32" ht="12.5">
+    <row r="894" spans="1:32" ht="12.75">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -32377,7 +32372,7 @@
       <c r="AE894" s="2"/>
       <c r="AF894" s="2"/>
     </row>
-    <row r="895" spans="1:32" ht="12.5">
+    <row r="895" spans="1:32" ht="12.75">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -32411,7 +32406,7 @@
       <c r="AE895" s="2"/>
       <c r="AF895" s="2"/>
     </row>
-    <row r="896" spans="1:32" ht="12.5">
+    <row r="896" spans="1:32" ht="12.75">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -32445,7 +32440,7 @@
       <c r="AE896" s="2"/>
       <c r="AF896" s="2"/>
     </row>
-    <row r="897" spans="1:32" ht="12.5">
+    <row r="897" spans="1:32" ht="12.75">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -32479,7 +32474,7 @@
       <c r="AE897" s="2"/>
       <c r="AF897" s="2"/>
     </row>
-    <row r="898" spans="1:32" ht="12.5">
+    <row r="898" spans="1:32" ht="12.75">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -32513,7 +32508,7 @@
       <c r="AE898" s="2"/>
       <c r="AF898" s="2"/>
     </row>
-    <row r="899" spans="1:32" ht="12.5">
+    <row r="899" spans="1:32" ht="12.75">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -32547,7 +32542,7 @@
       <c r="AE899" s="2"/>
       <c r="AF899" s="2"/>
     </row>
-    <row r="900" spans="1:32" ht="12.5">
+    <row r="900" spans="1:32" ht="12.75">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -32581,7 +32576,7 @@
       <c r="AE900" s="2"/>
       <c r="AF900" s="2"/>
     </row>
-    <row r="901" spans="1:32" ht="12.5">
+    <row r="901" spans="1:32" ht="12.75">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -32615,7 +32610,7 @@
       <c r="AE901" s="2"/>
       <c r="AF901" s="2"/>
     </row>
-    <row r="902" spans="1:32" ht="12.5">
+    <row r="902" spans="1:32" ht="12.75">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -32649,7 +32644,7 @@
       <c r="AE902" s="2"/>
       <c r="AF902" s="2"/>
     </row>
-    <row r="903" spans="1:32" ht="12.5">
+    <row r="903" spans="1:32" ht="12.75">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -32683,7 +32678,7 @@
       <c r="AE903" s="2"/>
       <c r="AF903" s="2"/>
     </row>
-    <row r="904" spans="1:32" ht="12.5">
+    <row r="904" spans="1:32" ht="12.75">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -32717,7 +32712,7 @@
       <c r="AE904" s="2"/>
       <c r="AF904" s="2"/>
     </row>
-    <row r="905" spans="1:32" ht="12.5">
+    <row r="905" spans="1:32" ht="12.75">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -32751,7 +32746,7 @@
       <c r="AE905" s="2"/>
       <c r="AF905" s="2"/>
     </row>
-    <row r="906" spans="1:32" ht="12.5">
+    <row r="906" spans="1:32" ht="12.75">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -32785,7 +32780,7 @@
       <c r="AE906" s="2"/>
       <c r="AF906" s="2"/>
     </row>
-    <row r="907" spans="1:32" ht="12.5">
+    <row r="907" spans="1:32" ht="12.75">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -32819,7 +32814,7 @@
       <c r="AE907" s="2"/>
       <c r="AF907" s="2"/>
     </row>
-    <row r="908" spans="1:32" ht="12.5">
+    <row r="908" spans="1:32" ht="12.75">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -32853,7 +32848,7 @@
       <c r="AE908" s="2"/>
       <c r="AF908" s="2"/>
     </row>
-    <row r="909" spans="1:32" ht="12.5">
+    <row r="909" spans="1:32" ht="12.75">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -32887,7 +32882,7 @@
       <c r="AE909" s="2"/>
       <c r="AF909" s="2"/>
     </row>
-    <row r="910" spans="1:32" ht="12.5">
+    <row r="910" spans="1:32" ht="12.75">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -32921,7 +32916,7 @@
       <c r="AE910" s="2"/>
       <c r="AF910" s="2"/>
     </row>
-    <row r="911" spans="1:32" ht="12.5">
+    <row r="911" spans="1:32" ht="12.75">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -32955,7 +32950,7 @@
       <c r="AE911" s="2"/>
       <c r="AF911" s="2"/>
     </row>
-    <row r="912" spans="1:32" ht="12.5">
+    <row r="912" spans="1:32" ht="12.75">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -32989,7 +32984,7 @@
       <c r="AE912" s="2"/>
       <c r="AF912" s="2"/>
     </row>
-    <row r="913" spans="1:32" ht="12.5">
+    <row r="913" spans="1:32" ht="12.75">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -33023,7 +33018,7 @@
       <c r="AE913" s="2"/>
       <c r="AF913" s="2"/>
     </row>
-    <row r="914" spans="1:32" ht="12.5">
+    <row r="914" spans="1:32" ht="12.75">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -33057,7 +33052,7 @@
       <c r="AE914" s="2"/>
       <c r="AF914" s="2"/>
     </row>
-    <row r="915" spans="1:32" ht="12.5">
+    <row r="915" spans="1:32" ht="12.75">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -33091,7 +33086,7 @@
       <c r="AE915" s="2"/>
       <c r="AF915" s="2"/>
     </row>
-    <row r="916" spans="1:32" ht="12.5">
+    <row r="916" spans="1:32" ht="12.75">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -33125,7 +33120,7 @@
       <c r="AE916" s="2"/>
       <c r="AF916" s="2"/>
     </row>
-    <row r="917" spans="1:32" ht="12.5">
+    <row r="917" spans="1:32" ht="12.75">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -33159,7 +33154,7 @@
       <c r="AE917" s="2"/>
       <c r="AF917" s="2"/>
     </row>
-    <row r="918" spans="1:32" ht="12.5">
+    <row r="918" spans="1:32" ht="12.75">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -33193,7 +33188,7 @@
       <c r="AE918" s="2"/>
       <c r="AF918" s="2"/>
     </row>
-    <row r="919" spans="1:32" ht="12.5">
+    <row r="919" spans="1:32" ht="12.75">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -33227,7 +33222,7 @@
       <c r="AE919" s="2"/>
       <c r="AF919" s="2"/>
     </row>
-    <row r="920" spans="1:32" ht="12.5">
+    <row r="920" spans="1:32" ht="12.75">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -33261,7 +33256,7 @@
       <c r="AE920" s="2"/>
       <c r="AF920" s="2"/>
     </row>
-    <row r="921" spans="1:32" ht="12.5">
+    <row r="921" spans="1:32" ht="12.75">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -33295,7 +33290,7 @@
       <c r="AE921" s="2"/>
       <c r="AF921" s="2"/>
     </row>
-    <row r="922" spans="1:32" ht="12.5">
+    <row r="922" spans="1:32" ht="12.75">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -33329,7 +33324,7 @@
       <c r="AE922" s="2"/>
       <c r="AF922" s="2"/>
     </row>
-    <row r="923" spans="1:32" ht="12.5">
+    <row r="923" spans="1:32" ht="12.75">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -33363,7 +33358,7 @@
       <c r="AE923" s="2"/>
       <c r="AF923" s="2"/>
     </row>
-    <row r="924" spans="1:32" ht="12.5">
+    <row r="924" spans="1:32" ht="12.75">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -33397,7 +33392,7 @@
       <c r="AE924" s="2"/>
       <c r="AF924" s="2"/>
     </row>
-    <row r="925" spans="1:32" ht="12.5">
+    <row r="925" spans="1:32" ht="12.75">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -33431,7 +33426,7 @@
       <c r="AE925" s="2"/>
       <c r="AF925" s="2"/>
     </row>
-    <row r="926" spans="1:32" ht="12.5">
+    <row r="926" spans="1:32" ht="12.75">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -33465,7 +33460,7 @@
       <c r="AE926" s="2"/>
       <c r="AF926" s="2"/>
     </row>
-    <row r="927" spans="1:32" ht="12.5">
+    <row r="927" spans="1:32" ht="12.75">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -33499,7 +33494,7 @@
       <c r="AE927" s="2"/>
       <c r="AF927" s="2"/>
     </row>
-    <row r="928" spans="1:32" ht="12.5">
+    <row r="928" spans="1:32" ht="12.75">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -33533,7 +33528,7 @@
       <c r="AE928" s="2"/>
       <c r="AF928" s="2"/>
     </row>
-    <row r="929" spans="1:32" ht="12.5">
+    <row r="929" spans="1:32" ht="12.75">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -33567,7 +33562,7 @@
       <c r="AE929" s="2"/>
       <c r="AF929" s="2"/>
     </row>
-    <row r="930" spans="1:32" ht="12.5">
+    <row r="930" spans="1:32" ht="12.75">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -33601,7 +33596,7 @@
       <c r="AE930" s="2"/>
       <c r="AF930" s="2"/>
     </row>
-    <row r="931" spans="1:32" ht="12.5">
+    <row r="931" spans="1:32" ht="12.75">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -33635,7 +33630,7 @@
       <c r="AE931" s="2"/>
       <c r="AF931" s="2"/>
     </row>
-    <row r="932" spans="1:32" ht="12.5">
+    <row r="932" spans="1:32" ht="12.75">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -33669,7 +33664,7 @@
       <c r="AE932" s="2"/>
       <c r="AF932" s="2"/>
     </row>
-    <row r="933" spans="1:32" ht="12.5">
+    <row r="933" spans="1:32" ht="12.75">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -33703,7 +33698,7 @@
       <c r="AE933" s="2"/>
       <c r="AF933" s="2"/>
     </row>
-    <row r="934" spans="1:32" ht="12.5">
+    <row r="934" spans="1:32" ht="12.75">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -33737,7 +33732,7 @@
       <c r="AE934" s="2"/>
       <c r="AF934" s="2"/>
     </row>
-    <row r="935" spans="1:32" ht="12.5">
+    <row r="935" spans="1:32" ht="12.75">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -33771,7 +33766,7 @@
       <c r="AE935" s="2"/>
       <c r="AF935" s="2"/>
     </row>
-    <row r="936" spans="1:32" ht="12.5">
+    <row r="936" spans="1:32" ht="12.75">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -33805,7 +33800,7 @@
       <c r="AE936" s="2"/>
       <c r="AF936" s="2"/>
     </row>
-    <row r="937" spans="1:32" ht="12.5">
+    <row r="937" spans="1:32" ht="12.75">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -33839,7 +33834,7 @@
       <c r="AE937" s="2"/>
       <c r="AF937" s="2"/>
     </row>
-    <row r="938" spans="1:32" ht="12.5">
+    <row r="938" spans="1:32" ht="12.75">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -33873,7 +33868,7 @@
       <c r="AE938" s="2"/>
       <c r="AF938" s="2"/>
     </row>
-    <row r="939" spans="1:32" ht="12.5">
+    <row r="939" spans="1:32" ht="12.75">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -33907,7 +33902,7 @@
       <c r="AE939" s="2"/>
       <c r="AF939" s="2"/>
     </row>
-    <row r="940" spans="1:32" ht="12.5">
+    <row r="940" spans="1:32" ht="12.75">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -33941,7 +33936,7 @@
       <c r="AE940" s="2"/>
       <c r="AF940" s="2"/>
     </row>
-    <row r="941" spans="1:32" ht="12.5">
+    <row r="941" spans="1:32" ht="12.75">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -33975,7 +33970,7 @@
       <c r="AE941" s="2"/>
       <c r="AF941" s="2"/>
     </row>
-    <row r="942" spans="1:32" ht="12.5">
+    <row r="942" spans="1:32" ht="12.75">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -34009,7 +34004,7 @@
       <c r="AE942" s="2"/>
       <c r="AF942" s="2"/>
     </row>
-    <row r="943" spans="1:32" ht="12.5">
+    <row r="943" spans="1:32" ht="12.75">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -34043,7 +34038,7 @@
       <c r="AE943" s="2"/>
       <c r="AF943" s="2"/>
     </row>
-    <row r="944" spans="1:32" ht="12.5">
+    <row r="944" spans="1:32" ht="12.75">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -34077,7 +34072,7 @@
       <c r="AE944" s="2"/>
       <c r="AF944" s="2"/>
     </row>
-    <row r="945" spans="1:32" ht="12.5">
+    <row r="945" spans="1:32" ht="12.75">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -34111,7 +34106,7 @@
       <c r="AE945" s="2"/>
       <c r="AF945" s="2"/>
     </row>
-    <row r="946" spans="1:32" ht="12.5">
+    <row r="946" spans="1:32" ht="12.75">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -34145,7 +34140,7 @@
       <c r="AE946" s="2"/>
       <c r="AF946" s="2"/>
     </row>
-    <row r="947" spans="1:32" ht="12.5">
+    <row r="947" spans="1:32" ht="12.75">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -34179,7 +34174,7 @@
       <c r="AE947" s="2"/>
       <c r="AF947" s="2"/>
     </row>
-    <row r="948" spans="1:32" ht="12.5">
+    <row r="948" spans="1:32" ht="12.75">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -34213,7 +34208,7 @@
       <c r="AE948" s="2"/>
       <c r="AF948" s="2"/>
     </row>
-    <row r="949" spans="1:32" ht="12.5">
+    <row r="949" spans="1:32" ht="12.75">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -34247,7 +34242,7 @@
       <c r="AE949" s="2"/>
       <c r="AF949" s="2"/>
     </row>
-    <row r="950" spans="1:32" ht="12.5">
+    <row r="950" spans="1:32" ht="12.75">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -34281,7 +34276,7 @@
       <c r="AE950" s="2"/>
       <c r="AF950" s="2"/>
     </row>
-    <row r="951" spans="1:32" ht="12.5">
+    <row r="951" spans="1:32" ht="12.75">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -34315,7 +34310,7 @@
       <c r="AE951" s="2"/>
       <c r="AF951" s="2"/>
     </row>
-    <row r="952" spans="1:32" ht="12.5">
+    <row r="952" spans="1:32" ht="12.75">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -34349,7 +34344,7 @@
       <c r="AE952" s="2"/>
       <c r="AF952" s="2"/>
     </row>
-    <row r="953" spans="1:32" ht="12.5">
+    <row r="953" spans="1:32" ht="12.75">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -34383,7 +34378,7 @@
       <c r="AE953" s="2"/>
       <c r="AF953" s="2"/>
     </row>
-    <row r="954" spans="1:32" ht="12.5">
+    <row r="954" spans="1:32" ht="12.75">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -34417,7 +34412,7 @@
       <c r="AE954" s="2"/>
       <c r="AF954" s="2"/>
     </row>
-    <row r="955" spans="1:32" ht="12.5">
+    <row r="955" spans="1:32" ht="12.75">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -34451,7 +34446,7 @@
       <c r="AE955" s="2"/>
       <c r="AF955" s="2"/>
     </row>
-    <row r="956" spans="1:32" ht="12.5">
+    <row r="956" spans="1:32" ht="12.75">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -34485,7 +34480,7 @@
       <c r="AE956" s="2"/>
       <c r="AF956" s="2"/>
     </row>
-    <row r="957" spans="1:32" ht="12.5">
+    <row r="957" spans="1:32" ht="12.75">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -34519,7 +34514,7 @@
       <c r="AE957" s="2"/>
       <c r="AF957" s="2"/>
     </row>
-    <row r="958" spans="1:32" ht="12.5">
+    <row r="958" spans="1:32" ht="12.75">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -34553,7 +34548,7 @@
       <c r="AE958" s="2"/>
       <c r="AF958" s="2"/>
     </row>
-    <row r="959" spans="1:32" ht="12.5">
+    <row r="959" spans="1:32" ht="12.75">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -34587,7 +34582,7 @@
       <c r="AE959" s="2"/>
       <c r="AF959" s="2"/>
     </row>
-    <row r="960" spans="1:32" ht="12.5">
+    <row r="960" spans="1:32" ht="12.75">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -34621,7 +34616,7 @@
       <c r="AE960" s="2"/>
       <c r="AF960" s="2"/>
     </row>
-    <row r="961" spans="1:32" ht="12.5">
+    <row r="961" spans="1:32" ht="12.75">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -34655,7 +34650,7 @@
       <c r="AE961" s="2"/>
       <c r="AF961" s="2"/>
     </row>
-    <row r="962" spans="1:32" ht="12.5">
+    <row r="962" spans="1:32" ht="12.75">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -34689,7 +34684,7 @@
       <c r="AE962" s="2"/>
       <c r="AF962" s="2"/>
     </row>
-    <row r="963" spans="1:32" ht="12.5">
+    <row r="963" spans="1:32" ht="12.75">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -34723,7 +34718,7 @@
       <c r="AE963" s="2"/>
       <c r="AF963" s="2"/>
     </row>
-    <row r="964" spans="1:32" ht="12.5">
+    <row r="964" spans="1:32" ht="12.75">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -34757,7 +34752,7 @@
       <c r="AE964" s="2"/>
       <c r="AF964" s="2"/>
     </row>
-    <row r="965" spans="1:32" ht="12.5">
+    <row r="965" spans="1:32" ht="12.75">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -34791,7 +34786,7 @@
       <c r="AE965" s="2"/>
       <c r="AF965" s="2"/>
     </row>
-    <row r="966" spans="1:32" ht="12.5">
+    <row r="966" spans="1:32" ht="12.75">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -34825,7 +34820,7 @@
       <c r="AE966" s="2"/>
       <c r="AF966" s="2"/>
     </row>
-    <row r="967" spans="1:32" ht="12.5">
+    <row r="967" spans="1:32" ht="12.75">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -34859,7 +34854,7 @@
       <c r="AE967" s="2"/>
       <c r="AF967" s="2"/>
     </row>
-    <row r="968" spans="1:32" ht="12.5">
+    <row r="968" spans="1:32" ht="12.75">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -34893,7 +34888,7 @@
       <c r="AE968" s="2"/>
       <c r="AF968" s="2"/>
     </row>
-    <row r="969" spans="1:32" ht="12.5">
+    <row r="969" spans="1:32" ht="12.75">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -34927,7 +34922,7 @@
       <c r="AE969" s="2"/>
       <c r="AF969" s="2"/>
     </row>
-    <row r="970" spans="1:32" ht="12.5">
+    <row r="970" spans="1:32" ht="12.75">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -34961,7 +34956,7 @@
       <c r="AE970" s="2"/>
       <c r="AF970" s="2"/>
     </row>
-    <row r="971" spans="1:32" ht="12.5">
+    <row r="971" spans="1:32" ht="12.75">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -34995,7 +34990,7 @@
       <c r="AE971" s="2"/>
       <c r="AF971" s="2"/>
     </row>
-    <row r="972" spans="1:32" ht="12.5">
+    <row r="972" spans="1:32" ht="12.75">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -35029,7 +35024,7 @@
       <c r="AE972" s="2"/>
       <c r="AF972" s="2"/>
     </row>
-    <row r="973" spans="1:32" ht="12.5">
+    <row r="973" spans="1:32" ht="12.75">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -35063,7 +35058,7 @@
       <c r="AE973" s="2"/>
       <c r="AF973" s="2"/>
     </row>
-    <row r="974" spans="1:32" ht="12.5">
+    <row r="974" spans="1:32" ht="12.75">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -35097,7 +35092,7 @@
       <c r="AE974" s="2"/>
       <c r="AF974" s="2"/>
     </row>
-    <row r="975" spans="1:32" ht="12.5">
+    <row r="975" spans="1:32" ht="12.75">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -35131,7 +35126,7 @@
       <c r="AE975" s="2"/>
       <c r="AF975" s="2"/>
     </row>
-    <row r="976" spans="1:32" ht="12.5">
+    <row r="976" spans="1:32" ht="12.75">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -35165,7 +35160,7 @@
       <c r="AE976" s="2"/>
       <c r="AF976" s="2"/>
     </row>
-    <row r="977" spans="1:32" ht="12.5">
+    <row r="977" spans="1:32" ht="12.75">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -35199,7 +35194,7 @@
       <c r="AE977" s="2"/>
       <c r="AF977" s="2"/>
     </row>
-    <row r="978" spans="1:32" ht="12.5">
+    <row r="978" spans="1:32" ht="12.75">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -35233,7 +35228,7 @@
       <c r="AE978" s="2"/>
       <c r="AF978" s="2"/>
     </row>
-    <row r="979" spans="1:32" ht="12.5">
+    <row r="979" spans="1:32" ht="12.75">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -35267,7 +35262,7 @@
       <c r="AE979" s="2"/>
       <c r="AF979" s="2"/>
     </row>
-    <row r="980" spans="1:32" ht="12.5">
+    <row r="980" spans="1:32" ht="12.75">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -35301,7 +35296,7 @@
       <c r="AE980" s="2"/>
       <c r="AF980" s="2"/>
     </row>
-    <row r="981" spans="1:32" ht="12.5">
+    <row r="981" spans="1:32" ht="12.75">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -35335,7 +35330,7 @@
       <c r="AE981" s="2"/>
       <c r="AF981" s="2"/>
     </row>
-    <row r="982" spans="1:32" ht="12.5">
+    <row r="982" spans="1:32" ht="12.75">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -35369,7 +35364,7 @@
       <c r="AE982" s="2"/>
       <c r="AF982" s="2"/>
     </row>
-    <row r="983" spans="1:32" ht="12.5">
+    <row r="983" spans="1:32" ht="12.75">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -35403,7 +35398,7 @@
       <c r="AE983" s="2"/>
       <c r="AF983" s="2"/>
     </row>
-    <row r="984" spans="1:32" ht="12.5">
+    <row r="984" spans="1:32" ht="12.75">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -35437,7 +35432,7 @@
       <c r="AE984" s="2"/>
       <c r="AF984" s="2"/>
     </row>
-    <row r="985" spans="1:32" ht="12.5">
+    <row r="985" spans="1:32" ht="12.75">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -35471,7 +35466,7 @@
       <c r="AE985" s="2"/>
       <c r="AF985" s="2"/>
     </row>
-    <row r="986" spans="1:32" ht="12.5">
+    <row r="986" spans="1:32" ht="12.75">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -35505,7 +35500,7 @@
       <c r="AE986" s="2"/>
       <c r="AF986" s="2"/>
     </row>
-    <row r="987" spans="1:32" ht="12.5">
+    <row r="987" spans="1:32" ht="12.75">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -35539,7 +35534,7 @@
       <c r="AE987" s="2"/>
       <c r="AF987" s="2"/>
     </row>
-    <row r="988" spans="1:32" ht="12.5">
+    <row r="988" spans="1:32" ht="12.75">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -35573,7 +35568,7 @@
       <c r="AE988" s="2"/>
       <c r="AF988" s="2"/>
     </row>
-    <row r="989" spans="1:32" ht="12.5">
+    <row r="989" spans="1:32" ht="12.75">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -35607,7 +35602,7 @@
       <c r="AE989" s="2"/>
       <c r="AF989" s="2"/>
     </row>
-    <row r="990" spans="1:32" ht="12.5">
+    <row r="990" spans="1:32" ht="12.75">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -35641,7 +35636,7 @@
       <c r="AE990" s="2"/>
       <c r="AF990" s="2"/>
     </row>
-    <row r="991" spans="1:32" ht="12.5">
+    <row r="991" spans="1:32" ht="12.75">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -35675,7 +35670,7 @@
       <c r="AE991" s="2"/>
       <c r="AF991" s="2"/>
     </row>
-    <row r="992" spans="1:32" ht="12.5">
+    <row r="992" spans="1:32" ht="12.75">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -35709,7 +35704,7 @@
       <c r="AE992" s="2"/>
       <c r="AF992" s="2"/>
     </row>
-    <row r="993" spans="1:32" ht="12.5">
+    <row r="993" spans="1:32" ht="12.75">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -35743,7 +35738,7 @@
       <c r="AE993" s="2"/>
       <c r="AF993" s="2"/>
     </row>
-    <row r="994" spans="1:32" ht="12.5">
+    <row r="994" spans="1:32" ht="12.75">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -35777,7 +35772,7 @@
       <c r="AE994" s="2"/>
       <c r="AF994" s="2"/>
     </row>
-    <row r="995" spans="1:32" ht="12.5">
+    <row r="995" spans="1:32" ht="12.75">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -35811,7 +35806,7 @@
       <c r="AE995" s="2"/>
       <c r="AF995" s="2"/>
     </row>
-    <row r="996" spans="1:32" ht="12.5">
+    <row r="996" spans="1:32" ht="12.75">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -35845,7 +35840,7 @@
       <c r="AE996" s="2"/>
       <c r="AF996" s="2"/>
     </row>
-    <row r="997" spans="1:32" ht="12.5">
+    <row r="997" spans="1:32" ht="12.75">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
@@ -35879,7 +35874,7 @@
       <c r="AE997" s="2"/>
       <c r="AF997" s="2"/>
     </row>
-    <row r="998" spans="1:32" ht="12.5">
+    <row r="998" spans="1:32" ht="12.75">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="2"/>
@@ -35913,7 +35908,7 @@
       <c r="AE998" s="2"/>
       <c r="AF998" s="2"/>
     </row>
-    <row r="999" spans="1:32" ht="12.5">
+    <row r="999" spans="1:32" ht="12.75">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="2"/>
@@ -35947,7 +35942,7 @@
       <c r="AE999" s="2"/>
       <c r="AF999" s="2"/>
     </row>
-    <row r="1000" spans="1:32" ht="12.5">
+    <row r="1000" spans="1:32" ht="12.75">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
@@ -35981,7 +35976,7 @@
       <c r="AE1000" s="2"/>
       <c r="AF1000" s="2"/>
     </row>
-    <row r="1001" spans="1:32" ht="12.5">
+    <row r="1001" spans="1:32" ht="12.75">
       <c r="A1001" s="2"/>
       <c r="B1001" s="2"/>
       <c r="C1001" s="2"/>
@@ -36015,7 +36010,7 @@
       <c r="AE1001" s="2"/>
       <c r="AF1001" s="2"/>
     </row>
-    <row r="1002" spans="1:32" ht="12.5">
+    <row r="1002" spans="1:32" ht="12.75">
       <c r="A1002" s="2"/>
       <c r="B1002" s="2"/>
       <c r="C1002" s="2"/>
@@ -36049,7 +36044,7 @@
       <c r="AE1002" s="2"/>
       <c r="AF1002" s="2"/>
     </row>
-    <row r="1003" spans="1:32" ht="12.5">
+    <row r="1003" spans="1:32" ht="12.75">
       <c r="A1003" s="2"/>
       <c r="B1003" s="2"/>
       <c r="C1003" s="2"/>
@@ -36083,7 +36078,7 @@
       <c r="AE1003" s="2"/>
       <c r="AF1003" s="2"/>
     </row>
-    <row r="1004" spans="1:32" ht="12.5">
+    <row r="1004" spans="1:32" ht="12.75">
       <c r="A1004" s="2"/>
       <c r="B1004" s="2"/>
       <c r="C1004" s="2"/>
@@ -36137,23 +36132,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8" style="42" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" style="42" customWidth="1"/>
-    <col min="3" max="3" width="56.54296875" style="42" customWidth="1"/>
-    <col min="4" max="5" width="11.08984375" style="42" customWidth="1"/>
-    <col min="6" max="6" width="82.81640625" style="42" customWidth="1"/>
-    <col min="7" max="7" width="5.26953125" style="42" customWidth="1"/>
-    <col min="8" max="16384" width="14.453125" style="42"/>
+    <col min="2" max="2" width="28.28515625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" style="42" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="82.85546875" style="42" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" style="42" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="12.75">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -36172,7 +36167,7 @@
       </c>
       <c r="G1" s="41"/>
     </row>
-    <row r="2" spans="1:7" ht="12.5">
+    <row r="2" spans="1:7" ht="12.75">
       <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
@@ -36183,13 +36178,13 @@
       <c r="F2" s="46"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:7" ht="50">
+    <row r="3" spans="1:7" ht="51">
       <c r="A3" s="22"/>
       <c r="B3" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="7" t="s">
@@ -36198,28 +36193,28 @@
       <c r="F3" s="9"/>
       <c r="G3" s="41"/>
     </row>
-    <row r="4" spans="1:7" ht="125">
+    <row r="4" spans="1:7" ht="127.5">
       <c r="A4" s="22"/>
       <c r="B4" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7" ht="76.5">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:7" ht="62.5">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="7" t="s">
@@ -36228,13 +36223,13 @@
       <c r="F5" s="9"/>
       <c r="G5" s="41"/>
     </row>
-    <row r="6" spans="1:7" ht="87.5">
+    <row r="6" spans="1:7" ht="89.25">
       <c r="A6" s="22"/>
       <c r="B6" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="7" t="s">
@@ -36243,13 +36238,13 @@
       <c r="F6" s="9"/>
       <c r="G6" s="41"/>
     </row>
-    <row r="7" spans="1:7" ht="26">
+    <row r="7" spans="1:7" ht="38.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="7" t="s">
@@ -36258,7 +36253,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="41"/>
     </row>
-    <row r="8" spans="1:7" ht="26">
+    <row r="8" spans="1:7" ht="25.5">
       <c r="A8" s="22"/>
       <c r="B8" s="22" t="s">
         <v>29</v>
@@ -36275,13 +36270,13 @@
       <c r="F8" s="9"/>
       <c r="G8" s="41"/>
     </row>
-    <row r="9" spans="1:7" ht="50">
+    <row r="9" spans="1:7" ht="51">
       <c r="A9" s="22"/>
       <c r="B9" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="7" t="s">
@@ -36290,13 +36285,13 @@
       <c r="F9" s="9"/>
       <c r="G9" s="41"/>
     </row>
-    <row r="10" spans="1:7" ht="87.5">
+    <row r="10" spans="1:7" ht="89.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
@@ -36305,13 +36300,13 @@
       <c r="F10" s="9"/>
       <c r="G10" s="41"/>
     </row>
-    <row r="11" spans="1:7" ht="87.5">
+    <row r="11" spans="1:7" ht="89.25">
       <c r="A11" s="22"/>
       <c r="B11" s="22" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>2</v>
@@ -36322,20 +36317,20 @@
       <c r="F11" s="9"/>
       <c r="G11" s="41"/>
     </row>
-    <row r="12" spans="1:7" ht="37.5">
+    <row r="12" spans="1:7" ht="38.25">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7"/>
       <c r="F12" s="9"/>
       <c r="G12" s="41"/>
     </row>
-    <row r="13" spans="1:7" ht="39">
+    <row r="13" spans="1:7" ht="25.5">
       <c r="A13" s="22"/>
       <c r="B13" s="22" t="s">
         <v>45</v>
@@ -36350,13 +36345,13 @@
       <c r="F13" s="9"/>
       <c r="G13" s="41"/>
     </row>
-    <row r="14" spans="1:7" ht="87.5">
+    <row r="14" spans="1:7" ht="102">
       <c r="A14" s="22"/>
       <c r="B14" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>2</v>
@@ -36367,13 +36362,13 @@
       <c r="F14" s="9"/>
       <c r="G14" s="41"/>
     </row>
-    <row r="15" spans="1:7" ht="75">
+    <row r="15" spans="1:7" ht="76.5">
       <c r="A15" s="22"/>
       <c r="B15" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>2</v>
@@ -36384,13 +36379,13 @@
       <c r="F15" s="9"/>
       <c r="G15" s="41"/>
     </row>
-    <row r="16" spans="1:7" ht="87.5">
+    <row r="16" spans="1:7" ht="89.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="7" t="s">
@@ -36399,9 +36394,9 @@
       <c r="F16" s="10"/>
       <c r="G16" s="41"/>
     </row>
-    <row r="17" spans="1:31" ht="13">
+    <row r="17" spans="1:31" ht="12.75">
       <c r="A17" s="51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -36410,47 +36405,47 @@
       <c r="F17" s="46"/>
       <c r="G17" s="41"/>
     </row>
-    <row r="18" spans="1:31" ht="200.5">
+    <row r="18" spans="1:31" ht="204">
       <c r="A18" s="22"/>
       <c r="B18" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G18" s="41"/>
     </row>
-    <row r="19" spans="1:31" ht="50">
+    <row r="19" spans="1:31" ht="51">
       <c r="A19" s="22"/>
       <c r="B19" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="11"/>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:31" ht="100.5">
+    <row r="20" spans="1:31" ht="102">
       <c r="A20" s="21"/>
       <c r="B20" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="D20" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="43"/>
@@ -36479,17 +36474,17 @@
       <c r="AD20" s="44"/>
       <c r="AE20" s="44"/>
     </row>
-    <row r="21" spans="1:31" ht="50.5">
+    <row r="21" spans="1:31" ht="51">
       <c r="A21" s="21"/>
       <c r="B21" s="46"/>
       <c r="C21" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="43"/>
@@ -36518,17 +36513,17 @@
       <c r="AD21" s="44"/>
       <c r="AE21" s="44"/>
     </row>
-    <row r="22" spans="1:31" ht="13">
+    <row r="22" spans="1:31" ht="12.75">
       <c r="A22" s="21"/>
       <c r="B22" s="46"/>
       <c r="C22" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="43"/>
@@ -36560,17 +36555,17 @@
     <row r="23" spans="1:31" ht="184.5" customHeight="1">
       <c r="A23" s="22"/>
       <c r="B23" s="55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G23" s="43"/>
       <c r="H23" s="44"/>
@@ -36602,16 +36597,16 @@
       <c r="A24" s="22"/>
       <c r="B24" s="46"/>
       <c r="C24" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G24" s="43"/>
       <c r="H24" s="44"/>
@@ -36642,17 +36637,17 @@
     <row r="25" spans="1:31" ht="99.75" customHeight="1">
       <c r="A25" s="22"/>
       <c r="B25" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G25" s="43"/>
       <c r="H25" s="44"/>
@@ -36680,24 +36675,24 @@
       <c r="AD25" s="44"/>
       <c r="AE25" s="44"/>
     </row>
-    <row r="26" spans="1:31" ht="326">
+    <row r="26" spans="1:31" ht="331.5">
       <c r="A26" s="14"/>
       <c r="B26" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="1:31" ht="12.5">
+    <row r="27" spans="1:31" ht="12.75">
       <c r="A27" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
@@ -36709,25 +36704,25 @@
     <row r="28" spans="1:31" ht="51">
       <c r="A28" s="14"/>
       <c r="B28" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="8"/>
       <c r="F28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="41"/>
+    </row>
+    <row r="29" spans="1:31" ht="369.75">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="41"/>
-    </row>
-    <row r="29" spans="1:31" ht="365">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="C29" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>2</v>
@@ -36738,22 +36733,22 @@
       <c r="F29" s="17"/>
       <c r="G29" s="41"/>
     </row>
-    <row r="30" spans="1:31" ht="137.5">
+    <row r="30" spans="1:31" ht="140.25">
       <c r="A30" s="18"/>
       <c r="B30" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G30" s="41"/>
     </row>
-    <row r="31" spans="1:31" ht="12.5">
+    <row r="31" spans="1:31" ht="12.75">
       <c r="A31" s="41"/>
       <c r="B31" s="41"/>
       <c r="C31" s="41"/>
